--- a/testdata/Result.xlsx
+++ b/testdata/Result.xlsx
@@ -3,21 +3,24 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10912"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/macpc/Documents/GitHub/GopiTesting/testdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEE8AB6D-F427-C045-B9F9-132B63477B3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03CC1CCD-8306-A844-8661-7BF1EC4DE8F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16380" xr2:uid="{C26E9DF5-8D70-D64B-9B03-89C5CA23F5FE}"/>
+    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16300" activeTab="2" xr2:uid="{C26E9DF5-8D70-D64B-9B03-89C5CA23F5FE}"/>
   </bookViews>
   <sheets>
     <sheet name="Inventory" sheetId="1" r:id="rId1"/>
+    <sheet name="InventoryChange" sheetId="3" r:id="rId2"/>
+    <sheet name="InventoryCostReset" sheetId="4" r:id="rId3"/>
+    <sheet name="ReorderSettings" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -32,7 +35,286 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="110">
+  <si>
+    <t>tblinventory</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>CategoryCode</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Departmentcode</t>
+  </si>
+  <si>
+    <t>BrandCode</t>
+  </si>
+  <si>
+    <t>Fail</t>
+  </si>
+  <si>
+    <t>859607</t>
+  </si>
+  <si>
+    <t xml:space="preserve">859607              </t>
+  </si>
+  <si>
+    <t>Subcategory</t>
+  </si>
+  <si>
+    <t>Class</t>
+  </si>
+  <si>
+    <t>aa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aa                                                </t>
+  </si>
+  <si>
+    <t>SubClass</t>
+  </si>
+  <si>
+    <t>SUBC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SUBC                                              </t>
+  </si>
+  <si>
+    <t>Origin</t>
+  </si>
+  <si>
+    <t>IND</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IND       </t>
+  </si>
+  <si>
+    <t>Warehouse</t>
+  </si>
+  <si>
+    <t>UOM</t>
+  </si>
+  <si>
+    <t>PCS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PCS            </t>
+  </si>
+  <si>
+    <t>Manufacturer</t>
+  </si>
+  <si>
+    <t>01</t>
+  </si>
+  <si>
+    <t>ItemType</t>
+  </si>
+  <si>
+    <t>REGULAR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">REGULAR   </t>
+  </si>
+  <si>
+    <t>Weight</t>
+  </si>
+  <si>
+    <t>12.456</t>
+  </si>
+  <si>
+    <t>Width</t>
+  </si>
+  <si>
+    <t>Height</t>
+  </si>
+  <si>
+    <t>3.00</t>
+  </si>
+  <si>
+    <t>Length</t>
+  </si>
+  <si>
+    <t>323.00</t>
+  </si>
+  <si>
+    <t>VendorCode</t>
+  </si>
+  <si>
+    <t>V00750</t>
+  </si>
+  <si>
+    <t xml:space="preserve">V00750    </t>
+  </si>
+  <si>
+    <t>BasicCost</t>
+  </si>
+  <si>
+    <t>300.00</t>
+  </si>
+  <si>
+    <t>SellingPrice</t>
+  </si>
+  <si>
+    <t>385.00</t>
+  </si>
+  <si>
+    <t>366.00</t>
+  </si>
+  <si>
+    <t>MRP</t>
+  </si>
+  <si>
+    <t>500.00</t>
+  </si>
+  <si>
+    <t>MinQty</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>MaxQty</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>ReorderQty</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>99</t>
+  </si>
+  <si>
+    <t>Cycledays</t>
+  </si>
+  <si>
+    <t>Orderby</t>
+  </si>
+  <si>
+    <t>Cyc.Days</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cyc.Days            </t>
+  </si>
+  <si>
+    <t>MinQtycalBy</t>
+  </si>
+  <si>
+    <t>Demand Forecast</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Demand Forecast     </t>
+  </si>
+  <si>
+    <t>ReOrderBy</t>
+  </si>
+  <si>
+    <t>Lead Time</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lead Time           </t>
+  </si>
+  <si>
+    <t>tblinventorypricing</t>
+  </si>
+  <si>
+    <t>NetSellingPrice</t>
+  </si>
+  <si>
+    <t>Purchasetype</t>
+  </si>
+  <si>
+    <t>CS</t>
+  </si>
+  <si>
+    <t>DiscountPer1</t>
+  </si>
+  <si>
+    <t>0.00</t>
+  </si>
+  <si>
+    <t>DiscountPer2</t>
+  </si>
+  <si>
+    <t>DiscountPer3</t>
+  </si>
+  <si>
+    <t>WPrice3</t>
+  </si>
+  <si>
+    <t>1.00</t>
+  </si>
+  <si>
+    <t>OTaxPer3</t>
+  </si>
+  <si>
+    <t>12.00</t>
+  </si>
+  <si>
+    <t>ITaxPer4</t>
+  </si>
+  <si>
+    <t>10.00</t>
+  </si>
+  <si>
+    <t>OTaxPer4</t>
+  </si>
+  <si>
+    <t>ITaxamt5</t>
+  </si>
+  <si>
+    <t>OTaxamt5</t>
+  </si>
+  <si>
+    <t>ITaxPer3</t>
+  </si>
+  <si>
+    <t>WPrice1</t>
+  </si>
+  <si>
+    <t>WPrice2</t>
+  </si>
+  <si>
+    <t>tblinventorystock</t>
+  </si>
+  <si>
+    <t>ItemCode</t>
+  </si>
+  <si>
+    <t>tblbarcode</t>
+  </si>
+  <si>
+    <t>BarCode</t>
+  </si>
+  <si>
+    <t>InventoryCode</t>
+  </si>
+  <si>
+    <t>tblInventoryShelfQty</t>
+  </si>
+  <si>
+    <t>122.5</t>
+  </si>
+  <si>
+    <t>Modules</t>
+  </si>
+  <si>
+    <t>Actual</t>
+  </si>
+  <si>
+    <t>Expected</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
   <si>
     <t>MASTERS</t>
   </si>
@@ -43,36 +325,53 @@
     <t>GST</t>
   </si>
   <si>
-    <t>Pass</t>
-  </si>
-  <si>
     <t>Calculation</t>
   </si>
   <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adult Soap                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">HOME ESSENTIAL 7                                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PLASTIC BOWL 7                                    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">FOOD CONTAINER                                    </t>
+  </si>
+  <si>
+    <t>Filters</t>
+  </si>
+  <si>
+    <t>Adult Soap</t>
+  </si>
+  <si>
     <t>Actual,Expected</t>
   </si>
   <si>
-    <t>354.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BISCUITS                                          </t>
-  </si>
-  <si>
-    <t>BISCUITS</t>
-  </si>
-  <si>
-    <t>Fail</t>
-  </si>
-  <si>
-    <t>AGARBATIES 7</t>
+    <t xml:space="preserve">warehouse </t>
+  </si>
+  <si>
+    <t xml:space="preserve">V00001    </t>
+  </si>
+  <si>
+    <t>18.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">000001              </t>
+  </si>
+  <si>
+    <t>tblinventorymaster</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -417,70 +716,992 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFB95743-92DA-254B-8BA0-94D4A29B664E}">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D73"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="F41" sqref="F41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="21.33203125" collapsed="true"/>
+    <col min="1" max="1" width="21.33203125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>89</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2">
+        <v>90</v>
+      </c>
+      <c r="C1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>93</v>
+      </c>
+      <c r="D2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>95</v>
+      </c>
+      <c r="D3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>96</v>
+      </c>
+      <c r="D4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s">
-        <v>2</v>
-      </c>
       <c r="B5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6">
+        <v>103</v>
+      </c>
+      <c r="C5" t="s">
+        <v>99</v>
+      </c>
+      <c r="D5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" t="n">
-        <v>354.0</v>
+        <v>103</v>
+      </c>
+      <c r="C6" t="s">
+        <v>100</v>
       </c>
       <c r="D6" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B7" t="s">
+        <v>103</v>
+      </c>
+      <c r="C7" t="s">
+        <v>101</v>
+      </c>
+      <c r="D7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
         <v>10</v>
       </c>
-      <c r="C7" t="s">
+      <c r="B8" t="s">
+        <v>103</v>
+      </c>
+      <c r="C8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>104</v>
+      </c>
+      <c r="B9" t="s">
+        <v>103</v>
+      </c>
+      <c r="C9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" t="s">
+        <v>103</v>
+      </c>
+      <c r="C10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" t="s">
+        <v>103</v>
+      </c>
+      <c r="C11" t="s">
+        <v>105</v>
+      </c>
+      <c r="D11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" t="s">
+        <v>103</v>
+      </c>
+      <c r="C12" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
+        <v>103</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" t="s">
+        <v>103</v>
+      </c>
+      <c r="C14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>35</v>
+      </c>
+      <c r="B15" t="s">
+        <v>103</v>
+      </c>
+      <c r="C15" t="s">
+        <v>106</v>
+      </c>
+      <c r="D15" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B16" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" t="s">
+        <v>12</v>
+      </c>
+      <c r="D16" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>13</v>
+      </c>
+      <c r="B17" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" t="s">
+        <v>15</v>
+      </c>
+      <c r="D17" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18" t="s">
+        <v>18</v>
+      </c>
+      <c r="D18" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>72</v>
+      </c>
+      <c r="B19" t="s">
+        <v>103</v>
+      </c>
+      <c r="C19" t="s">
+        <v>107</v>
+      </c>
+      <c r="D19" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20" t="s">
+        <v>21</v>
+      </c>
+      <c r="C20" t="s">
+        <v>22</v>
+      </c>
+      <c r="D20" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
+        <v>24</v>
+      </c>
+      <c r="D21" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>28</v>
+      </c>
+      <c r="B23" t="s">
+        <v>29</v>
+      </c>
+      <c r="C23" t="s">
+        <v>29</v>
+      </c>
+      <c r="D23" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>30</v>
+      </c>
+      <c r="B24" t="s">
+        <v>88</v>
+      </c>
+      <c r="C24" t="s">
+        <v>67</v>
+      </c>
+      <c r="D24" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>31</v>
+      </c>
+      <c r="B25" t="s">
+        <v>32</v>
+      </c>
+      <c r="C25" t="s">
+        <v>32</v>
+      </c>
+      <c r="D25" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>33</v>
+      </c>
+      <c r="B26" t="s">
+        <v>34</v>
+      </c>
+      <c r="C26" t="s">
+        <v>34</v>
+      </c>
+      <c r="D26" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>35</v>
+      </c>
+      <c r="B27" t="s">
+        <v>36</v>
+      </c>
+      <c r="C27" t="s">
+        <v>37</v>
+      </c>
+      <c r="D27" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>38</v>
+      </c>
+      <c r="B28" t="s">
+        <v>39</v>
+      </c>
+      <c r="C28" t="s">
+        <v>39</v>
+      </c>
+      <c r="D28" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>40</v>
+      </c>
+      <c r="B29" t="s">
+        <v>41</v>
+      </c>
+      <c r="C29" t="s">
+        <v>42</v>
+      </c>
+      <c r="D29" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>43</v>
+      </c>
+      <c r="B30" t="s">
+        <v>44</v>
+      </c>
+      <c r="C30" t="s">
+        <v>44</v>
+      </c>
+      <c r="D30" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>45</v>
+      </c>
+      <c r="B31" t="s">
+        <v>46</v>
+      </c>
+      <c r="C31" t="s">
+        <v>46</v>
+      </c>
+      <c r="D31" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>47</v>
+      </c>
+      <c r="B32" t="s">
+        <v>48</v>
+      </c>
+      <c r="C32" t="s">
+        <v>48</v>
+      </c>
+      <c r="D32" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>49</v>
+      </c>
+      <c r="B33" t="s">
+        <v>50</v>
+      </c>
+      <c r="C33" t="s">
+        <v>51</v>
+      </c>
+      <c r="D33" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>52</v>
+      </c>
+      <c r="B34" t="s">
+        <v>46</v>
+      </c>
+      <c r="C34" t="s">
+        <v>46</v>
+      </c>
+      <c r="D34" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>53</v>
+      </c>
+      <c r="B35" t="s">
+        <v>54</v>
+      </c>
+      <c r="C35" t="s">
+        <v>55</v>
+      </c>
+      <c r="D35" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>56</v>
+      </c>
+      <c r="B36" t="s">
+        <v>57</v>
+      </c>
+      <c r="C36" t="s">
+        <v>58</v>
+      </c>
+      <c r="D36" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>59</v>
+      </c>
+      <c r="B37" t="s">
+        <v>60</v>
+      </c>
+      <c r="C37" t="s">
+        <v>61</v>
+      </c>
+      <c r="D37" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>62</v>
+      </c>
+      <c r="B39" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>63</v>
+      </c>
+      <c r="B40" t="s">
+        <v>41</v>
+      </c>
+      <c r="C40" t="s">
+        <v>42</v>
+      </c>
+      <c r="D40" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>64</v>
+      </c>
+      <c r="B41" t="s">
+        <v>65</v>
+      </c>
+      <c r="C41" t="s">
+        <v>65</v>
+      </c>
+      <c r="D41" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>43</v>
+      </c>
+      <c r="B42" t="s">
+        <v>44</v>
+      </c>
+      <c r="C42" t="s">
+        <v>44</v>
+      </c>
+      <c r="D42" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>38</v>
+      </c>
+      <c r="B43" t="s">
+        <v>39</v>
+      </c>
+      <c r="C43" t="s">
+        <v>39</v>
+      </c>
+      <c r="D43" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>66</v>
+      </c>
+      <c r="B44" t="s">
+        <v>67</v>
+      </c>
+      <c r="C44" t="s">
+        <v>67</v>
+      </c>
+      <c r="D44" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>68</v>
+      </c>
+      <c r="B45" t="s">
+        <v>67</v>
+      </c>
+      <c r="C45" t="s">
+        <v>67</v>
+      </c>
+      <c r="D45" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>69</v>
+      </c>
+      <c r="B46" t="s">
+        <v>67</v>
+      </c>
+      <c r="C46" t="s">
+        <v>67</v>
+      </c>
+      <c r="D46" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>70</v>
+      </c>
+      <c r="B47" t="s">
+        <v>71</v>
+      </c>
+      <c r="C47" t="s">
+        <v>71</v>
+      </c>
+      <c r="D47" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>72</v>
+      </c>
+      <c r="B48" t="s">
+        <v>97</v>
+      </c>
+      <c r="C48" t="s">
+        <v>73</v>
+      </c>
+      <c r="D48" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>74</v>
+      </c>
+      <c r="B49" t="s">
+        <v>75</v>
+      </c>
+      <c r="C49" t="s">
+        <v>75</v>
+      </c>
+      <c r="D49" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>76</v>
+      </c>
+      <c r="B50" t="s">
+        <v>75</v>
+      </c>
+      <c r="C50" t="s">
+        <v>75</v>
+      </c>
+      <c r="D50" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>77</v>
+      </c>
+      <c r="B51" t="s">
+        <v>67</v>
+      </c>
+      <c r="C51" t="s">
+        <v>67</v>
+      </c>
+      <c r="D51" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>78</v>
+      </c>
+      <c r="B52" t="s">
+        <v>67</v>
+      </c>
+      <c r="C52" t="s">
+        <v>67</v>
+      </c>
+      <c r="D52" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>79</v>
+      </c>
+      <c r="B53" t="s">
+        <v>97</v>
+      </c>
+      <c r="C53" t="s">
+        <v>73</v>
+      </c>
+      <c r="D53" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>80</v>
+      </c>
+      <c r="B54" t="s">
+        <v>71</v>
+      </c>
+      <c r="C54" t="s">
+        <v>71</v>
+      </c>
+      <c r="D54" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>81</v>
+      </c>
+      <c r="B55" t="s">
+        <v>71</v>
+      </c>
+      <c r="C55" t="s">
+        <v>71</v>
+      </c>
+      <c r="D55" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>87</v>
+      </c>
+      <c r="B65" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>83</v>
+      </c>
+      <c r="B66" t="s">
         <v>7</v>
       </c>
-      <c r="D7" t="s">
-        <v>9</v>
+      <c r="C66" t="s">
+        <v>8</v>
+      </c>
+      <c r="D66" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>82</v>
+      </c>
+      <c r="B68" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>83</v>
+      </c>
+      <c r="B69" t="s">
+        <v>7</v>
+      </c>
+      <c r="C69" t="s">
+        <v>8</v>
+      </c>
+      <c r="D69" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>84</v>
+      </c>
+      <c r="B71" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>85</v>
+      </c>
+      <c r="B72" t="s">
+        <v>7</v>
+      </c>
+      <c r="C72" t="s">
+        <v>8</v>
+      </c>
+      <c r="D72" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>86</v>
+      </c>
+      <c r="B73" t="s">
+        <v>7</v>
+      </c>
+      <c r="C73" t="s">
+        <v>8</v>
+      </c>
+      <c r="D73" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02956DB4-87F2-B74E-BA22-8C57E40EAEE2}">
+  <dimension ref="A1:D23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="31.33203125" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>103</v>
+      </c>
+      <c r="C4" t="s">
+        <v>98</v>
+      </c>
+      <c r="D4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>62</v>
+      </c>
+      <c r="B17" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>79</v>
+      </c>
+      <c r="B18" t="s">
+        <v>103</v>
+      </c>
+      <c r="C18" t="s">
+        <v>107</v>
+      </c>
+      <c r="D18" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>72</v>
+      </c>
+      <c r="B19" t="s">
+        <v>103</v>
+      </c>
+      <c r="C19" t="s">
+        <v>107</v>
+      </c>
+      <c r="D19" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>109</v>
+      </c>
+      <c r="B21" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>35</v>
+      </c>
+      <c r="B22" t="s">
+        <v>103</v>
+      </c>
+      <c r="C22" t="s">
+        <v>1</v>
+      </c>
+      <c r="D22" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>86</v>
+      </c>
+      <c r="B23" t="s">
+        <v>103</v>
+      </c>
+      <c r="C23" t="s">
+        <v>108</v>
+      </c>
+      <c r="D23" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB950EF3-C9C9-E143-87D3-DD2E34F855A9}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F28" sqref="F28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D769FD94-1CA9-B347-B1BD-820C7108D501}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/testdata/Result.xlsx
+++ b/testdata/Result.xlsx
@@ -3,24 +3,29 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10912"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/macpc/Documents/GitHub/GopiTesting/testdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03CC1CCD-8306-A844-8661-7BF1EC4DE8F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3E70FEE-EE7C-BA41-861D-28D4B15CE7CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16300" activeTab="2" xr2:uid="{C26E9DF5-8D70-D64B-9B03-89C5CA23F5FE}"/>
+    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16300" activeTab="7" xr2:uid="{C26E9DF5-8D70-D64B-9B03-89C5CA23F5FE}"/>
   </bookViews>
   <sheets>
     <sheet name="Inventory" sheetId="1" r:id="rId1"/>
     <sheet name="InventoryChange" sheetId="3" r:id="rId2"/>
     <sheet name="InventoryCostReset" sheetId="4" r:id="rId3"/>
-    <sheet name="ReorderSettings" sheetId="2" r:id="rId4"/>
+    <sheet name="InventoryMovement" sheetId="5" r:id="rId4"/>
+    <sheet name="InventoryParentChildSetting" sheetId="6" r:id="rId5"/>
+    <sheet name="InventoryParameter" sheetId="7" r:id="rId6"/>
+    <sheet name="PackageInventory" sheetId="8" r:id="rId7"/>
+    <sheet name="RefillingScheduling" sheetId="9" r:id="rId8"/>
+    <sheet name="ReorderSettings" sheetId="2" r:id="rId9"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -35,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="139">
   <si>
     <t>tblinventory</t>
   </si>
@@ -352,12 +357,6 @@
     <t>Actual,Expected</t>
   </si>
   <si>
-    <t xml:space="preserve">warehouse </t>
-  </si>
-  <si>
-    <t xml:space="preserve">V00001    </t>
-  </si>
-  <si>
     <t>18.00</t>
   </si>
   <si>
@@ -365,13 +364,107 @@
   </si>
   <si>
     <t>tblinventorymaster</t>
+  </si>
+  <si>
+    <t>FAIL</t>
+  </si>
+  <si>
+    <t>tblparentchild</t>
+  </si>
+  <si>
+    <t>CInventoryCode</t>
+  </si>
+  <si>
+    <t>007717</t>
+  </si>
+  <si>
+    <t xml:space="preserve">007717    </t>
+  </si>
+  <si>
+    <t>PInventoryCode</t>
+  </si>
+  <si>
+    <t>KLF TILNAD GIN TIL 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">851985    </t>
+  </si>
+  <si>
+    <t>BISCUITS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BISCUITS                                          </t>
+  </si>
+  <si>
+    <t>SNACKS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SNACKS                                            </t>
+  </si>
+  <si>
+    <t>PARLE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PARLE                                             </t>
+  </si>
+  <si>
+    <t>Barcode</t>
+  </si>
+  <si>
+    <t>AER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AER                                               </t>
+  </si>
+  <si>
+    <t>HQ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HQ        </t>
+  </si>
+  <si>
+    <t>tblPackageHeader</t>
+  </si>
+  <si>
+    <t>PackageInventory</t>
+  </si>
+  <si>
+    <t>000016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">000016              </t>
+  </si>
+  <si>
+    <t>Inventorycode</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>Qty</t>
+  </si>
+  <si>
+    <t>000001</t>
+  </si>
+  <si>
+    <t>tblPackageDetail</t>
+  </si>
+  <si>
+    <t xml:space="preserve">000002              </t>
+  </si>
+  <si>
+    <t>LastReFilledQty</t>
+  </si>
+  <si>
+    <t>tblRefillingSchedule</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -724,7 +817,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="21.33203125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="21.33203125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
@@ -837,55 +930,49 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="B10" t="s">
-        <v>103</v>
-      </c>
-      <c r="C10" t="s">
-        <v>18</v>
-      </c>
-      <c r="D10" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="B11" t="s">
-        <v>103</v>
+        <v>116</v>
       </c>
       <c r="C11" t="s">
-        <v>105</v>
+        <v>117</v>
       </c>
       <c r="D11" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="B12" t="s">
-        <v>103</v>
+        <v>118</v>
       </c>
       <c r="C12" t="s">
-        <v>22</v>
+        <v>119</v>
       </c>
       <c r="D12" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="B13" t="s">
-        <v>103</v>
+        <v>120</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>121</v>
       </c>
       <c r="D13" t="s">
         <v>6</v>
@@ -893,30 +980,30 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>25</v>
+        <v>122</v>
       </c>
       <c r="B14" t="s">
-        <v>103</v>
+        <v>7</v>
       </c>
       <c r="C14" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="D14" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="B15" t="s">
-        <v>103</v>
+        <v>123</v>
       </c>
       <c r="C15" t="s">
-        <v>106</v>
+        <v>124</v>
       </c>
       <c r="D15" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
@@ -963,16 +1050,16 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>72</v>
+        <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>103</v>
+        <v>125</v>
       </c>
       <c r="C19" t="s">
-        <v>107</v>
+        <v>126</v>
       </c>
       <c r="D19" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
@@ -1554,10 +1641,10 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="31.33203125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="31.33203125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1">
       <c r="A1" t="s">
         <v>89</v>
       </c>
@@ -1571,7 +1658,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2">
       <c r="A2" t="s">
         <v>102</v>
       </c>
@@ -1617,7 +1704,7 @@
         <v>103</v>
       </c>
       <c r="C18" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D18" t="s">
         <v>6</v>
@@ -1631,7 +1718,7 @@
         <v>103</v>
       </c>
       <c r="C19" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D19" t="s">
         <v>6</v>
@@ -1639,7 +1726,7 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B21" t="s">
         <v>1</v>
@@ -1667,7 +1754,7 @@
         <v>103</v>
       </c>
       <c r="C23" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D23" t="s">
         <v>6</v>
@@ -1682,7 +1769,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB950EF3-C9C9-E143-87D3-DD2E34F855A9}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
@@ -1693,6 +1780,330 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8911E3AD-2A7A-1C45-913F-056426F22285}">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I27" sqref="I27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>93</v>
+      </c>
+      <c r="D2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5040DAAB-467E-F64D-8200-FEEA8DBBF849}">
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J19" sqref="J19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>93</v>
+      </c>
+      <c r="D2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>109</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>110</v>
+      </c>
+      <c r="B5" t="s">
+        <v>111</v>
+      </c>
+      <c r="C5" t="s">
+        <v>112</v>
+      </c>
+      <c r="D5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>113</v>
+      </c>
+      <c r="B6" t="s">
+        <v>114</v>
+      </c>
+      <c r="C6" t="s">
+        <v>115</v>
+      </c>
+      <c r="D6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C42D14C-E386-834D-B620-7036194A8FAC}">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L25" sqref="L25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>93</v>
+      </c>
+      <c r="D2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3DB83E4-6504-9648-BC73-274EF22E4CBC}">
+  <dimension ref="A4:D11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K26" sqref="K26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>127</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>128</v>
+      </c>
+      <c r="B5" t="s">
+        <v>129</v>
+      </c>
+      <c r="C5" t="s">
+        <v>130</v>
+      </c>
+      <c r="D5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>131</v>
+      </c>
+      <c r="B6" t="s">
+        <v>132</v>
+      </c>
+      <c r="C6" t="s">
+        <v>132</v>
+      </c>
+      <c r="D6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>135</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>133</v>
+      </c>
+      <c r="B9" t="s">
+        <v>129</v>
+      </c>
+      <c r="C9" t="s">
+        <v>130</v>
+      </c>
+      <c r="D9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>131</v>
+      </c>
+      <c r="B10" t="s">
+        <v>134</v>
+      </c>
+      <c r="C10" t="s">
+        <v>136</v>
+      </c>
+      <c r="D10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>133</v>
+      </c>
+      <c r="B11" t="s">
+        <v>132</v>
+      </c>
+      <c r="C11" t="s">
+        <v>46</v>
+      </c>
+      <c r="D11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6C85649-D305-4843-951C-1FEF04034956}">
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O20" sqref="O20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" customWidth="true" width="26.1640625" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>138</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B4" t="s">
+        <v>134</v>
+      </c>
+      <c r="C4" t="s">
+        <v>106</v>
+      </c>
+      <c r="D4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>137</v>
+      </c>
+      <c r="B5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D769FD94-1CA9-B347-B1BD-820C7108D501}">
   <dimension ref="A1"/>
   <sheetViews>

--- a/testdata/Result.xlsx
+++ b/testdata/Result.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/macpc/Documents/GitHub/GopiTesting/testdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3E70FEE-EE7C-BA41-861D-28D4B15CE7CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B6B47BD-7D6D-9944-B056-4A98B9216704}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16300" activeTab="7" xr2:uid="{C26E9DF5-8D70-D64B-9B03-89C5CA23F5FE}"/>
+    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16180" firstSheet="5" activeTab="12" xr2:uid="{C26E9DF5-8D70-D64B-9B03-89C5CA23F5FE}"/>
   </bookViews>
   <sheets>
     <sheet name="Inventory" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,13 @@
     <sheet name="InventoryParameter" sheetId="7" r:id="rId6"/>
     <sheet name="PackageInventory" sheetId="8" r:id="rId7"/>
     <sheet name="RefillingScheduling" sheetId="9" r:id="rId8"/>
-    <sheet name="ReorderSettings" sheetId="2" r:id="rId9"/>
+    <sheet name="LocationWisePriceChange" sheetId="10" r:id="rId9"/>
+    <sheet name="PriceChangeBatchItem" sheetId="11" r:id="rId10"/>
+    <sheet name="PriceImportExport" sheetId="13" r:id="rId11"/>
+    <sheet name="FreeItem" sheetId="14" r:id="rId12"/>
+    <sheet name="NormalPromotion" sheetId="15" r:id="rId13"/>
+    <sheet name="PriceChangeNonBatchItem" sheetId="12" r:id="rId14"/>
+    <sheet name="ReorderSettings" sheetId="2" r:id="rId15"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -40,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="708" uniqueCount="167">
   <si>
     <t>tblinventory</t>
   </si>
@@ -457,6 +463,90 @@
   </si>
   <si>
     <t>tblRefillingSchedule</t>
+  </si>
+  <si>
+    <t>tblOutletPricingControl</t>
+  </si>
+  <si>
+    <t>000003</t>
+  </si>
+  <si>
+    <t>220.00</t>
+  </si>
+  <si>
+    <t>SugSellingPrice</t>
+  </si>
+  <si>
+    <t>14.00</t>
+  </si>
+  <si>
+    <t>2.00</t>
+  </si>
+  <si>
+    <t>4.00</t>
+  </si>
+  <si>
+    <t>199.00</t>
+  </si>
+  <si>
+    <t>220.0000</t>
+  </si>
+  <si>
+    <t>TBLBATCHINVENTORYCONTROL</t>
+  </si>
+  <si>
+    <t>WAPrice2</t>
+  </si>
+  <si>
+    <t>WAPrice3</t>
+  </si>
+  <si>
+    <t>tblslist</t>
+  </si>
+  <si>
+    <t>GrpCode</t>
+  </si>
+  <si>
+    <t>EligibilityQty</t>
+  </si>
+  <si>
+    <t>tblQualifingitemforfree</t>
+  </si>
+  <si>
+    <t>tblGroup</t>
+  </si>
+  <si>
+    <t>GroupCode</t>
+  </si>
+  <si>
+    <t>Mode</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>01-01-2022</t>
+  </si>
+  <si>
+    <t>2019-09-06 00:00:00.0</t>
+  </si>
+  <si>
+    <t>01-03-2022</t>
+  </si>
+  <si>
+    <t>2019-09-15 00:00:00.0</t>
+  </si>
+  <si>
+    <t>003323</t>
+  </si>
+  <si>
+    <t>000002</t>
+  </si>
+  <si>
+    <t>000004</t>
   </si>
 </sst>
 </file>
@@ -811,7 +901,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFB95743-92DA-254B-8BA0-94D4A29B664E}">
   <dimension ref="A1:D73"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" workbookViewId="0">
+    <sheetView topLeftCell="A42" workbookViewId="0">
       <selection activeCell="F41" sqref="F41"/>
     </sheetView>
   </sheetViews>
@@ -1627,6 +1717,690 @@
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D3EF3DF-2171-C44B-9361-BA75E93DABC2}">
+  <dimension ref="A1:D20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L26" sqref="L26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" customWidth="true" width="19.1640625" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B6" t="s">
+        <v>146</v>
+      </c>
+      <c r="C6" t="s">
+        <v>141</v>
+      </c>
+      <c r="D6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>62</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>80</v>
+      </c>
+      <c r="B9" t="s">
+        <v>146</v>
+      </c>
+      <c r="C9" t="s">
+        <v>144</v>
+      </c>
+      <c r="D9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>81</v>
+      </c>
+      <c r="B10" t="s">
+        <v>146</v>
+      </c>
+      <c r="C10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>70</v>
+      </c>
+      <c r="B11" t="s">
+        <v>146</v>
+      </c>
+      <c r="C11" t="s">
+        <v>145</v>
+      </c>
+      <c r="D11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>62</v>
+      </c>
+      <c r="B13" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>63</v>
+      </c>
+      <c r="B14" t="s">
+        <v>146</v>
+      </c>
+      <c r="C14" t="s">
+        <v>147</v>
+      </c>
+      <c r="D14" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>148</v>
+      </c>
+      <c r="B16" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>63</v>
+      </c>
+      <c r="B17" t="s">
+        <v>146</v>
+      </c>
+      <c r="C17" t="s">
+        <v>146</v>
+      </c>
+      <c r="D17" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>80</v>
+      </c>
+      <c r="B18" t="s">
+        <v>146</v>
+      </c>
+      <c r="C18" t="s">
+        <v>146</v>
+      </c>
+      <c r="D18" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>149</v>
+      </c>
+      <c r="B19" t="s">
+        <v>146</v>
+      </c>
+      <c r="C19" t="s">
+        <v>146</v>
+      </c>
+      <c r="D19" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>150</v>
+      </c>
+      <c r="B20" t="s">
+        <v>146</v>
+      </c>
+      <c r="C20" t="s">
+        <v>146</v>
+      </c>
+      <c r="D20" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92640856-7495-824C-80F3-AAF3717C03A2}">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D22" sqref="A17:D22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D086497B-6100-5C4C-BFAC-B91662652A0A}">
+  <dimension ref="A1:D22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" customWidth="true" width="21.0" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="16.1640625" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>155</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>156</v>
+      </c>
+      <c r="B6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C6" t="s">
+        <v>97</v>
+      </c>
+      <c r="D6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>159</v>
+      </c>
+      <c r="B7" t="s">
+        <v>162</v>
+      </c>
+      <c r="C7" t="s">
+        <v>163</v>
+      </c>
+      <c r="D7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>157</v>
+      </c>
+      <c r="B8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C8" t="s">
+        <v>158</v>
+      </c>
+      <c r="D8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>133</v>
+      </c>
+      <c r="B9" t="s">
+        <v>46</v>
+      </c>
+      <c r="C9" t="s">
+        <v>46</v>
+      </c>
+      <c r="D9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>159</v>
+      </c>
+      <c r="B11" t="s">
+        <v>160</v>
+      </c>
+      <c r="C11" t="s">
+        <v>161</v>
+      </c>
+      <c r="D11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>154</v>
+      </c>
+      <c r="B13" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>152</v>
+      </c>
+      <c r="B14" t="s">
+        <v>46</v>
+      </c>
+      <c r="C14" t="s">
+        <v>97</v>
+      </c>
+      <c r="D14" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>83</v>
+      </c>
+      <c r="B15" t="s">
+        <v>166</v>
+      </c>
+      <c r="C15" t="s">
+        <v>164</v>
+      </c>
+      <c r="D15" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>133</v>
+      </c>
+      <c r="B16" t="s">
+        <v>46</v>
+      </c>
+      <c r="C16" t="s">
+        <v>46</v>
+      </c>
+      <c r="D16" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>151</v>
+      </c>
+      <c r="B17" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>152</v>
+      </c>
+      <c r="B18" t="s">
+        <v>46</v>
+      </c>
+      <c r="C18" t="s">
+        <v>97</v>
+      </c>
+      <c r="D18" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>83</v>
+      </c>
+      <c r="B19" t="s">
+        <v>166</v>
+      </c>
+      <c r="C19" t="s">
+        <v>164</v>
+      </c>
+      <c r="D19" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>83</v>
+      </c>
+      <c r="B20" t="s">
+        <v>166</v>
+      </c>
+      <c r="C20" t="s">
+        <v>164</v>
+      </c>
+      <c r="D20" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>133</v>
+      </c>
+      <c r="B21" t="s">
+        <v>46</v>
+      </c>
+      <c r="C21" t="s">
+        <v>46</v>
+      </c>
+      <c r="D21" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>153</v>
+      </c>
+      <c r="B22" t="s">
+        <v>46</v>
+      </c>
+      <c r="C22" t="s">
+        <v>67</v>
+      </c>
+      <c r="D22" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19F09063-D69C-DC49-9CC9-528DDBE2C8A7}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P23" sqref="P23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70C0B52B-FBCA-094B-82F6-E8C0FDE04B55}">
+  <dimension ref="A1:D15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O23" sqref="O23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B6" t="s">
+        <v>146</v>
+      </c>
+      <c r="C6" t="s">
+        <v>141</v>
+      </c>
+      <c r="D6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>43</v>
+      </c>
+      <c r="B7" t="s">
+        <v>143</v>
+      </c>
+      <c r="C7" t="s">
+        <v>143</v>
+      </c>
+      <c r="D7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>62</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>63</v>
+      </c>
+      <c r="B10" t="s">
+        <v>146</v>
+      </c>
+      <c r="C10" t="s">
+        <v>141</v>
+      </c>
+      <c r="D10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>43</v>
+      </c>
+      <c r="B11" t="s">
+        <v>143</v>
+      </c>
+      <c r="C11" t="s">
+        <v>143</v>
+      </c>
+      <c r="D11" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>80</v>
+      </c>
+      <c r="B13" t="s">
+        <v>146</v>
+      </c>
+      <c r="C13" t="s">
+        <v>144</v>
+      </c>
+      <c r="D13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>81</v>
+      </c>
+      <c r="B14" t="s">
+        <v>146</v>
+      </c>
+      <c r="C14" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>70</v>
+      </c>
+      <c r="B15" t="s">
+        <v>146</v>
+      </c>
+      <c r="C15" t="s">
+        <v>145</v>
+      </c>
+      <c r="D15" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D769FD94-1CA9-B347-B1BD-820C7108D501}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1644,7 +2418,7 @@
     <col min="1" max="1" customWidth="true" width="31.33203125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>89</v>
       </c>
@@ -1658,7 +2432,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>102</v>
       </c>
@@ -2031,7 +2805,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6C85649-D305-4843-951C-1FEF04034956}">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="O20" sqref="O20"/>
     </sheetView>
   </sheetViews>
@@ -2062,7 +2836,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>138</v>
       </c>
@@ -2070,7 +2844,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>86</v>
       </c>
@@ -2084,7 +2858,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>137</v>
       </c>
@@ -2104,15 +2878,77 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D769FD94-1CA9-B347-B1BD-820C7108D501}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A0AA96D-5ACB-074F-A3CF-42CC0223FE20}">
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" customWidth="true" width="20.0" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>139</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B4" t="s">
+        <v>140</v>
+      </c>
+      <c r="C4" t="s">
+        <v>106</v>
+      </c>
+      <c r="D4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>142</v>
+      </c>
+      <c r="B5" t="s">
+        <v>97</v>
+      </c>
+      <c r="C5" t="s">
+        <v>141</v>
+      </c>
+      <c r="D5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/testdata/Result.xlsx
+++ b/testdata/Result.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/macpc/Documents/GitHub/GopiTesting/testdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B6B47BD-7D6D-9944-B056-4A98B9216704}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A8CAC19-391A-F540-ABB6-5DA1828BD404}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16180" firstSheet="5" activeTab="12" xr2:uid="{C26E9DF5-8D70-D64B-9B03-89C5CA23F5FE}"/>
+    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16180" firstSheet="7" activeTab="14" xr2:uid="{C26E9DF5-8D70-D64B-9B03-89C5CA23F5FE}"/>
   </bookViews>
   <sheets>
     <sheet name="Inventory" sheetId="1" r:id="rId1"/>
@@ -26,8 +26,10 @@
     <sheet name="PriceImportExport" sheetId="13" r:id="rId11"/>
     <sheet name="FreeItem" sheetId="14" r:id="rId12"/>
     <sheet name="NormalPromotion" sheetId="15" r:id="rId13"/>
-    <sheet name="PriceChangeNonBatchItem" sheetId="12" r:id="rId14"/>
-    <sheet name="ReorderSettings" sheetId="2" r:id="rId15"/>
+    <sheet name="OtherPromotion" sheetId="16" r:id="rId14"/>
+    <sheet name="DayBasedPromotion" sheetId="17" r:id="rId15"/>
+    <sheet name="PriceChangeNonBatchItem" sheetId="12" r:id="rId16"/>
+    <sheet name="ReorderSettings" sheetId="2" r:id="rId17"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -46,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="708" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="792" uniqueCount="205">
   <si>
     <t>tblinventory</t>
   </si>
@@ -543,10 +545,124 @@
     <t>003323</t>
   </si>
   <si>
-    <t>000002</t>
-  </si>
-  <si>
     <t>000004</t>
+  </si>
+  <si>
+    <t>DiscountPerc</t>
+  </si>
+  <si>
+    <t>01/01/2022</t>
+  </si>
+  <si>
+    <t>2022-02-02 00:00:00.0</t>
+  </si>
+  <si>
+    <t>Promotiontodate</t>
+  </si>
+  <si>
+    <t>2022-02-03 00:00:00.0</t>
+  </si>
+  <si>
+    <t>013000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     </t>
+  </si>
+  <si>
+    <t>023000</t>
+  </si>
+  <si>
+    <t>0.01</t>
+  </si>
+  <si>
+    <t>tblPromotionPriceChange</t>
+  </si>
+  <si>
+    <t>BatchNo</t>
+  </si>
+  <si>
+    <t>022000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">022000              </t>
+  </si>
+  <si>
+    <t>tblRevokePromotionPrice</t>
+  </si>
+  <si>
+    <t>Promotionqty</t>
+  </si>
+  <si>
+    <t>Promotionfromdate</t>
+  </si>
+  <si>
+    <t>FromTime</t>
+  </si>
+  <si>
+    <t>ToTime</t>
+  </si>
+  <si>
+    <t>Promotionfromtime</t>
+  </si>
+  <si>
+    <t>03/02/2022</t>
+  </si>
+  <si>
+    <t>tblPromotionHeader</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>FromDate</t>
+  </si>
+  <si>
+    <t>ToDate</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Free Item</t>
+  </si>
+  <si>
+    <t>Slab</t>
+  </si>
+  <si>
+    <t>B 1 G 1</t>
+  </si>
+  <si>
+    <t>2018-04-28 00:00:00.0</t>
+  </si>
+  <si>
+    <t>tblPromotionDetail</t>
+  </si>
+  <si>
+    <t>RangeFrom</t>
+  </si>
+  <si>
+    <t>1000.00</t>
+  </si>
+  <si>
+    <t>RangeTo</t>
+  </si>
+  <si>
+    <t>2000.00</t>
+  </si>
+  <si>
+    <t>Batchno</t>
+  </si>
+  <si>
+    <t>001000</t>
+  </si>
+  <si>
+    <t>tblPromotionDayBased</t>
+  </si>
+  <si>
+    <t>04-02-2022</t>
+  </si>
+  <si>
+    <t>2022-02-04 00:00:00.0</t>
   </si>
 </sst>
 </file>
@@ -1970,7 +2086,7 @@
     <col min="3" max="3" customWidth="true" width="16.1640625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>89</v>
       </c>
@@ -1984,7 +2100,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>102</v>
       </c>
@@ -2070,7 +2186,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>154</v>
       </c>
@@ -2078,7 +2194,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>152</v>
       </c>
@@ -2092,12 +2208,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>83</v>
       </c>
       <c r="B15" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C15" t="s">
         <v>164</v>
@@ -2106,7 +2222,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>133</v>
       </c>
@@ -2120,7 +2236,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>151</v>
       </c>
@@ -2128,7 +2244,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>152</v>
       </c>
@@ -2142,12 +2258,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>83</v>
       </c>
       <c r="B19" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C19" t="s">
         <v>164</v>
@@ -2156,12 +2272,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>83</v>
       </c>
       <c r="B20" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C20" t="s">
         <v>164</v>
@@ -2170,7 +2286,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>133</v>
       </c>
@@ -2184,7 +2300,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>153</v>
       </c>
@@ -2205,17 +2321,336 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19F09063-D69C-DC49-9CC9-528DDBE2C8A7}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="P23" sqref="P23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>175</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>176</v>
+      </c>
+      <c r="B6" t="s">
+        <v>177</v>
+      </c>
+      <c r="C6" t="s">
+        <v>178</v>
+      </c>
+      <c r="D6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>153</v>
+      </c>
+      <c r="B7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C7" t="s">
+        <v>71</v>
+      </c>
+      <c r="D7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>166</v>
+      </c>
+      <c r="B8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C8" t="s">
+        <v>67</v>
+      </c>
+      <c r="D8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>181</v>
+      </c>
+      <c r="B9" t="s">
+        <v>167</v>
+      </c>
+      <c r="C9" t="s">
+        <v>168</v>
+      </c>
+      <c r="D9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>169</v>
+      </c>
+      <c r="B10" t="s">
+        <v>185</v>
+      </c>
+      <c r="C10" t="s">
+        <v>170</v>
+      </c>
+      <c r="D10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>182</v>
+      </c>
+      <c r="B11" t="s">
+        <v>171</v>
+      </c>
+      <c r="C11" t="s">
+        <v>172</v>
+      </c>
+      <c r="D11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>181</v>
+      </c>
+      <c r="B14" t="s">
+        <v>167</v>
+      </c>
+      <c r="C14" t="s">
+        <v>168</v>
+      </c>
+      <c r="D14" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>169</v>
+      </c>
+      <c r="B15" t="s">
+        <v>185</v>
+      </c>
+      <c r="C15" t="s">
+        <v>170</v>
+      </c>
+      <c r="D15" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>184</v>
+      </c>
+      <c r="B16" t="s">
+        <v>171</v>
+      </c>
+      <c r="C16" t="s">
+        <v>172</v>
+      </c>
+      <c r="D16" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>183</v>
+      </c>
+      <c r="B17" t="s">
+        <v>173</v>
+      </c>
+      <c r="C17" t="s">
+        <v>172</v>
+      </c>
+      <c r="D17" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>153</v>
+      </c>
+      <c r="B18" t="s">
+        <v>46</v>
+      </c>
+      <c r="C18" t="s">
+        <v>71</v>
+      </c>
+      <c r="D18" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>180</v>
+      </c>
+      <c r="B19" t="s">
+        <v>46</v>
+      </c>
+      <c r="C19" t="s">
+        <v>71</v>
+      </c>
+      <c r="D19" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>179</v>
+      </c>
+      <c r="B20" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>176</v>
+      </c>
+      <c r="B21" t="s">
+        <v>177</v>
+      </c>
+      <c r="C21" t="s">
+        <v>178</v>
+      </c>
+      <c r="D21" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>153</v>
+      </c>
+      <c r="B22" t="s">
+        <v>46</v>
+      </c>
+      <c r="C22" t="s">
+        <v>71</v>
+      </c>
+      <c r="D22" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>166</v>
+      </c>
+      <c r="B23" t="s">
+        <v>46</v>
+      </c>
+      <c r="C23" t="s">
+        <v>174</v>
+      </c>
+      <c r="D23" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>181</v>
+      </c>
+      <c r="B24" t="s">
+        <v>167</v>
+      </c>
+      <c r="C24" t="s">
+        <v>168</v>
+      </c>
+      <c r="D24" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>169</v>
+      </c>
+      <c r="B25" t="s">
+        <v>185</v>
+      </c>
+      <c r="C25" t="s">
+        <v>170</v>
+      </c>
+      <c r="D25" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>182</v>
+      </c>
+      <c r="B26" t="s">
+        <v>171</v>
+      </c>
+      <c r="C26" t="s">
+        <v>172</v>
+      </c>
+      <c r="D26" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>183</v>
+      </c>
+      <c r="B27" t="s">
+        <v>173</v>
+      </c>
+      <c r="C27" t="s">
+        <v>172</v>
+      </c>
+      <c r="D27" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90A3C5FF-3CE0-654B-B695-5A9A99E0D9B8}">
+  <dimension ref="A1:D23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="T23" sqref="T23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>102</v>
+        <v>89</v>
       </c>
       <c r="B1" t="s">
         <v>90</v>
@@ -2232,7 +2667,135 @@
         <v>102</v>
       </c>
       <c r="D2" t="s">
-        <v>108</v>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>186</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>187</v>
+      </c>
+      <c r="B6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C6" t="s">
+        <v>193</v>
+      </c>
+      <c r="D6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>188</v>
+      </c>
+      <c r="B7" t="s">
+        <v>185</v>
+      </c>
+      <c r="C7" t="s">
+        <v>194</v>
+      </c>
+      <c r="D7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>189</v>
+      </c>
+      <c r="B8" t="s">
+        <v>185</v>
+      </c>
+      <c r="C8" t="s">
+        <v>194</v>
+      </c>
+      <c r="D8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>190</v>
+      </c>
+      <c r="B11" t="s">
+        <v>191</v>
+      </c>
+      <c r="C11" t="s">
+        <v>191</v>
+      </c>
+      <c r="D11" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>157</v>
+      </c>
+      <c r="B12" t="s">
+        <v>192</v>
+      </c>
+      <c r="C12" t="s">
+        <v>191</v>
+      </c>
+      <c r="D12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>195</v>
+      </c>
+      <c r="B13" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>196</v>
+      </c>
+      <c r="B14" t="s">
+        <v>197</v>
+      </c>
+      <c r="C14" t="s">
+        <v>71</v>
+      </c>
+      <c r="D14" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>198</v>
+      </c>
+      <c r="B15" t="s">
+        <v>199</v>
+      </c>
+      <c r="C15" t="s">
+        <v>71</v>
+      </c>
+      <c r="D15" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>200</v>
+      </c>
+      <c r="B23" t="s">
+        <v>177</v>
+      </c>
+      <c r="C23" t="s">
+        <v>201</v>
+      </c>
+      <c r="D23" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -2240,7 +2803,94 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F4EB15E-4C3D-8F41-B966-6926C683A240}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J17" sqref="J17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>202</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>187</v>
+      </c>
+      <c r="B6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>188</v>
+      </c>
+      <c r="B7" t="s">
+        <v>203</v>
+      </c>
+      <c r="C7" t="s">
+        <v>204</v>
+      </c>
+      <c r="D7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>189</v>
+      </c>
+      <c r="B8" t="s">
+        <v>203</v>
+      </c>
+      <c r="C8" t="s">
+        <v>204</v>
+      </c>
+      <c r="D8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70C0B52B-FBCA-094B-82F6-E8C0FDE04B55}">
   <dimension ref="A1:D15"/>
   <sheetViews>
@@ -2391,7 +3041,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D769FD94-1CA9-B347-B1BD-820C7108D501}">
   <dimension ref="A1"/>
   <sheetViews>

--- a/testdata/Result.xlsx
+++ b/testdata/Result.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10912"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/macpc/Documents/GitHub/GopiTesting/testdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A8CAC19-391A-F540-ABB6-5DA1828BD404}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F67B514-E48F-CF43-B8B9-E0F6630C716D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16180" firstSheet="7" activeTab="14" xr2:uid="{C26E9DF5-8D70-D64B-9B03-89C5CA23F5FE}"/>
+    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16180" firstSheet="8" activeTab="16" xr2:uid="{C26E9DF5-8D70-D64B-9B03-89C5CA23F5FE}"/>
   </bookViews>
   <sheets>
     <sheet name="Inventory" sheetId="1" r:id="rId1"/>
@@ -28,8 +28,10 @@
     <sheet name="NormalPromotion" sheetId="15" r:id="rId13"/>
     <sheet name="OtherPromotion" sheetId="16" r:id="rId14"/>
     <sheet name="DayBasedPromotion" sheetId="17" r:id="rId15"/>
-    <sheet name="PriceChangeNonBatchItem" sheetId="12" r:id="rId16"/>
-    <sheet name="ReorderSettings" sheetId="2" r:id="rId17"/>
+    <sheet name="PO" sheetId="18" r:id="rId16"/>
+    <sheet name="PR" sheetId="19" r:id="rId17"/>
+    <sheet name="PriceChangeNonBatchItem" sheetId="12" r:id="rId18"/>
+    <sheet name="ReorderSettings" sheetId="2" r:id="rId19"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -48,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="792" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1320" uniqueCount="261">
   <si>
     <t>tblinventory</t>
   </si>
@@ -663,6 +665,174 @@
   </si>
   <si>
     <t>2022-02-04 00:00:00.0</t>
+  </si>
+  <si>
+    <t>tblpoheader</t>
+  </si>
+  <si>
+    <t>AKSHAYA TRADERS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">V00246         </t>
+  </si>
+  <si>
+    <t>tblpoDetail</t>
+  </si>
+  <si>
+    <t>000002</t>
+  </si>
+  <si>
+    <t>InvQty</t>
+  </si>
+  <si>
+    <t>1.000</t>
+  </si>
+  <si>
+    <t>foc</t>
+  </si>
+  <si>
+    <t>V00246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">859590              </t>
+  </si>
+  <si>
+    <t>382.8500</t>
+  </si>
+  <si>
+    <t>tblPurchaseReturnHeader</t>
+  </si>
+  <si>
+    <t>12/07/2021</t>
+  </si>
+  <si>
+    <t>1.0000</t>
+  </si>
+  <si>
+    <t>2021-07-12 00:00:00.0</t>
+  </si>
+  <si>
+    <t>tblAPtransaction</t>
+  </si>
+  <si>
+    <t>Vendor</t>
+  </si>
+  <si>
+    <t>Reason</t>
+  </si>
+  <si>
+    <t>Damage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DAMAGE                                            </t>
+  </si>
+  <si>
+    <t>tblVendorBalance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">000023              </t>
+  </si>
+  <si>
+    <t>13.000</t>
+  </si>
+  <si>
+    <t>0.000</t>
+  </si>
+  <si>
+    <t>85.5000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">007691              </t>
+  </si>
+  <si>
+    <t>30.000</t>
+  </si>
+  <si>
+    <t>58.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">007694              </t>
+  </si>
+  <si>
+    <t>105.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">007697              </t>
+  </si>
+  <si>
+    <t>33.6000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">007728              </t>
+  </si>
+  <si>
+    <t>50.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">007817              </t>
+  </si>
+  <si>
+    <t>26.2500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">007948              </t>
+  </si>
+  <si>
+    <t>36.1900</t>
+  </si>
+  <si>
+    <t xml:space="preserve">011782              </t>
+  </si>
+  <si>
+    <t>38.4900</t>
+  </si>
+  <si>
+    <t xml:space="preserve">004677              </t>
+  </si>
+  <si>
+    <t>31.6000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">005249              </t>
+  </si>
+  <si>
+    <t>2.000</t>
+  </si>
+  <si>
+    <t>22.2300</t>
+  </si>
+  <si>
+    <t>10.000</t>
+  </si>
+  <si>
+    <t>125.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">859526              </t>
+  </si>
+  <si>
+    <t>5.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">859527              </t>
+  </si>
+  <si>
+    <t>20.000</t>
+  </si>
+  <si>
+    <t>100.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">859541              </t>
+  </si>
+  <si>
+    <t>10.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">859591              </t>
+  </si>
+  <si>
+    <t>3.000</t>
   </si>
 </sst>
 </file>
@@ -2648,7 +2818,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>89</v>
       </c>
@@ -2662,7 +2832,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>102</v>
       </c>
@@ -2805,10 +2975,97 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F4EB15E-4C3D-8F41-B966-6926C683A240}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J17" sqref="J17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>202</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>187</v>
+      </c>
+      <c r="B6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>188</v>
+      </c>
+      <c r="B7" t="s">
+        <v>203</v>
+      </c>
+      <c r="C7" t="s">
+        <v>204</v>
+      </c>
+      <c r="D7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>189</v>
+      </c>
+      <c r="B8" t="s">
+        <v>203</v>
+      </c>
+      <c r="C8" t="s">
+        <v>204</v>
+      </c>
+      <c r="D8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{526C95F6-1393-8449-98C1-A8CFD26946DD}">
+  <dimension ref="A4:D12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="S25" sqref="S25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2837,7 +3094,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="B4" t="s">
         <v>1</v>
@@ -2845,43 +3102,79 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>187</v>
+        <v>35</v>
       </c>
       <c r="B6" t="s">
-        <v>46</v>
+        <v>206</v>
       </c>
       <c r="C6" t="s">
-        <v>46</v>
+        <v>207</v>
       </c>
       <c r="D6" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s">
-        <v>188</v>
-      </c>
-      <c r="B7" t="s">
-        <v>203</v>
-      </c>
-      <c r="C7" t="s">
-        <v>204</v>
-      </c>
-      <c r="D7" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>189</v>
+        <v>208</v>
       </c>
       <c r="B8" t="s">
-        <v>203</v>
-      </c>
-      <c r="C8" t="s">
-        <v>204</v>
-      </c>
-      <c r="D8" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>196</v>
+      </c>
+      <c r="B9" t="s">
+        <v>209</v>
+      </c>
+      <c r="C9" t="s">
+        <v>214</v>
+      </c>
+      <c r="D9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>35</v>
+      </c>
+      <c r="B10" t="s">
+        <v>206</v>
+      </c>
+      <c r="C10" t="s">
+        <v>213</v>
+      </c>
+      <c r="D10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>210</v>
+      </c>
+      <c r="B11" t="s">
+        <v>46</v>
+      </c>
+      <c r="C11" t="s">
+        <v>211</v>
+      </c>
+      <c r="D11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>212</v>
+      </c>
+      <c r="B12" t="s">
+        <v>158</v>
+      </c>
+      <c r="C12" t="s">
+        <v>215</v>
+      </c>
+      <c r="D12" t="s">
         <v>6</v>
       </c>
     </row>
@@ -2890,7 +3183,170 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43065620-D17A-0A45-9F6E-0A21F01B842B}">
+  <dimension ref="A1:D17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" customWidth="true" width="25.83203125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="21.1640625" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>216</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6" t="s">
+        <v>206</v>
+      </c>
+      <c r="C6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>159</v>
+      </c>
+      <c r="B7" t="s">
+        <v>217</v>
+      </c>
+      <c r="C7" t="s">
+        <v>219</v>
+      </c>
+      <c r="D7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>38</v>
+      </c>
+      <c r="B9" t="s">
+        <v>46</v>
+      </c>
+      <c r="C9" t="s">
+        <v>218</v>
+      </c>
+      <c r="D9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>220</v>
+      </c>
+      <c r="B11" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>221</v>
+      </c>
+      <c r="B12" t="s">
+        <v>206</v>
+      </c>
+      <c r="C12" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>222</v>
+      </c>
+      <c r="B13" t="s">
+        <v>223</v>
+      </c>
+      <c r="C13" t="s">
+        <v>224</v>
+      </c>
+      <c r="D13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>225</v>
+      </c>
+      <c r="B15" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>159</v>
+      </c>
+      <c r="B16" t="s">
+        <v>217</v>
+      </c>
+      <c r="C16" t="s">
+        <v>219</v>
+      </c>
+      <c r="D16" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>210</v>
+      </c>
+      <c r="B17" t="s">
+        <v>206</v>
+      </c>
+      <c r="C17" t="s">
+        <v>37</v>
+      </c>
+      <c r="D17" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70C0B52B-FBCA-094B-82F6-E8C0FDE04B55}">
   <dimension ref="A1:D15"/>
   <sheetViews>
@@ -3041,7 +3497,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D769FD94-1CA9-B347-B1BD-820C7108D501}">
   <dimension ref="A1"/>
   <sheetViews>

--- a/testdata/Result.xlsx
+++ b/testdata/Result.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/macpc/Documents/GitHub/GopiTesting/testdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F67B514-E48F-CF43-B8B9-E0F6630C716D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E64CD1B-A105-7641-8717-D186A31C12B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16180" firstSheet="8" activeTab="16" xr2:uid="{C26E9DF5-8D70-D64B-9B03-89C5CA23F5FE}"/>
+    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16180" firstSheet="9" activeTab="18" xr2:uid="{C26E9DF5-8D70-D64B-9B03-89C5CA23F5FE}"/>
   </bookViews>
   <sheets>
     <sheet name="Inventory" sheetId="1" r:id="rId1"/>
@@ -30,8 +30,10 @@
     <sheet name="DayBasedPromotion" sheetId="17" r:id="rId15"/>
     <sheet name="PO" sheetId="18" r:id="rId16"/>
     <sheet name="PR" sheetId="19" r:id="rId17"/>
-    <sheet name="PriceChangeNonBatchItem" sheetId="12" r:id="rId18"/>
-    <sheet name="ReorderSettings" sheetId="2" r:id="rId19"/>
+    <sheet name="PRR" sheetId="20" r:id="rId18"/>
+    <sheet name="AutoPo" sheetId="21" r:id="rId19"/>
+    <sheet name="PriceChangeNonBatchItem" sheetId="12" r:id="rId20"/>
+    <sheet name="ReorderSettings" sheetId="2" r:id="rId21"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -50,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1320" uniqueCount="261">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1044" uniqueCount="249">
   <si>
     <t>tblinventory</t>
   </si>
@@ -730,109 +732,73 @@
     <t>tblVendorBalance</t>
   </si>
   <si>
+    <t>tblOutletStockRequestHeader</t>
+  </si>
+  <si>
+    <t>47500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">047500              </t>
+  </si>
+  <si>
+    <t>DEFAULT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MADHAVI ENTERPRISES                                                                                 </t>
+  </si>
+  <si>
+    <t>tblPurchaseReturnReqHeader</t>
+  </si>
+  <si>
+    <t>RETURN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RETURN         </t>
+  </si>
+  <si>
+    <t>859526</t>
+  </si>
+  <si>
     <t xml:space="preserve">000023              </t>
   </si>
   <si>
-    <t>13.000</t>
-  </si>
-  <si>
-    <t>0.000</t>
-  </si>
-  <si>
-    <t>85.5000</t>
-  </si>
-  <si>
     <t xml:space="preserve">007691              </t>
   </si>
   <si>
-    <t>30.000</t>
-  </si>
-  <si>
-    <t>58.0000</t>
-  </si>
-  <si>
     <t xml:space="preserve">007694              </t>
   </si>
   <si>
-    <t>105.0000</t>
-  </si>
-  <si>
     <t xml:space="preserve">007697              </t>
   </si>
   <si>
-    <t>33.6000</t>
-  </si>
-  <si>
     <t xml:space="preserve">007728              </t>
   </si>
   <si>
-    <t>50.0000</t>
-  </si>
-  <si>
     <t xml:space="preserve">007817              </t>
   </si>
   <si>
-    <t>26.2500</t>
-  </si>
-  <si>
     <t xml:space="preserve">007948              </t>
   </si>
   <si>
-    <t>36.1900</t>
-  </si>
-  <si>
     <t xml:space="preserve">011782              </t>
   </si>
   <si>
-    <t>38.4900</t>
-  </si>
-  <si>
     <t xml:space="preserve">004677              </t>
   </si>
   <si>
-    <t>31.6000</t>
-  </si>
-  <si>
     <t xml:space="preserve">005249              </t>
   </si>
   <si>
-    <t>2.000</t>
-  </si>
-  <si>
-    <t>22.2300</t>
-  </si>
-  <si>
-    <t>10.000</t>
-  </si>
-  <si>
-    <t>125.0000</t>
-  </si>
-  <si>
     <t xml:space="preserve">859526              </t>
   </si>
   <si>
-    <t>5.0000</t>
-  </si>
-  <si>
     <t xml:space="preserve">859527              </t>
   </si>
   <si>
-    <t>20.000</t>
-  </si>
-  <si>
-    <t>100.0000</t>
-  </si>
-  <si>
     <t xml:space="preserve">859541              </t>
   </si>
   <si>
-    <t>10.0000</t>
-  </si>
-  <si>
     <t xml:space="preserve">859591              </t>
-  </si>
-  <si>
-    <t>3.000</t>
   </si>
 </sst>
 </file>
@@ -3062,7 +3028,7 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{526C95F6-1393-8449-98C1-A8CFD26946DD}">
-  <dimension ref="A4:D12"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="S25" sqref="S25"/>
@@ -3070,7 +3036,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>89</v>
       </c>
@@ -3084,7 +3050,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>102</v>
       </c>
@@ -3092,7 +3058,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>205</v>
       </c>
@@ -3100,7 +3066,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>35</v>
       </c>
@@ -3114,7 +3080,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>208</v>
       </c>
@@ -3122,7 +3088,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>196</v>
       </c>
@@ -3136,7 +3102,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>35</v>
       </c>
@@ -3150,7 +3116,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>210</v>
       </c>
@@ -3164,7 +3130,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>212</v>
       </c>
@@ -3187,7 +3153,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43065620-D17A-0A45-9F6E-0A21F01B842B}">
   <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
@@ -3347,11 +3313,11 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70C0B52B-FBCA-094B-82F6-E8C0FDE04B55}">
-  <dimension ref="A1:D15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FEABF11-1ACF-1944-82E7-037DBDC40A31}">
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O23" sqref="O23"/>
+      <selection activeCell="P26" sqref="P26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3380,7 +3346,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>0</v>
+        <v>226</v>
       </c>
       <c r="B4" t="s">
         <v>1</v>
@@ -3388,108 +3354,80 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>40</v>
+        <v>86</v>
       </c>
       <c r="B6" t="s">
-        <v>146</v>
+        <v>209</v>
       </c>
       <c r="C6" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="D6" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>43</v>
+        <v>200</v>
       </c>
       <c r="B7" t="s">
-        <v>143</v>
+        <v>227</v>
       </c>
       <c r="C7" t="s">
-        <v>143</v>
+        <v>228</v>
       </c>
       <c r="D7" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>62</v>
-      </c>
-      <c r="B9" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>63</v>
-      </c>
-      <c r="B10" t="s">
-        <v>146</v>
-      </c>
-      <c r="C10" t="s">
-        <v>141</v>
-      </c>
-      <c r="D10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>222</v>
+      </c>
+      <c r="B8" t="s">
+        <v>229</v>
+      </c>
+      <c r="C8" t="s">
+        <v>230</v>
+      </c>
+      <c r="D8" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>43</v>
+        <v>231</v>
       </c>
       <c r="B11" t="s">
-        <v>143</v>
-      </c>
-      <c r="C11" t="s">
-        <v>143</v>
-      </c>
-      <c r="D11" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>210</v>
+      </c>
+      <c r="B12" t="s">
+        <v>46</v>
+      </c>
+      <c r="C12" t="s">
+        <v>46</v>
+      </c>
+      <c r="D12" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>80</v>
+        <v>222</v>
       </c>
       <c r="B13" t="s">
-        <v>146</v>
+        <v>232</v>
       </c>
       <c r="C13" t="s">
-        <v>144</v>
+        <v>233</v>
       </c>
       <c r="D13" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>81</v>
-      </c>
-      <c r="B14" t="s">
-        <v>146</v>
-      </c>
-      <c r="C14" t="s">
-        <v>32</v>
-      </c>
-      <c r="D14" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>70</v>
-      </c>
-      <c r="B15" t="s">
-        <v>146</v>
-      </c>
-      <c r="C15" t="s">
-        <v>145</v>
-      </c>
-      <c r="D15" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -3498,15 +3436,60 @@
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D769FD94-1CA9-B347-B1BD-820C7108D501}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A10821A-C4B5-3A4F-BC48-8446BB32E4E4}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="S25" sqref="S25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>208</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>196</v>
+      </c>
+      <c r="B9" t="s">
+        <v>234</v>
+      </c>
+      <c r="C9" t="s">
+        <v>245</v>
+      </c>
+      <c r="D9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -3641,6 +3624,171 @@
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70C0B52B-FBCA-094B-82F6-E8C0FDE04B55}">
+  <dimension ref="A1:D15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O23" sqref="O23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B6" t="s">
+        <v>146</v>
+      </c>
+      <c r="C6" t="s">
+        <v>141</v>
+      </c>
+      <c r="D6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>43</v>
+      </c>
+      <c r="B7" t="s">
+        <v>143</v>
+      </c>
+      <c r="C7" t="s">
+        <v>143</v>
+      </c>
+      <c r="D7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>62</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>63</v>
+      </c>
+      <c r="B10" t="s">
+        <v>146</v>
+      </c>
+      <c r="C10" t="s">
+        <v>141</v>
+      </c>
+      <c r="D10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>43</v>
+      </c>
+      <c r="B11" t="s">
+        <v>143</v>
+      </c>
+      <c r="C11" t="s">
+        <v>143</v>
+      </c>
+      <c r="D11" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>80</v>
+      </c>
+      <c r="B13" t="s">
+        <v>146</v>
+      </c>
+      <c r="C13" t="s">
+        <v>144</v>
+      </c>
+      <c r="D13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>81</v>
+      </c>
+      <c r="B14" t="s">
+        <v>146</v>
+      </c>
+      <c r="C14" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>70</v>
+      </c>
+      <c r="B15" t="s">
+        <v>146</v>
+      </c>
+      <c r="C15" t="s">
+        <v>145</v>
+      </c>
+      <c r="D15" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D769FD94-1CA9-B347-B1BD-820C7108D501}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/testdata/Result.xlsx
+++ b/testdata/Result.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10313"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/macpc/Documents/GitHub/GopiTesting/testdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E64CD1B-A105-7641-8717-D186A31C12B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB11E8C6-6E34-B448-980C-B7B0C7EB8A75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16180" firstSheet="9" activeTab="18" xr2:uid="{C26E9DF5-8D70-D64B-9B03-89C5CA23F5FE}"/>
+    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16100" firstSheet="13" activeTab="23" xr2:uid="{C26E9DF5-8D70-D64B-9B03-89C5CA23F5FE}"/>
   </bookViews>
   <sheets>
     <sheet name="Inventory" sheetId="1" r:id="rId1"/>
@@ -31,9 +31,16 @@
     <sheet name="PO" sheetId="18" r:id="rId16"/>
     <sheet name="PR" sheetId="19" r:id="rId17"/>
     <sheet name="PRR" sheetId="20" r:id="rId18"/>
-    <sheet name="AutoPo" sheetId="21" r:id="rId19"/>
-    <sheet name="PriceChangeNonBatchItem" sheetId="12" r:id="rId20"/>
-    <sheet name="ReorderSettings" sheetId="2" r:id="rId21"/>
+    <sheet name="CreditDebitnote " sheetId="23" r:id="rId19"/>
+    <sheet name="Payments" sheetId="24" r:id="rId20"/>
+    <sheet name="Creditinvoice" sheetId="25" r:id="rId21"/>
+    <sheet name="CustomerReceipts" sheetId="26" r:id="rId22"/>
+    <sheet name="SalesOrder" sheetId="27" r:id="rId23"/>
+    <sheet name="StockUpdate" sheetId="28" r:id="rId24"/>
+    <sheet name="AutoPo" sheetId="21" r:id="rId25"/>
+    <sheet name="PoVendorChange" sheetId="22" r:id="rId26"/>
+    <sheet name="PriceChangeNonBatchItem" sheetId="12" r:id="rId27"/>
+    <sheet name="ReorderSettings" sheetId="2" r:id="rId28"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -52,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1044" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="878" uniqueCount="247">
   <si>
     <t>tblinventory</t>
   </si>
@@ -759,46 +766,40 @@
     <t>859526</t>
   </si>
   <si>
-    <t xml:space="preserve">000023              </t>
-  </si>
-  <si>
-    <t xml:space="preserve">007691              </t>
-  </si>
-  <si>
-    <t xml:space="preserve">007694              </t>
-  </si>
-  <si>
-    <t xml:space="preserve">007697              </t>
-  </si>
-  <si>
-    <t xml:space="preserve">007728              </t>
-  </si>
-  <si>
-    <t xml:space="preserve">007817              </t>
-  </si>
-  <si>
-    <t xml:space="preserve">007948              </t>
-  </si>
-  <si>
-    <t xml:space="preserve">011782              </t>
-  </si>
-  <si>
-    <t xml:space="preserve">004677              </t>
-  </si>
-  <si>
-    <t xml:space="preserve">005249              </t>
-  </si>
-  <si>
     <t xml:space="preserve">859526              </t>
   </si>
   <si>
-    <t xml:space="preserve">859527              </t>
-  </si>
-  <si>
-    <t xml:space="preserve">859541              </t>
-  </si>
-  <si>
-    <t xml:space="preserve">859591              </t>
+    <t>tbldebitnote</t>
+  </si>
+  <si>
+    <t>Vendorno</t>
+  </si>
+  <si>
+    <t>25/08/2021</t>
+  </si>
+  <si>
+    <t>2021-08-25 00:00:00.0</t>
+  </si>
+  <si>
+    <t>Billno</t>
+  </si>
+  <si>
+    <t>12213</t>
+  </si>
+  <si>
+    <t>TotalAmount</t>
+  </si>
+  <si>
+    <t>10.0000</t>
+  </si>
+  <si>
+    <t>CreditAmt</t>
+  </si>
+  <si>
+    <t>0.0000</t>
+  </si>
+  <si>
+    <t>-1.1800</t>
   </si>
 </sst>
 </file>
@@ -3154,11 +3155,12 @@
   <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="1" max="1" customWidth="true" width="28.33203125" collapsed="true"/>
     <col min="2" max="2" customWidth="true" width="25.83203125" collapsed="true"/>
     <col min="3" max="3" customWidth="true" width="21.1640625" collapsed="true"/>
   </cols>
@@ -3218,6 +3220,20 @@
         <v>219</v>
       </c>
       <c r="D7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>222</v>
+      </c>
+      <c r="B8" t="s">
+        <v>223</v>
+      </c>
+      <c r="C8" t="s">
+        <v>224</v>
+      </c>
+      <c r="D8" t="s">
         <v>6</v>
       </c>
     </row>
@@ -3436,16 +3452,19 @@
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A10821A-C4B5-3A4F-BC48-8446BB32E4E4}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8EA3490-C694-DE4D-8A1F-9D559431EF35}">
+  <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S25" sqref="S25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" customWidth="true" width="23.0" collapsed="true"/>
+  </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>89</v>
       </c>
@@ -3459,7 +3478,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>102</v>
       </c>
@@ -3467,26 +3486,188 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>236</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6" t="s">
+        <v>206</v>
+      </c>
+      <c r="C6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>237</v>
+      </c>
+      <c r="B7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>208</v>
+        <v>159</v>
       </c>
       <c r="B8" t="s">
+        <v>238</v>
+      </c>
+      <c r="C8" t="s">
+        <v>239</v>
+      </c>
+      <c r="D8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>240</v>
+      </c>
+      <c r="B9" t="s">
+        <v>241</v>
+      </c>
+      <c r="C9" t="s">
+        <v>241</v>
+      </c>
+      <c r="D9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>240</v>
+      </c>
+      <c r="B10" t="s">
+        <v>238</v>
+      </c>
+      <c r="C10" t="s">
+        <v>239</v>
+      </c>
+      <c r="D10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>187</v>
+      </c>
+      <c r="B11" t="s">
+        <v>46</v>
+      </c>
+      <c r="C11" t="s">
+        <v>238</v>
+      </c>
+      <c r="D11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>242</v>
+      </c>
+      <c r="B12" t="s">
+        <v>48</v>
+      </c>
+      <c r="C12" t="s">
+        <v>243</v>
+      </c>
+      <c r="D12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>220</v>
+      </c>
+      <c r="B15" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="s">
-        <v>196</v>
-      </c>
-      <c r="B9" t="s">
-        <v>234</v>
-      </c>
-      <c r="C9" t="s">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>221</v>
+      </c>
+      <c r="B16" t="s">
+        <v>206</v>
+      </c>
+      <c r="C16" t="s">
+        <v>37</v>
+      </c>
+      <c r="D16" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>222</v>
+      </c>
+      <c r="B17" t="s">
+        <v>46</v>
+      </c>
+      <c r="C17" t="s">
+        <v>224</v>
+      </c>
+      <c r="D17" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>242</v>
+      </c>
+      <c r="B20" t="s">
+        <v>48</v>
+      </c>
+      <c r="C20" t="s">
+        <v>246</v>
+      </c>
+      <c r="D20" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>244</v>
+      </c>
+      <c r="B21" t="s">
+        <v>48</v>
+      </c>
+      <c r="C21" t="s">
         <v>245</v>
       </c>
-      <c r="D9" t="s">
-        <v>3</v>
+      <c r="D21" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>242</v>
+      </c>
+      <c r="B22" t="s">
+        <v>48</v>
+      </c>
+      <c r="C22" t="s">
+        <v>246</v>
+      </c>
+      <c r="D22" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -3629,6 +3810,331 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{071BAD53-ED5C-E84A-B499-2CDB63D3E877}">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q23" sqref="Q23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CBE4A2C-4C45-AF41-B48B-19A4C3BFEBA7}">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="S24" sqref="S24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0E216BE-7E11-D145-B821-266F6913DF02}">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="S22" sqref="S22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA10E96A-0480-5F46-B76C-72F8A5CE9842}">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="S25" sqref="S25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9B943C6-E5B1-5D45-AA0D-6CF758FDEF5E}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O23" sqref="O23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A10821A-C4B5-3A4F-BC48-8446BB32E4E4}">
+  <dimension ref="A1:D9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="S25" sqref="S25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>208</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>196</v>
+      </c>
+      <c r="B9" t="s">
+        <v>234</v>
+      </c>
+      <c r="C9" t="s">
+        <v>235</v>
+      </c>
+      <c r="D9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{692C6A7D-EC72-2E4F-8586-E2F99E49AD1A}">
+  <dimension ref="A1:D9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q22" sqref="Q22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>205</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6" t="s">
+        <v>213</v>
+      </c>
+      <c r="C6" t="s">
+        <v>207</v>
+      </c>
+      <c r="D6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>208</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9" t="s">
+        <v>213</v>
+      </c>
+      <c r="C9" t="s">
+        <v>213</v>
+      </c>
+      <c r="D9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70C0B52B-FBCA-094B-82F6-E8C0FDE04B55}">
   <dimension ref="A1:D15"/>
   <sheetViews>
@@ -3779,7 +4285,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D769FD94-1CA9-B347-B1BD-820C7108D501}">
   <dimension ref="A1"/>
   <sheetViews>

--- a/testdata/Result.xlsx
+++ b/testdata/Result.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/macpc/Documents/GitHub/GopiTesting/testdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB11E8C6-6E34-B448-980C-B7B0C7EB8A75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3F7B438-AAD2-A348-A88F-12F303186E02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16100" firstSheet="13" activeTab="23" xr2:uid="{C26E9DF5-8D70-D64B-9B03-89C5CA23F5FE}"/>
+    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16020" firstSheet="59" activeTab="70" xr2:uid="{C26E9DF5-8D70-D64B-9B03-89C5CA23F5FE}"/>
   </bookViews>
   <sheets>
     <sheet name="Inventory" sheetId="1" r:id="rId1"/>
@@ -37,10 +37,57 @@
     <sheet name="CustomerReceipts" sheetId="26" r:id="rId22"/>
     <sheet name="SalesOrder" sheetId="27" r:id="rId23"/>
     <sheet name="StockUpdate" sheetId="28" r:id="rId24"/>
-    <sheet name="AutoPo" sheetId="21" r:id="rId25"/>
-    <sheet name="PoVendorChange" sheetId="22" r:id="rId26"/>
-    <sheet name="PriceChangeNonBatchItem" sheetId="12" r:id="rId27"/>
-    <sheet name="ReorderSettings" sheetId="2" r:id="rId28"/>
+    <sheet name="StockUpdatePosting" sheetId="29" r:id="rId25"/>
+    <sheet name="ExpiredDateChange" sheetId="30" r:id="rId26"/>
+    <sheet name="StockReset" sheetId="31" r:id="rId27"/>
+    <sheet name="TransferOut" sheetId="32" r:id="rId28"/>
+    <sheet name="TransferIn" sheetId="33" r:id="rId29"/>
+    <sheet name="companymaster" sheetId="34" r:id="rId30"/>
+    <sheet name="locationnew" sheetId="35" r:id="rId31"/>
+    <sheet name="Reasonmasternew" sheetId="36" r:id="rId32"/>
+    <sheet name="terminalnew" sheetId="37" r:id="rId33"/>
+    <sheet name="customernew" sheetId="38" r:id="rId34"/>
+    <sheet name="termsnew" sheetId="39" r:id="rId35"/>
+    <sheet name="displayandcontract" sheetId="40" r:id="rId36"/>
+    <sheet name="banknew" sheetId="41" r:id="rId37"/>
+    <sheet name="salesmannew" sheetId="42" r:id="rId38"/>
+    <sheet name="deliverymannew" sheetId="43" r:id="rId39"/>
+    <sheet name="brandwisesalesmancommission" sheetId="44" r:id="rId40"/>
+    <sheet name="salesmancommissionitem" sheetId="45" r:id="rId41"/>
+    <sheet name="salesmancitemlist" sheetId="46" r:id="rId42"/>
+    <sheet name="pospaymentnew" sheetId="47" r:id="rId43"/>
+    <sheet name="paymodenew" sheetId="48" r:id="rId44"/>
+    <sheet name="vehiclemaster" sheetId="49" r:id="rId45"/>
+    <sheet name="homedeliverytray" sheetId="50" r:id="rId46"/>
+    <sheet name="barcodeprinter" sheetId="51" r:id="rId47"/>
+    <sheet name="pickermaster" sheetId="52" r:id="rId48"/>
+    <sheet name="parammaster" sheetId="53" r:id="rId49"/>
+    <sheet name="category" sheetId="54" r:id="rId50"/>
+    <sheet name="subcategory" sheetId="55" r:id="rId51"/>
+    <sheet name="brand" sheetId="56" r:id="rId52"/>
+    <sheet name="floor" sheetId="57" r:id="rId53"/>
+    <sheet name="itemtype" sheetId="58" r:id="rId54"/>
+    <sheet name="taxnew" sheetId="59" r:id="rId55"/>
+    <sheet name="uomnew" sheetId="60" r:id="rId56"/>
+    <sheet name="section" sheetId="61" r:id="rId57"/>
+    <sheet name="Bin" sheetId="62" r:id="rId58"/>
+    <sheet name="shelf" sheetId="63" r:id="rId59"/>
+    <sheet name="warehouse" sheetId="64" r:id="rId60"/>
+    <sheet name="size" sheetId="65" r:id="rId61"/>
+    <sheet name="style" sheetId="66" r:id="rId62"/>
+    <sheet name="baseuom" sheetId="67" r:id="rId63"/>
+    <sheet name="addded" sheetId="68" r:id="rId64"/>
+    <sheet name="zone" sheetId="69" r:id="rId65"/>
+    <sheet name="companysettings" sheetId="70" r:id="rId66"/>
+    <sheet name="stockadjustmenttype" sheetId="71" r:id="rId67"/>
+    <sheet name="merchandise" sheetId="72" r:id="rId68"/>
+    <sheet name="manufacturer" sheetId="73" r:id="rId69"/>
+    <sheet name="origin" sheetId="74" r:id="rId70"/>
+    <sheet name="transportmaster" sheetId="75" r:id="rId71"/>
+    <sheet name="AutoPo" sheetId="21" r:id="rId72"/>
+    <sheet name="PoVendorChange" sheetId="22" r:id="rId73"/>
+    <sheet name="PriceChangeNonBatchItem" sheetId="12" r:id="rId74"/>
+    <sheet name="ReorderSettings" sheetId="2" r:id="rId75"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -59,7 +106,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="878" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2323" uniqueCount="614">
   <si>
     <t>tblinventory</t>
   </si>
@@ -800,6 +847,1109 @@
   </si>
   <si>
     <t>-1.1800</t>
+  </si>
+  <si>
+    <t>companymaster</t>
+  </si>
+  <si>
+    <t>tblcompany</t>
+  </si>
+  <si>
+    <t>Company</t>
+  </si>
+  <si>
+    <t>Madurai</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Madurai                                           </t>
+  </si>
+  <si>
+    <t>Address2</t>
+  </si>
+  <si>
+    <t>Chennai1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chennai1                                          </t>
+  </si>
+  <si>
+    <t>Country</t>
+  </si>
+  <si>
+    <t>India</t>
+  </si>
+  <si>
+    <t xml:space="preserve">India                                             </t>
+  </si>
+  <si>
+    <t>City</t>
+  </si>
+  <si>
+    <t>Chennai</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chennai                                           </t>
+  </si>
+  <si>
+    <t>PostalCode</t>
+  </si>
+  <si>
+    <t>54454</t>
+  </si>
+  <si>
+    <t xml:space="preserve">54454     </t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>a@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a@gmail.com                                       </t>
+  </si>
+  <si>
+    <t>WebPage</t>
+  </si>
+  <si>
+    <t>http.web.net</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http.web.net                                      </t>
+  </si>
+  <si>
+    <t>pass</t>
+  </si>
+  <si>
+    <t>Phone</t>
+  </si>
+  <si>
+    <t>54875124875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">54875124875                        </t>
+  </si>
+  <si>
+    <t>Fax</t>
+  </si>
+  <si>
+    <t>44789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44789          </t>
+  </si>
+  <si>
+    <t>Remarks</t>
+  </si>
+  <si>
+    <t>DateFormat</t>
+  </si>
+  <si>
+    <t>DD/MM/YYYY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DD/MM/YYYY               </t>
+  </si>
+  <si>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>HH:MM:SS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HH:MM:SS                 </t>
+  </si>
+  <si>
+    <t>DefaultCurrency</t>
+  </si>
+  <si>
+    <t>INR</t>
+  </si>
+  <si>
+    <t>CurencySign</t>
+  </si>
+  <si>
+    <t>RS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RS </t>
+  </si>
+  <si>
+    <t>BusinessRegNo</t>
+  </si>
+  <si>
+    <t>55424875614</t>
+  </si>
+  <si>
+    <t>TaxType</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>Percentage</t>
+  </si>
+  <si>
+    <t>GSTTIN</t>
+  </si>
+  <si>
+    <t>574587</t>
+  </si>
+  <si>
+    <t xml:space="preserve">574587                   </t>
+  </si>
+  <si>
+    <t>BillMessage1</t>
+  </si>
+  <si>
+    <t>GFHDTS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GFHDTS                                            </t>
+  </si>
+  <si>
+    <t>BillMessage2</t>
+  </si>
+  <si>
+    <t>SASDERHH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SASDERHH                                          </t>
+  </si>
+  <si>
+    <t>DisplayMessage1</t>
+  </si>
+  <si>
+    <t>HTT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HTT                 </t>
+  </si>
+  <si>
+    <t>DisplayMessage2</t>
+  </si>
+  <si>
+    <t>GGGHRT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GGGHRT              </t>
+  </si>
+  <si>
+    <t>Location</t>
+  </si>
+  <si>
+    <t>tbllocation</t>
+  </si>
+  <si>
+    <t>LocationCode</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15        </t>
+  </si>
+  <si>
+    <t>Address</t>
+  </si>
+  <si>
+    <t>chennai</t>
+  </si>
+  <si>
+    <t>Address1</t>
+  </si>
+  <si>
+    <t>mdu</t>
+  </si>
+  <si>
+    <t>Personincharge</t>
+  </si>
+  <si>
+    <t>PANDIAN</t>
+  </si>
+  <si>
+    <t>8248656365</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8248656365     </t>
+  </si>
+  <si>
+    <t>2547</t>
+  </si>
+  <si>
+    <t>SortCode</t>
+  </si>
+  <si>
+    <t>tblReasonMaster</t>
+  </si>
+  <si>
+    <t>ReasonCode</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5_Add                         </t>
+  </si>
+  <si>
+    <t>ReasonDescription</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8                                                                                                   </t>
+  </si>
+  <si>
+    <t>TransactionType</t>
+  </si>
+  <si>
+    <t>PURCHASE RETURN</t>
+  </si>
+  <si>
+    <t>AdditionOrDeduction</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>TerminalNew</t>
+  </si>
+  <si>
+    <t>TBL_CUSTOMER_MASTER</t>
+  </si>
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
+    <t>Mrs</t>
+  </si>
+  <si>
+    <t>CustomerName</t>
+  </si>
+  <si>
+    <t>Occupation</t>
+  </si>
+  <si>
+    <t>Employee</t>
+  </si>
+  <si>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>Retail</t>
+  </si>
+  <si>
+    <t>Designation</t>
+  </si>
+  <si>
+    <t>Business</t>
+  </si>
+  <si>
+    <t>Employer</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>25421441124</t>
+  </si>
+  <si>
+    <t>IdNo</t>
+  </si>
+  <si>
+    <t>AgeGroup</t>
+  </si>
+  <si>
+    <t>20-30</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>MaritalStatus</t>
+  </si>
+  <si>
+    <t>Unmarried</t>
+  </si>
+  <si>
+    <t>Education</t>
+  </si>
+  <si>
+    <t>Degree</t>
+  </si>
+  <si>
+    <t>InterState Customer</t>
+  </si>
+  <si>
+    <t>Income</t>
+  </si>
+  <si>
+    <t>10000-20000</t>
+  </si>
+  <si>
+    <t>MemberType</t>
+  </si>
+  <si>
+    <t>Credit</t>
+  </si>
+  <si>
+    <t>Representative</t>
+  </si>
+  <si>
+    <t>Pandian</t>
+  </si>
+  <si>
+    <t>Gender</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>Annanagar,
+Madurai</t>
+  </si>
+  <si>
+    <t>Annanagar,
+Madurai</t>
+  </si>
+  <si>
+    <t>Address3</t>
+  </si>
+  <si>
+    <t>Trichy</t>
+  </si>
+  <si>
+    <t>State</t>
+  </si>
+  <si>
+    <t>TAMIL NADU</t>
+  </si>
+  <si>
+    <t>TN</t>
+  </si>
+  <si>
+    <t>Pin</t>
+  </si>
+  <si>
+    <t>600045</t>
+  </si>
+  <si>
+    <t xml:space="preserve">600045              </t>
+  </si>
+  <si>
+    <t>650214253</t>
+  </si>
+  <si>
+    <t xml:space="preserve">650214253           </t>
+  </si>
+  <si>
+    <t>Nationality</t>
+  </si>
+  <si>
+    <t>Indian</t>
+  </si>
+  <si>
+    <t>Zone</t>
+  </si>
+  <si>
+    <t>Che</t>
+  </si>
+  <si>
+    <t>MobileNo</t>
+  </si>
+  <si>
+    <t>6365854721</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6365854721          </t>
+  </si>
+  <si>
+    <t>PhoneO</t>
+  </si>
+  <si>
+    <t>ABC@GMAIL.COM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ABC@GMAIL.COM                                     </t>
+  </si>
+  <si>
+    <t>LoyaltyCard</t>
+  </si>
+  <si>
+    <t>5147</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M001852             </t>
+  </si>
+  <si>
+    <t>Price</t>
+  </si>
+  <si>
+    <t>CreditType</t>
+  </si>
+  <si>
+    <t>Fixed</t>
+  </si>
+  <si>
+    <t>CreditLimit</t>
+  </si>
+  <si>
+    <t>1000</t>
+  </si>
+  <si>
+    <t>CreditDays</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>Discount</t>
+  </si>
+  <si>
+    <t>TBL_POS_TERMINAL_MASTER</t>
+  </si>
+  <si>
+    <t>Floor</t>
+  </si>
+  <si>
+    <t>FIRST FLOOR</t>
+  </si>
+  <si>
+    <t>PosScreenType</t>
+  </si>
+  <si>
+    <t>Standard</t>
+  </si>
+  <si>
+    <t>TillType</t>
+  </si>
+  <si>
+    <t>Normal</t>
+  </si>
+  <si>
+    <t>TillCode</t>
+  </si>
+  <si>
+    <t>A7</t>
+  </si>
+  <si>
+    <t>TillDesc</t>
+  </si>
+  <si>
+    <t>ABC</t>
+  </si>
+  <si>
+    <t>IsPharmacyter</t>
+  </si>
+  <si>
+    <t>ItemDelAllowed</t>
+  </si>
+  <si>
+    <t>SpecialCounter</t>
+  </si>
+  <si>
+    <t>OpticalTerminal</t>
+  </si>
+  <si>
+    <t>AutoLoginPos</t>
+  </si>
+  <si>
+    <t>NegStock</t>
+  </si>
+  <si>
+    <t>PriceChangeAllowed</t>
+  </si>
+  <si>
+    <t>AllowDisCoupon</t>
+  </si>
+  <si>
+    <t>PrinterAttached</t>
+  </si>
+  <si>
+    <t>LocDeviceName</t>
+  </si>
+  <si>
+    <t>System</t>
+  </si>
+  <si>
+    <t>print</t>
+  </si>
+  <si>
+    <t>PoleDisAttached</t>
+  </si>
+  <si>
+    <t>PoleDisLogName</t>
+  </si>
+  <si>
+    <t>CashDrawerAttached</t>
+  </si>
+  <si>
+    <t>CashDrawerLogDisName</t>
+  </si>
+  <si>
+    <t>WeighingMachineAttached</t>
+  </si>
+  <si>
+    <t>BarcodePrinter</t>
+  </si>
+  <si>
+    <t>48709</t>
+  </si>
+  <si>
+    <t>Port</t>
+  </si>
+  <si>
+    <t>758</t>
+  </si>
+  <si>
+    <t>SystemAllow</t>
+  </si>
+  <si>
+    <t>BABY PRODUCT 7,BEVERAGES 7,CAKES,CHAMUNDI AGARBATHI,CHOCOLATE,COLD BEVERAGE 7</t>
+  </si>
+  <si>
+    <t>tblTerms</t>
+  </si>
+  <si>
+    <t>TermsCode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10                                                </t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>tblDisplayandContracts</t>
+  </si>
+  <si>
+    <t>DisplayCode</t>
+  </si>
+  <si>
+    <t>DisplayName</t>
+  </si>
+  <si>
+    <t>Department</t>
+  </si>
+  <si>
+    <t>CAKES</t>
+  </si>
+  <si>
+    <t>FF</t>
+  </si>
+  <si>
+    <t>Shelf</t>
+  </si>
+  <si>
+    <t>DisplayChargesPerday</t>
+  </si>
+  <si>
+    <t>1.5</t>
+  </si>
+  <si>
+    <t>1.50</t>
+  </si>
+  <si>
+    <t>DisplayChargesPermonth</t>
+  </si>
+  <si>
+    <t>200</t>
+  </si>
+  <si>
+    <t>200.00</t>
+  </si>
+  <si>
+    <t>PersonInCharge</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>Active</t>
+  </si>
+  <si>
+    <t>Bank</t>
+  </si>
+  <si>
+    <t>tblBankCode</t>
+  </si>
+  <si>
+    <t>BankCode</t>
+  </si>
+  <si>
+    <t>142</t>
+  </si>
+  <si>
+    <t>BankName</t>
+  </si>
+  <si>
+    <t>SBI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SBI                                               </t>
+  </si>
+  <si>
+    <t xml:space="preserve">142       </t>
+  </si>
+  <si>
+    <t>SalesManMaster</t>
+  </si>
+  <si>
+    <t>tblSalesMan</t>
+  </si>
+  <si>
+    <t>SalesManID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5         </t>
+  </si>
+  <si>
+    <t>EmployeeCode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4                   </t>
+  </si>
+  <si>
+    <t>SalesManName</t>
+  </si>
+  <si>
+    <t>Commission</t>
+  </si>
+  <si>
+    <t>20.00</t>
+  </si>
+  <si>
+    <t>DeliveryMan</t>
+  </si>
+  <si>
+    <t>tblDeliveryMan</t>
+  </si>
+  <si>
+    <t>DeliveryManId</t>
+  </si>
+  <si>
+    <t>SalesManCommissionBrand</t>
+  </si>
+  <si>
+    <t>tblSalesManCommissionBrand</t>
+  </si>
+  <si>
+    <t>Brandcode</t>
+  </si>
+  <si>
+    <t>BRU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BRU                 </t>
+  </si>
+  <si>
+    <t>Brand</t>
+  </si>
+  <si>
+    <t>Brand5</t>
+  </si>
+  <si>
+    <t>ItemWiseSalesManCommission</t>
+  </si>
+  <si>
+    <t>tblSalesManCommissionItem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">007549              </t>
+  </si>
+  <si>
+    <t>HOME ESSENTIAL 7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DEFAULT                                                                                             </t>
+  </si>
+  <si>
+    <t>PLASTIC PRODUCTS 7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GROCERIES                                                                                           </t>
+  </si>
+  <si>
+    <t>PLASTIC PLATES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7H                                                                                                  </t>
+  </si>
+  <si>
+    <t>5.00</t>
+  </si>
+  <si>
+    <t>SalesManComission</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PLASTIC PEODUCTS 7                                                                                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PLASTIC PLATES                                                                                      </t>
+  </si>
+  <si>
+    <t>POSPaymentNew</t>
+  </si>
+  <si>
+    <t>tblPosPaymentSub</t>
+  </si>
+  <si>
+    <t>PaymentCode</t>
+  </si>
+  <si>
+    <t>BILLVIEW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BILLVIEW                                          </t>
+  </si>
+  <si>
+    <t>PaymentDesc</t>
+  </si>
+  <si>
+    <t>EXPN</t>
+  </si>
+  <si>
+    <t>PAYMENTS</t>
+  </si>
+  <si>
+    <t>paymode</t>
+  </si>
+  <si>
+    <t>VehicleMaster</t>
+  </si>
+  <si>
+    <t>tblVehicle</t>
+  </si>
+  <si>
+    <t>Vehiclemastercode</t>
+  </si>
+  <si>
+    <t>lorry</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lorry     </t>
+  </si>
+  <si>
+    <t>DriverName</t>
+  </si>
+  <si>
+    <t>tblBagMaster</t>
+  </si>
+  <si>
+    <t>BagCode</t>
+  </si>
+  <si>
+    <t>tblPrinterMaster</t>
+  </si>
+  <si>
+    <t>PrinterCode</t>
+  </si>
+  <si>
+    <t>Printername</t>
+  </si>
+  <si>
+    <t>PickerMaster</t>
+  </si>
+  <si>
+    <t>tblPickerMaster</t>
+  </si>
+  <si>
+    <t>PickerMasterId</t>
+  </si>
+  <si>
+    <t>PickerMasterName</t>
+  </si>
+  <si>
+    <t>PickerStatus</t>
+  </si>
+  <si>
+    <t>parammaster</t>
+  </si>
+  <si>
+    <t>tblCategory</t>
+  </si>
+  <si>
+    <t>Categorycode</t>
+  </si>
+  <si>
+    <t>Gokul</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gokul                                             </t>
+  </si>
+  <si>
+    <t>Categoryname</t>
+  </si>
+  <si>
+    <t>Remark</t>
+  </si>
+  <si>
+    <t>Gopi</t>
+  </si>
+  <si>
+    <t>tblSubCategory</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gopi                                              </t>
+  </si>
+  <si>
+    <t>Subcategoryname</t>
+  </si>
+  <si>
+    <t>Discounts</t>
+  </si>
+  <si>
+    <t>tblBrand</t>
+  </si>
+  <si>
+    <t>Brandname</t>
+  </si>
+  <si>
+    <t xml:space="preserve">APPLE                    </t>
+  </si>
+  <si>
+    <t>APPLE</t>
+  </si>
+  <si>
+    <t>tblFloor</t>
+  </si>
+  <si>
+    <t>Floorcode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1st FLOOR </t>
+  </si>
+  <si>
+    <t>tblItemType</t>
+  </si>
+  <si>
+    <t>Position</t>
+  </si>
+  <si>
+    <t>tblUOM</t>
+  </si>
+  <si>
+    <t>Uomcode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1         </t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>tblSection</t>
+  </si>
+  <si>
+    <t>Section</t>
+  </si>
+  <si>
+    <t>tblBin</t>
+  </si>
+  <si>
+    <t>BinCode</t>
+  </si>
+  <si>
+    <t>tblShelf</t>
+  </si>
+  <si>
+    <t>ShelfCode</t>
+  </si>
+  <si>
+    <t>tblWareHouse</t>
+  </si>
+  <si>
+    <t>WarehouseCode</t>
+  </si>
+  <si>
+    <t>Pincode</t>
+  </si>
+  <si>
+    <t>WarehouseName</t>
+  </si>
+  <si>
+    <t>Netcost</t>
+  </si>
+  <si>
+    <t>NETCOST</t>
+  </si>
+  <si>
+    <t>tblSize</t>
+  </si>
+  <si>
+    <t>SizeCode</t>
+  </si>
+  <si>
+    <t>StyleCode</t>
+  </si>
+  <si>
+    <t>P&amp;G</t>
+  </si>
+  <si>
+    <t>P&amp;amp;G</t>
+  </si>
+  <si>
+    <t>Manufacture</t>
+  </si>
+  <si>
+    <t>Nan</t>
+  </si>
+  <si>
+    <t>Origion</t>
+  </si>
+  <si>
+    <t>HEALTH CARE</t>
+  </si>
+  <si>
+    <t>MADHAVI ENTERPRISES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">000691    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Warehouse </t>
+  </si>
+  <si>
+    <t>Merchandise</t>
+  </si>
+  <si>
+    <t>Red</t>
+  </si>
+  <si>
+    <t xml:space="preserve">01        </t>
+  </si>
+  <si>
+    <t>CCode</t>
+  </si>
+  <si>
+    <t>unipro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unipro    </t>
+  </si>
+  <si>
+    <t>Taxcode</t>
+  </si>
+  <si>
+    <t>C0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C0000     </t>
+  </si>
+  <si>
+    <t>Bin</t>
+  </si>
+  <si>
+    <t>QW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">QA        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">FFF                 </t>
+  </si>
+  <si>
+    <t>StockType</t>
+  </si>
+  <si>
+    <t>Stock</t>
+  </si>
+  <si>
+    <t>Package</t>
+  </si>
+  <si>
+    <t>NEW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NEW                 </t>
+  </si>
+  <si>
+    <t>AS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AS                  </t>
+  </si>
+  <si>
+    <t>Batch</t>
+  </si>
+  <si>
+    <t>1.0</t>
+  </si>
+  <si>
+    <t>Baseuomcode</t>
+  </si>
+  <si>
+    <t>Dicountcode</t>
+  </si>
+  <si>
+    <t>Zonecode</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>ZoneName</t>
+  </si>
+  <si>
+    <t>tblManufacturer</t>
+  </si>
+  <si>
+    <t>OrigionCode</t>
+  </si>
+  <si>
+    <t>tblTransport</t>
+  </si>
+  <si>
+    <t>Transportname</t>
+  </si>
+  <si>
+    <t>Person</t>
+  </si>
+  <si>
+    <t>1231322132</t>
+  </si>
+  <si>
+    <t>ModelNo</t>
+  </si>
+  <si>
+    <t>21122112121</t>
+  </si>
+  <si>
+    <t>sdas</t>
+  </si>
+  <si>
+    <t>g@gmail.com</t>
+  </si>
+  <si>
+    <t>URL</t>
+  </si>
+  <si>
+    <t>www.sadf.com</t>
+  </si>
+  <si>
+    <t>ManufacturerCode</t>
+  </si>
+  <si>
+    <t>ManufacturerName</t>
+  </si>
+  <si>
+    <t>abc@gmail.com</t>
+  </si>
+  <si>
+    <t>ABC@gamil.com</t>
+  </si>
+  <si>
+    <t>tblcompanyname</t>
+  </si>
+  <si>
+    <t>CompanyCode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a                        </t>
   </si>
 </sst>
 </file>
@@ -3856,7 +5006,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>89</v>
       </c>
@@ -3870,7 +5020,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>102</v>
       </c>
@@ -3961,42 +5111,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9B943C6-E5B1-5D45-AA0D-6CF758FDEF5E}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="O23" sqref="O23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s">
-        <v>89</v>
-      </c>
-      <c r="B1" t="s">
-        <v>90</v>
-      </c>
-      <c r="C1" t="s">
-        <v>91</v>
-      </c>
-      <c r="D1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s">
-        <v>102</v>
-      </c>
-      <c r="D2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A10821A-C4B5-3A4F-BC48-8446BB32E4E4}">
-  <dimension ref="A1:D9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91F54B48-C9D0-1642-9B7A-993903F18E7C}">
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="S25" sqref="S25"/>
@@ -4026,39 +5153,17 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>208</v>
-      </c>
-      <c r="B8" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>196</v>
-      </c>
-      <c r="B9" t="s">
-        <v>234</v>
-      </c>
-      <c r="C9" t="s">
-        <v>235</v>
-      </c>
-      <c r="D9" t="s">
-        <v>3</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{692C6A7D-EC72-2E4F-8586-E2F99E49AD1A}">
-  <dimension ref="A1:D9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08A40A07-05CC-B14E-AF33-98D8419D0F4A}">
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Q22" sqref="Q22"/>
+      <selection activeCell="R28" sqref="R28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4085,61 +5190,17 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>205</v>
-      </c>
-      <c r="B4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>35</v>
-      </c>
-      <c r="B6" t="s">
-        <v>213</v>
-      </c>
-      <c r="C6" t="s">
-        <v>207</v>
-      </c>
-      <c r="D6" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>208</v>
-      </c>
-      <c r="B8" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>35</v>
-      </c>
-      <c r="B9" t="s">
-        <v>213</v>
-      </c>
-      <c r="C9" t="s">
-        <v>213</v>
-      </c>
-      <c r="D9" t="s">
-        <v>3</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70C0B52B-FBCA-094B-82F6-E8C0FDE04B55}">
-  <dimension ref="A1:D15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FDCEA2B-BE73-774E-B904-1046F0C87FDD}">
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O23" sqref="O23"/>
+      <selection activeCell="O22" sqref="O22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4166,135 +5227,81 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>40</v>
-      </c>
-      <c r="B6" t="s">
-        <v>146</v>
-      </c>
-      <c r="C6" t="s">
-        <v>141</v>
-      </c>
-      <c r="D6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>43</v>
-      </c>
-      <c r="B7" t="s">
-        <v>143</v>
-      </c>
-      <c r="C7" t="s">
-        <v>143</v>
-      </c>
-      <c r="D7" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>62</v>
-      </c>
-      <c r="B9" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>63</v>
-      </c>
-      <c r="B10" t="s">
-        <v>146</v>
-      </c>
-      <c r="C10" t="s">
-        <v>141</v>
-      </c>
-      <c r="D10" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>43</v>
-      </c>
-      <c r="B11" t="s">
-        <v>143</v>
-      </c>
-      <c r="C11" t="s">
-        <v>143</v>
-      </c>
-      <c r="D11" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>80</v>
-      </c>
-      <c r="B13" t="s">
-        <v>146</v>
-      </c>
-      <c r="C13" t="s">
-        <v>144</v>
-      </c>
-      <c r="D13" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>81</v>
-      </c>
-      <c r="B14" t="s">
-        <v>146</v>
-      </c>
-      <c r="C14" t="s">
-        <v>32</v>
-      </c>
-      <c r="D14" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>70</v>
-      </c>
-      <c r="B15" t="s">
-        <v>146</v>
-      </c>
-      <c r="C15" t="s">
-        <v>145</v>
-      </c>
-      <c r="D15" t="s">
-        <v>6</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D769FD94-1CA9-B347-B1BD-820C7108D501}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAA46689-5E37-E14C-9148-553AEA06B108}">
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+      <selection activeCell="R24" sqref="R24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41FED4AA-83FB-1249-8EB4-7F6A1EF337CF}">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="S24" sqref="S24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -4313,6 +5320,2058 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A518D1F-6D31-7340-A5A0-3C57942126A9}">
+  <dimension ref="A1:D27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" customWidth="true" width="20.0" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>247</v>
+      </c>
+      <c r="D2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>248</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>249</v>
+      </c>
+      <c r="B4" t="s">
+        <v>250</v>
+      </c>
+      <c r="C4" t="s">
+        <v>251</v>
+      </c>
+      <c r="D4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>252</v>
+      </c>
+      <c r="B5" t="s">
+        <v>253</v>
+      </c>
+      <c r="C5" t="s">
+        <v>254</v>
+      </c>
+      <c r="D5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>255</v>
+      </c>
+      <c r="B6" t="s">
+        <v>256</v>
+      </c>
+      <c r="C6" t="s">
+        <v>257</v>
+      </c>
+      <c r="D6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>258</v>
+      </c>
+      <c r="B7" t="s">
+        <v>259</v>
+      </c>
+      <c r="C7" t="s">
+        <v>260</v>
+      </c>
+      <c r="D7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>261</v>
+      </c>
+      <c r="B9" t="s">
+        <v>262</v>
+      </c>
+      <c r="C9" t="s">
+        <v>263</v>
+      </c>
+      <c r="D9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>264</v>
+      </c>
+      <c r="B10" t="s">
+        <v>265</v>
+      </c>
+      <c r="C10" t="s">
+        <v>266</v>
+      </c>
+      <c r="D10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>267</v>
+      </c>
+      <c r="B12" t="s">
+        <v>268</v>
+      </c>
+      <c r="C12" t="s">
+        <v>269</v>
+      </c>
+      <c r="D12" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>271</v>
+      </c>
+      <c r="B13" t="s">
+        <v>272</v>
+      </c>
+      <c r="C13" t="s">
+        <v>273</v>
+      </c>
+      <c r="D13" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>274</v>
+      </c>
+      <c r="B14" t="s">
+        <v>275</v>
+      </c>
+      <c r="C14" t="s">
+        <v>276</v>
+      </c>
+      <c r="D14" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>277</v>
+      </c>
+      <c r="B15" t="s">
+        <v>97</v>
+      </c>
+      <c r="C15" t="s">
+        <v>97</v>
+      </c>
+      <c r="D15" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>278</v>
+      </c>
+      <c r="B16" t="s">
+        <v>279</v>
+      </c>
+      <c r="C16" t="s">
+        <v>280</v>
+      </c>
+      <c r="D16" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>281</v>
+      </c>
+      <c r="B17" t="s">
+        <v>282</v>
+      </c>
+      <c r="C17" t="s">
+        <v>283</v>
+      </c>
+      <c r="D17" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>284</v>
+      </c>
+      <c r="B18" t="s">
+        <v>285</v>
+      </c>
+      <c r="C18" t="s">
+        <v>285</v>
+      </c>
+      <c r="D18" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>286</v>
+      </c>
+      <c r="B19" t="s">
+        <v>287</v>
+      </c>
+      <c r="C19" t="s">
+        <v>288</v>
+      </c>
+      <c r="D19" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>289</v>
+      </c>
+      <c r="B20" t="s">
+        <v>290</v>
+      </c>
+      <c r="C20" t="s">
+        <v>290</v>
+      </c>
+      <c r="D20" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>291</v>
+      </c>
+      <c r="B21" t="s">
+        <v>292</v>
+      </c>
+      <c r="C21" t="s">
+        <v>292</v>
+      </c>
+      <c r="D21" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>293</v>
+      </c>
+      <c r="B22">
+        <v>10</v>
+      </c>
+      <c r="C22" t="s">
+        <v>75</v>
+      </c>
+      <c r="D22" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>294</v>
+      </c>
+      <c r="B23" t="s">
+        <v>295</v>
+      </c>
+      <c r="C23" t="s">
+        <v>296</v>
+      </c>
+      <c r="D23" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>297</v>
+      </c>
+      <c r="B24" t="s">
+        <v>298</v>
+      </c>
+      <c r="C24" t="s">
+        <v>299</v>
+      </c>
+      <c r="D24" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>300</v>
+      </c>
+      <c r="B25" t="s">
+        <v>301</v>
+      </c>
+      <c r="C25" t="s">
+        <v>302</v>
+      </c>
+      <c r="D25" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>303</v>
+      </c>
+      <c r="B26" t="s">
+        <v>304</v>
+      </c>
+      <c r="C26" t="s">
+        <v>305</v>
+      </c>
+      <c r="D26" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>306</v>
+      </c>
+      <c r="B27" t="s">
+        <v>307</v>
+      </c>
+      <c r="C27" t="s">
+        <v>308</v>
+      </c>
+      <c r="D27" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2563BE7A-9E1F-BF45-936D-61A28AE1C026}">
+  <dimension ref="A1:D12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="R25" sqref="R25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>309</v>
+      </c>
+      <c r="D2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>310</v>
+      </c>
+      <c r="C4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>311</v>
+      </c>
+      <c r="B5" t="s">
+        <v>312</v>
+      </c>
+      <c r="C5" t="s">
+        <v>313</v>
+      </c>
+      <c r="D5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>309</v>
+      </c>
+      <c r="B6" t="s">
+        <v>125</v>
+      </c>
+      <c r="C6" t="s">
+        <v>125</v>
+      </c>
+      <c r="D6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>314</v>
+      </c>
+      <c r="B7" t="s">
+        <v>315</v>
+      </c>
+      <c r="C7" t="s">
+        <v>315</v>
+      </c>
+      <c r="D7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>316</v>
+      </c>
+      <c r="B8" t="s">
+        <v>317</v>
+      </c>
+      <c r="C8" t="s">
+        <v>317</v>
+      </c>
+      <c r="D8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>323</v>
+      </c>
+      <c r="B9" t="s">
+        <v>312</v>
+      </c>
+      <c r="C9" t="s">
+        <v>312</v>
+      </c>
+      <c r="D9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>318</v>
+      </c>
+      <c r="B10" t="s">
+        <v>319</v>
+      </c>
+      <c r="C10" t="s">
+        <v>319</v>
+      </c>
+      <c r="D10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>271</v>
+      </c>
+      <c r="B11" t="s">
+        <v>320</v>
+      </c>
+      <c r="C11" t="s">
+        <v>321</v>
+      </c>
+      <c r="D11" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>274</v>
+      </c>
+      <c r="B12" t="s">
+        <v>322</v>
+      </c>
+      <c r="C12" t="s">
+        <v>322</v>
+      </c>
+      <c r="D12" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E51BD22A-8ED8-D249-B461-D4A8438465B3}">
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="R25" sqref="R25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B1" t="s">
+        <v>324</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>325</v>
+      </c>
+      <c r="B2" t="s">
+        <v>326</v>
+      </c>
+      <c r="C2" t="s">
+        <v>327</v>
+      </c>
+      <c r="D2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>328</v>
+      </c>
+      <c r="B3" t="s">
+        <v>329</v>
+      </c>
+      <c r="C3" t="s">
+        <v>330</v>
+      </c>
+      <c r="D3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>331</v>
+      </c>
+      <c r="B4" t="s">
+        <v>332</v>
+      </c>
+      <c r="C4" t="s">
+        <v>332</v>
+      </c>
+      <c r="D4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>333</v>
+      </c>
+      <c r="B5" t="s">
+        <v>334</v>
+      </c>
+      <c r="C5" t="s">
+        <v>334</v>
+      </c>
+      <c r="D5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E099693-3E91-224A-9150-F18B16E4F64D}">
+  <dimension ref="A1:D30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q24" sqref="Q24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>335</v>
+      </c>
+      <c r="D2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>400</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>309</v>
+      </c>
+      <c r="B4" t="s">
+        <v>125</v>
+      </c>
+      <c r="C4" t="s">
+        <v>125</v>
+      </c>
+      <c r="D4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>401</v>
+      </c>
+      <c r="B6" t="s">
+        <v>402</v>
+      </c>
+      <c r="C6" t="s">
+        <v>402</v>
+      </c>
+      <c r="D6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>403</v>
+      </c>
+      <c r="B7" t="s">
+        <v>404</v>
+      </c>
+      <c r="C7" t="s">
+        <v>404</v>
+      </c>
+      <c r="D7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>405</v>
+      </c>
+      <c r="B8" t="s">
+        <v>406</v>
+      </c>
+      <c r="C8" t="s">
+        <v>406</v>
+      </c>
+      <c r="D8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>407</v>
+      </c>
+      <c r="B9" t="s">
+        <v>408</v>
+      </c>
+      <c r="C9" t="s">
+        <v>408</v>
+      </c>
+      <c r="D9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>409</v>
+      </c>
+      <c r="B10" t="s">
+        <v>410</v>
+      </c>
+      <c r="C10" t="s">
+        <v>410</v>
+      </c>
+      <c r="D10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>411</v>
+      </c>
+      <c r="B12" t="s">
+        <v>46</v>
+      </c>
+      <c r="C12" t="s">
+        <v>46</v>
+      </c>
+      <c r="D12" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>412</v>
+      </c>
+      <c r="B13" t="s">
+        <v>46</v>
+      </c>
+      <c r="C13" t="s">
+        <v>46</v>
+      </c>
+      <c r="D13" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>413</v>
+      </c>
+      <c r="B14" t="s">
+        <v>46</v>
+      </c>
+      <c r="C14" t="s">
+        <v>46</v>
+      </c>
+      <c r="D14" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>414</v>
+      </c>
+      <c r="B15" t="s">
+        <v>46</v>
+      </c>
+      <c r="C15" t="s">
+        <v>46</v>
+      </c>
+      <c r="D15" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>415</v>
+      </c>
+      <c r="B16" t="s">
+        <v>46</v>
+      </c>
+      <c r="C16" t="s">
+        <v>46</v>
+      </c>
+      <c r="D16" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>416</v>
+      </c>
+      <c r="B17" t="s">
+        <v>46</v>
+      </c>
+      <c r="C17" t="s">
+        <v>46</v>
+      </c>
+      <c r="D17" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>417</v>
+      </c>
+      <c r="B18" t="s">
+        <v>46</v>
+      </c>
+      <c r="C18" t="s">
+        <v>46</v>
+      </c>
+      <c r="D18" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>418</v>
+      </c>
+      <c r="B19" t="s">
+        <v>46</v>
+      </c>
+      <c r="C19" t="s">
+        <v>46</v>
+      </c>
+      <c r="D19" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>419</v>
+      </c>
+      <c r="B20" t="s">
+        <v>46</v>
+      </c>
+      <c r="C20" t="s">
+        <v>46</v>
+      </c>
+      <c r="D20" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>420</v>
+      </c>
+      <c r="B21" t="s">
+        <v>421</v>
+      </c>
+      <c r="C21" t="s">
+        <v>421</v>
+      </c>
+      <c r="D21" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>422</v>
+      </c>
+      <c r="B22" t="s">
+        <v>132</v>
+      </c>
+      <c r="C22" t="s">
+        <v>46</v>
+      </c>
+      <c r="D22" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>423</v>
+      </c>
+      <c r="B23" t="s">
+        <v>46</v>
+      </c>
+      <c r="C23" t="s">
+        <v>46</v>
+      </c>
+      <c r="D23" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>424</v>
+      </c>
+      <c r="B24" t="s">
+        <v>421</v>
+      </c>
+      <c r="C24" t="s">
+        <v>421</v>
+      </c>
+      <c r="D24" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>425</v>
+      </c>
+      <c r="B25" t="s">
+        <v>46</v>
+      </c>
+      <c r="C25" t="s">
+        <v>46</v>
+      </c>
+      <c r="D25" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>426</v>
+      </c>
+      <c r="B26" t="s">
+        <v>421</v>
+      </c>
+      <c r="C26" t="s">
+        <v>421</v>
+      </c>
+      <c r="D26" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>427</v>
+      </c>
+      <c r="B27" t="s">
+        <v>46</v>
+      </c>
+      <c r="C27" t="s">
+        <v>46</v>
+      </c>
+      <c r="D27" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>428</v>
+      </c>
+      <c r="B28" t="s">
+        <v>429</v>
+      </c>
+      <c r="C28" t="s">
+        <v>421</v>
+      </c>
+      <c r="D28" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>430</v>
+      </c>
+      <c r="B29" t="s">
+        <v>431</v>
+      </c>
+      <c r="C29" t="s">
+        <v>431</v>
+      </c>
+      <c r="D29" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>432</v>
+      </c>
+      <c r="B30" t="s">
+        <v>46</v>
+      </c>
+      <c r="C30" t="s">
+        <v>433</v>
+      </c>
+      <c r="D30" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A920058B-DC2F-5949-9282-91829F254074}">
+  <dimension ref="A1:D41"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="S16" sqref="S16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>336</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>337</v>
+      </c>
+      <c r="B4" t="s">
+        <v>338</v>
+      </c>
+      <c r="C4" t="s">
+        <v>338</v>
+      </c>
+      <c r="D4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>339</v>
+      </c>
+      <c r="B5" t="s">
+        <v>319</v>
+      </c>
+      <c r="C5" t="s">
+        <v>319</v>
+      </c>
+      <c r="D5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>340</v>
+      </c>
+      <c r="B8" t="s">
+        <v>341</v>
+      </c>
+      <c r="C8" t="s">
+        <v>341</v>
+      </c>
+      <c r="D8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>342</v>
+      </c>
+      <c r="B9" t="s">
+        <v>343</v>
+      </c>
+      <c r="C9" t="s">
+        <v>343</v>
+      </c>
+      <c r="D9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>344</v>
+      </c>
+      <c r="B10" t="s">
+        <v>345</v>
+      </c>
+      <c r="C10" t="s">
+        <v>345</v>
+      </c>
+      <c r="D10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>346</v>
+      </c>
+      <c r="B11" t="s">
+        <v>347</v>
+      </c>
+      <c r="C11" t="s">
+        <v>347</v>
+      </c>
+      <c r="D11" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>294</v>
+      </c>
+      <c r="B12" t="s">
+        <v>348</v>
+      </c>
+      <c r="C12" t="s">
+        <v>348</v>
+      </c>
+      <c r="D12" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>349</v>
+      </c>
+      <c r="B13" t="s">
+        <v>132</v>
+      </c>
+      <c r="C13" t="s">
+        <v>132</v>
+      </c>
+      <c r="D13" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>350</v>
+      </c>
+      <c r="B14" t="s">
+        <v>351</v>
+      </c>
+      <c r="C14" t="s">
+        <v>352</v>
+      </c>
+      <c r="D14" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>353</v>
+      </c>
+      <c r="B15" t="s">
+        <v>354</v>
+      </c>
+      <c r="C15" t="s">
+        <v>354</v>
+      </c>
+      <c r="D15" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>355</v>
+      </c>
+      <c r="B16" t="s">
+        <v>356</v>
+      </c>
+      <c r="C16" t="s">
+        <v>356</v>
+      </c>
+      <c r="D16" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>10</v>
+      </c>
+      <c r="B17" t="s">
+        <v>357</v>
+      </c>
+      <c r="C17" t="s">
+        <v>1</v>
+      </c>
+      <c r="D17" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>358</v>
+      </c>
+      <c r="B18" t="s">
+        <v>359</v>
+      </c>
+      <c r="C18" t="s">
+        <v>75</v>
+      </c>
+      <c r="D18" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>360</v>
+      </c>
+      <c r="B19" t="s">
+        <v>361</v>
+      </c>
+      <c r="C19" t="s">
+        <v>361</v>
+      </c>
+      <c r="D19" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>362</v>
+      </c>
+      <c r="B20" t="s">
+        <v>363</v>
+      </c>
+      <c r="C20" t="s">
+        <v>363</v>
+      </c>
+      <c r="D20" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>364</v>
+      </c>
+      <c r="B21" t="s">
+        <v>365</v>
+      </c>
+      <c r="C21" t="s">
+        <v>366</v>
+      </c>
+      <c r="D21" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>316</v>
+      </c>
+      <c r="B23" t="s">
+        <v>367</v>
+      </c>
+      <c r="C23" t="s">
+        <v>368</v>
+      </c>
+      <c r="D23" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>252</v>
+      </c>
+      <c r="B24" t="s">
+        <v>259</v>
+      </c>
+      <c r="C24" t="s">
+        <v>259</v>
+      </c>
+      <c r="D24" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>369</v>
+      </c>
+      <c r="B25" t="s">
+        <v>370</v>
+      </c>
+      <c r="C25" t="s">
+        <v>370</v>
+      </c>
+      <c r="D25" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>255</v>
+      </c>
+      <c r="B26" t="s">
+        <v>256</v>
+      </c>
+      <c r="C26" t="s">
+        <v>18</v>
+      </c>
+      <c r="D26" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>371</v>
+      </c>
+      <c r="B27" t="s">
+        <v>372</v>
+      </c>
+      <c r="C27" t="s">
+        <v>373</v>
+      </c>
+      <c r="D27" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>374</v>
+      </c>
+      <c r="B28" t="s">
+        <v>375</v>
+      </c>
+      <c r="C28" t="s">
+        <v>376</v>
+      </c>
+      <c r="D28" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>271</v>
+      </c>
+      <c r="B29" t="s">
+        <v>377</v>
+      </c>
+      <c r="C29" t="s">
+        <v>378</v>
+      </c>
+      <c r="D29" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>379</v>
+      </c>
+      <c r="B30" t="s">
+        <v>380</v>
+      </c>
+      <c r="C30" t="s">
+        <v>380</v>
+      </c>
+      <c r="D30" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>381</v>
+      </c>
+      <c r="B31" t="s">
+        <v>315</v>
+      </c>
+      <c r="C31" t="s">
+        <v>1</v>
+      </c>
+      <c r="D31" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>258</v>
+      </c>
+      <c r="B32" t="s">
+        <v>259</v>
+      </c>
+      <c r="C32" t="s">
+        <v>382</v>
+      </c>
+      <c r="D32" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>383</v>
+      </c>
+      <c r="B33" t="s">
+        <v>384</v>
+      </c>
+      <c r="C33" t="s">
+        <v>385</v>
+      </c>
+      <c r="D33" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>386</v>
+      </c>
+      <c r="B34" t="s">
+        <v>377</v>
+      </c>
+      <c r="C34" t="s">
+        <v>378</v>
+      </c>
+      <c r="D34" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>264</v>
+      </c>
+      <c r="B35" t="s">
+        <v>387</v>
+      </c>
+      <c r="C35" t="s">
+        <v>388</v>
+      </c>
+      <c r="D35" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>389</v>
+      </c>
+      <c r="B36" t="s">
+        <v>390</v>
+      </c>
+      <c r="C36" t="s">
+        <v>391</v>
+      </c>
+      <c r="D36" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>392</v>
+      </c>
+      <c r="B37" t="s">
+        <v>80</v>
+      </c>
+      <c r="C37" t="s">
+        <v>1</v>
+      </c>
+      <c r="D37" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>393</v>
+      </c>
+      <c r="B38" t="s">
+        <v>394</v>
+      </c>
+      <c r="C38" t="s">
+        <v>172</v>
+      </c>
+      <c r="D38" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>395</v>
+      </c>
+      <c r="B39" t="s">
+        <v>396</v>
+      </c>
+      <c r="C39" t="s">
+        <v>67</v>
+      </c>
+      <c r="D39" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>397</v>
+      </c>
+      <c r="B40" t="s">
+        <v>398</v>
+      </c>
+      <c r="C40" t="s">
+        <v>1</v>
+      </c>
+      <c r="D40" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>399</v>
+      </c>
+      <c r="B41" t="s">
+        <v>132</v>
+      </c>
+      <c r="C41" t="s">
+        <v>245</v>
+      </c>
+      <c r="D41" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90C11137-5574-5E4C-8554-76B1FABE68EA}">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="R25" sqref="R25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B1" t="s">
+        <v>434</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>435</v>
+      </c>
+      <c r="B2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>187</v>
+      </c>
+      <c r="B3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C3" t="s">
+        <v>436</v>
+      </c>
+      <c r="D3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>437</v>
+      </c>
+      <c r="B4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C4" t="s">
+        <v>158</v>
+      </c>
+      <c r="D4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7599FEB-1282-1041-972C-2CB69FFEB6DD}">
+  <dimension ref="A1:D14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B1" t="s">
+        <v>438</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>439</v>
+      </c>
+      <c r="B2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>440</v>
+      </c>
+      <c r="B3" t="s">
+        <v>312</v>
+      </c>
+      <c r="C3" t="s">
+        <v>312</v>
+      </c>
+      <c r="D3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>309</v>
+      </c>
+      <c r="B4" t="s">
+        <v>125</v>
+      </c>
+      <c r="C4" t="s">
+        <v>312</v>
+      </c>
+      <c r="D4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>441</v>
+      </c>
+      <c r="B5" t="s">
+        <v>442</v>
+      </c>
+      <c r="C5" t="s">
+        <v>442</v>
+      </c>
+      <c r="D5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>401</v>
+      </c>
+      <c r="B6" t="s">
+        <v>402</v>
+      </c>
+      <c r="C6" t="s">
+        <v>443</v>
+      </c>
+      <c r="D6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>444</v>
+      </c>
+      <c r="B9" t="s">
+        <v>46</v>
+      </c>
+      <c r="C9" t="s">
+        <v>46</v>
+      </c>
+      <c r="D9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>445</v>
+      </c>
+      <c r="B10" t="s">
+        <v>446</v>
+      </c>
+      <c r="C10" t="s">
+        <v>447</v>
+      </c>
+      <c r="D10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>448</v>
+      </c>
+      <c r="B11" t="s">
+        <v>449</v>
+      </c>
+      <c r="C11" t="s">
+        <v>450</v>
+      </c>
+      <c r="D11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>451</v>
+      </c>
+      <c r="C12" t="s">
+        <v>319</v>
+      </c>
+      <c r="D12" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>277</v>
+      </c>
+      <c r="B13" t="s">
+        <v>452</v>
+      </c>
+      <c r="C13" t="s">
+        <v>452</v>
+      </c>
+      <c r="D13" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>453</v>
+      </c>
+      <c r="B14" t="s">
+        <v>46</v>
+      </c>
+      <c r="C14" t="s">
+        <v>452</v>
+      </c>
+      <c r="D14" t="s">
+        <v>270</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3F06BF0-A0E3-1A4E-995C-574BDD120537}">
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="S25" sqref="S25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>454</v>
+      </c>
+      <c r="D2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>455</v>
+      </c>
+      <c r="C4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>456</v>
+      </c>
+      <c r="B5" t="s">
+        <v>457</v>
+      </c>
+      <c r="C5" t="s">
+        <v>461</v>
+      </c>
+      <c r="D5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>458</v>
+      </c>
+      <c r="B6" t="s">
+        <v>459</v>
+      </c>
+      <c r="C6" t="s">
+        <v>460</v>
+      </c>
+      <c r="D6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>453</v>
+      </c>
+      <c r="B7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C7" t="s">
+        <v>158</v>
+      </c>
+      <c r="D7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{994C57D5-0E08-4445-8BEF-0EA5205B566C}">
+  <dimension ref="A1:D10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>462</v>
+      </c>
+      <c r="D2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>463</v>
+      </c>
+      <c r="C4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>464</v>
+      </c>
+      <c r="B5" t="s">
+        <v>326</v>
+      </c>
+      <c r="C5" t="s">
+        <v>465</v>
+      </c>
+      <c r="D5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>466</v>
+      </c>
+      <c r="B6" t="s">
+        <v>452</v>
+      </c>
+      <c r="C6" t="s">
+        <v>467</v>
+      </c>
+      <c r="D6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>468</v>
+      </c>
+      <c r="B7" t="s">
+        <v>319</v>
+      </c>
+      <c r="C7" t="s">
+        <v>319</v>
+      </c>
+      <c r="D7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>469</v>
+      </c>
+      <c r="B8" t="s">
+        <v>352</v>
+      </c>
+      <c r="C8" t="s">
+        <v>470</v>
+      </c>
+      <c r="D8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>309</v>
+      </c>
+      <c r="B9" t="s">
+        <v>125</v>
+      </c>
+      <c r="C9" t="s">
+        <v>126</v>
+      </c>
+      <c r="D9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>453</v>
+      </c>
+      <c r="B10" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" t="s">
+        <v>46</v>
+      </c>
+      <c r="D10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{986FABE1-118A-5E43-B91C-BCFEDBC10DCE}">
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M22" sqref="M22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>471</v>
+      </c>
+      <c r="D2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>472</v>
+      </c>
+      <c r="C4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>473</v>
+      </c>
+      <c r="B5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C5" t="s">
+        <v>436</v>
+      </c>
+      <c r="D5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>471</v>
+      </c>
+      <c r="B6" t="s">
+        <v>319</v>
+      </c>
+      <c r="C6" t="s">
+        <v>319</v>
+      </c>
+      <c r="D6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>453</v>
+      </c>
+      <c r="B7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8911E3AD-2A7A-1C45-913F-056426F22285}">
   <dimension ref="A1:D2"/>
@@ -4340,6 +7399,753 @@
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>93</v>
+      </c>
+      <c r="D2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82692779-09AA-134F-8735-068E1DCCDC14}">
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="R25" sqref="R25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>474</v>
+      </c>
+      <c r="D2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>475</v>
+      </c>
+      <c r="C4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>476</v>
+      </c>
+      <c r="B5" t="s">
+        <v>477</v>
+      </c>
+      <c r="C5" t="s">
+        <v>478</v>
+      </c>
+      <c r="D5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>479</v>
+      </c>
+      <c r="B6" t="s">
+        <v>480</v>
+      </c>
+      <c r="C6" t="s">
+        <v>480</v>
+      </c>
+      <c r="D6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>469</v>
+      </c>
+      <c r="B7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C7" t="s">
+        <v>75</v>
+      </c>
+      <c r="D7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B0AF60B-9B34-7B42-8B11-3C86A2762EE7}">
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="18.83203125" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>481</v>
+      </c>
+      <c r="D2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>482</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B4" t="s">
+        <v>312</v>
+      </c>
+      <c r="C4" t="s">
+        <v>483</v>
+      </c>
+      <c r="D4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>441</v>
+      </c>
+      <c r="B5" t="s">
+        <v>484</v>
+      </c>
+      <c r="C5" t="s">
+        <v>485</v>
+      </c>
+      <c r="D5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>342</v>
+      </c>
+      <c r="B6" t="s">
+        <v>486</v>
+      </c>
+      <c r="C6" t="s">
+        <v>487</v>
+      </c>
+      <c r="D6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>479</v>
+      </c>
+      <c r="B7" t="s">
+        <v>488</v>
+      </c>
+      <c r="C7" t="s">
+        <v>489</v>
+      </c>
+      <c r="D7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>469</v>
+      </c>
+      <c r="B8" t="s">
+        <v>326</v>
+      </c>
+      <c r="C8" t="s">
+        <v>490</v>
+      </c>
+      <c r="D8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{666D6C8E-8321-8544-B7CA-677D00C704F7}">
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="S25" sqref="S25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>491</v>
+      </c>
+      <c r="D2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>482</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>441</v>
+      </c>
+      <c r="B5" t="s">
+        <v>484</v>
+      </c>
+      <c r="C5" t="s">
+        <v>99</v>
+      </c>
+      <c r="D5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>342</v>
+      </c>
+      <c r="B6" t="s">
+        <v>486</v>
+      </c>
+      <c r="C6" t="s">
+        <v>492</v>
+      </c>
+      <c r="D6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>479</v>
+      </c>
+      <c r="B7" t="s">
+        <v>488</v>
+      </c>
+      <c r="C7" t="s">
+        <v>493</v>
+      </c>
+      <c r="D7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{627ACA17-3EB0-FA45-8E3C-54872AF9C9A1}">
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>494</v>
+      </c>
+      <c r="D2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>495</v>
+      </c>
+      <c r="C4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>496</v>
+      </c>
+      <c r="B5" t="s">
+        <v>497</v>
+      </c>
+      <c r="C5" t="s">
+        <v>498</v>
+      </c>
+      <c r="D5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>499</v>
+      </c>
+      <c r="B6" t="s">
+        <v>497</v>
+      </c>
+      <c r="C6" t="s">
+        <v>498</v>
+      </c>
+      <c r="D6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>331</v>
+      </c>
+      <c r="B7" t="s">
+        <v>500</v>
+      </c>
+      <c r="C7" t="s">
+        <v>501</v>
+      </c>
+      <c r="D7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF584695-EA4D-1A40-AA38-FDFB503788AB}">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="S33" sqref="S33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>502</v>
+      </c>
+      <c r="D2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0503E8E5-90D6-9E48-9F7C-A58296F4A68E}">
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>503</v>
+      </c>
+      <c r="D2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>504</v>
+      </c>
+      <c r="C4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>505</v>
+      </c>
+      <c r="B5" t="s">
+        <v>506</v>
+      </c>
+      <c r="C5" t="s">
+        <v>507</v>
+      </c>
+      <c r="D5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>508</v>
+      </c>
+      <c r="B6" t="s">
+        <v>506</v>
+      </c>
+      <c r="C6" t="s">
+        <v>507</v>
+      </c>
+      <c r="D6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3951A6D6-DAC8-F248-8D44-62BADD48D92E}">
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>503</v>
+      </c>
+      <c r="D2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>509</v>
+      </c>
+      <c r="C4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>510</v>
+      </c>
+      <c r="B5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C5" t="s">
+        <v>436</v>
+      </c>
+      <c r="D5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>187</v>
+      </c>
+      <c r="B6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A6CF4BC-FB46-E14C-9614-698474510F7A}">
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>503</v>
+      </c>
+      <c r="D2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>511</v>
+      </c>
+      <c r="C4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>512</v>
+      </c>
+      <c r="B5" t="s">
+        <v>312</v>
+      </c>
+      <c r="C5" t="s">
+        <v>312</v>
+      </c>
+      <c r="D5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>513</v>
+      </c>
+      <c r="B6" t="s">
+        <v>319</v>
+      </c>
+      <c r="C6" t="s">
+        <v>319</v>
+      </c>
+      <c r="D6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E929E4F-529B-574D-9FAE-EBF0514A8038}">
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>514</v>
+      </c>
+      <c r="D2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>515</v>
+      </c>
+      <c r="C4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>516</v>
+      </c>
+      <c r="B5" t="s">
+        <v>410</v>
+      </c>
+      <c r="C5" t="s">
+        <v>410</v>
+      </c>
+      <c r="D5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>517</v>
+      </c>
+      <c r="B6" t="s">
+        <v>410</v>
+      </c>
+      <c r="C6" t="s">
+        <v>410</v>
+      </c>
+      <c r="D6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>518</v>
+      </c>
+      <c r="B7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet49.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3FD03B7-D9B2-1446-AA36-2DAC1BEA4F12}">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>519</v>
       </c>
       <c r="D2" t="s">
         <v>108</v>
@@ -4423,6 +8229,589 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet50.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6CA8087-E192-1B4F-B0EB-6DD4E8D31B57}">
+  <dimension ref="A3:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>520</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>521</v>
+      </c>
+      <c r="B4" t="s">
+        <v>522</v>
+      </c>
+      <c r="C4" t="s">
+        <v>523</v>
+      </c>
+      <c r="D4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>524</v>
+      </c>
+      <c r="C5" t="s">
+        <v>522</v>
+      </c>
+      <c r="D5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>525</v>
+      </c>
+      <c r="B6" t="s">
+        <v>526</v>
+      </c>
+      <c r="C6" t="s">
+        <v>526</v>
+      </c>
+      <c r="D6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>399</v>
+      </c>
+      <c r="B7" t="s">
+        <v>526</v>
+      </c>
+      <c r="C7" t="s">
+        <v>526</v>
+      </c>
+      <c r="D7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet51.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{113855EC-33E1-0245-AD5F-90C28F7EAEEE}">
+  <dimension ref="A3:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>527</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>521</v>
+      </c>
+      <c r="B4" t="s">
+        <v>526</v>
+      </c>
+      <c r="C4" t="s">
+        <v>528</v>
+      </c>
+      <c r="D4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>529</v>
+      </c>
+      <c r="C5" t="s">
+        <v>526</v>
+      </c>
+      <c r="D5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>530</v>
+      </c>
+      <c r="B6" t="s">
+        <v>71</v>
+      </c>
+      <c r="C6" t="s">
+        <v>71</v>
+      </c>
+      <c r="D6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet52.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27DBDD05-9D52-ED43-BA1E-DECD2A28AA51}">
+  <dimension ref="A3:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>531</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>476</v>
+      </c>
+      <c r="B4" t="s">
+        <v>526</v>
+      </c>
+      <c r="C4" t="s">
+        <v>528</v>
+      </c>
+      <c r="D4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>532</v>
+      </c>
+      <c r="B5" t="s">
+        <v>526</v>
+      </c>
+      <c r="C5" t="s">
+        <v>526</v>
+      </c>
+      <c r="D5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>525</v>
+      </c>
+      <c r="B6" t="s">
+        <v>526</v>
+      </c>
+      <c r="C6" t="s">
+        <v>526</v>
+      </c>
+      <c r="D6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>342</v>
+      </c>
+      <c r="B7" t="s">
+        <v>534</v>
+      </c>
+      <c r="C7" t="s">
+        <v>533</v>
+      </c>
+      <c r="D7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet53.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA2B1B47-6C87-7C4E-B9B3-EB3A410B4002}">
+  <dimension ref="A3:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K20" sqref="K20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>535</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>536</v>
+      </c>
+      <c r="B4" t="s">
+        <v>132</v>
+      </c>
+      <c r="C4" t="s">
+        <v>537</v>
+      </c>
+      <c r="D4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>187</v>
+      </c>
+      <c r="B5" t="s">
+        <v>132</v>
+      </c>
+      <c r="C5" t="s">
+        <v>402</v>
+      </c>
+      <c r="D5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet54.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96804611-EE06-394D-ADAF-3669C4AB93AB}">
+  <dimension ref="A3:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M20" sqref="M20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>538</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>539</v>
+      </c>
+      <c r="B4" t="s">
+        <v>522</v>
+      </c>
+      <c r="C4" t="s">
+        <v>523</v>
+      </c>
+      <c r="D4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>187</v>
+      </c>
+      <c r="B5" t="s">
+        <v>526</v>
+      </c>
+      <c r="C5" t="s">
+        <v>526</v>
+      </c>
+      <c r="D5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet55.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10E42B13-4474-1A40-92F9-1B19DF1B254B}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q25" sqref="Q25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet56.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2FB5C72-0B05-C34D-B7C3-9FA97553D697}">
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>540</v>
+      </c>
+      <c r="C4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>541</v>
+      </c>
+      <c r="B5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C5" t="s">
+        <v>542</v>
+      </c>
+      <c r="D5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>187</v>
+      </c>
+      <c r="B6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C6" t="s">
+        <v>542</v>
+      </c>
+      <c r="D6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>543</v>
+      </c>
+      <c r="B7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet57.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0FEBAC2-728C-E44B-B4A9-A2953C686CA1}">
+  <dimension ref="A4:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="R25" sqref="R25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>544</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>545</v>
+      </c>
+      <c r="B5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C5" t="s">
+        <v>542</v>
+      </c>
+      <c r="D5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>187</v>
+      </c>
+      <c r="B6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet58.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEDF7177-9B5C-0A48-913C-78B560CE0D3E}">
+  <dimension ref="A4:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>546</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>547</v>
+      </c>
+      <c r="B5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C5" t="s">
+        <v>542</v>
+      </c>
+      <c r="D5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>187</v>
+      </c>
+      <c r="B7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>133</v>
+      </c>
+      <c r="B8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C8" t="s">
+        <v>71</v>
+      </c>
+      <c r="D8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet59.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98B9DB7A-298F-6B42-82EA-A5F8688C12A8}">
+  <dimension ref="A2:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>548</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>549</v>
+      </c>
+      <c r="B3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C3" t="s">
+        <v>542</v>
+      </c>
+      <c r="D3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>187</v>
+      </c>
+      <c r="B4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C42D14C-E386-834D-B620-7036194A8FAC}">
   <dimension ref="A1:D2"/>
@@ -4453,6 +8842,977 @@
       </c>
       <c r="D2" t="s">
         <v>108</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet60.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAD68102-2B44-C14C-BC38-EE4B2A886388}">
+  <dimension ref="A1:D9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B1" t="s">
+        <v>550</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>551</v>
+      </c>
+      <c r="B2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2" t="s">
+        <v>542</v>
+      </c>
+      <c r="D2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>554</v>
+      </c>
+      <c r="B3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C3" t="s">
+        <v>555</v>
+      </c>
+      <c r="D3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>316</v>
+      </c>
+      <c r="B4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>252</v>
+      </c>
+      <c r="B5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>271</v>
+      </c>
+      <c r="B6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>552</v>
+      </c>
+      <c r="B7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>274</v>
+      </c>
+      <c r="B8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C8" t="s">
+        <v>46</v>
+      </c>
+      <c r="D8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>553</v>
+      </c>
+      <c r="B9" t="s">
+        <v>46</v>
+      </c>
+      <c r="C9" t="s">
+        <v>46</v>
+      </c>
+      <c r="D9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet61.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{090C6AA1-9E8C-424A-BB8D-D3070A8A68FA}">
+  <dimension ref="A2:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>556</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>187</v>
+      </c>
+      <c r="B3" t="s">
+        <v>410</v>
+      </c>
+      <c r="C3" t="s">
+        <v>542</v>
+      </c>
+      <c r="D3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>557</v>
+      </c>
+      <c r="B4" t="s">
+        <v>132</v>
+      </c>
+      <c r="C4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet62.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A56CAE67-6A94-7442-962D-85BCC727483B}">
+  <dimension ref="A1:D24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J20" sqref="J20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>558</v>
+      </c>
+      <c r="B2" t="s">
+        <v>326</v>
+      </c>
+      <c r="C2" t="s">
+        <v>326</v>
+      </c>
+      <c r="D2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>187</v>
+      </c>
+      <c r="B3" t="s">
+        <v>526</v>
+      </c>
+      <c r="C3" t="s">
+        <v>526</v>
+      </c>
+      <c r="D3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>479</v>
+      </c>
+      <c r="B4" t="s">
+        <v>559</v>
+      </c>
+      <c r="C4" t="s">
+        <v>560</v>
+      </c>
+      <c r="D4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>561</v>
+      </c>
+      <c r="B5" t="s">
+        <v>562</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>563</v>
+      </c>
+      <c r="B9" t="s">
+        <v>256</v>
+      </c>
+      <c r="C9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>342</v>
+      </c>
+      <c r="B10" t="s">
+        <v>564</v>
+      </c>
+      <c r="C10" t="s">
+        <v>564</v>
+      </c>
+      <c r="D10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>221</v>
+      </c>
+      <c r="B11" t="s">
+        <v>565</v>
+      </c>
+      <c r="C11" t="s">
+        <v>566</v>
+      </c>
+      <c r="D11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>551</v>
+      </c>
+      <c r="B12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" t="s">
+        <v>567</v>
+      </c>
+      <c r="D12" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>568</v>
+      </c>
+      <c r="B13" t="s">
+        <v>569</v>
+      </c>
+      <c r="C13" t="s">
+        <v>570</v>
+      </c>
+      <c r="D13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>571</v>
+      </c>
+      <c r="B14" t="s">
+        <v>572</v>
+      </c>
+      <c r="C14" t="s">
+        <v>573</v>
+      </c>
+      <c r="D14" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>574</v>
+      </c>
+      <c r="B15" t="s">
+        <v>575</v>
+      </c>
+      <c r="C15" t="s">
+        <v>576</v>
+      </c>
+      <c r="D15" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>577</v>
+      </c>
+      <c r="B16" t="s">
+        <v>578</v>
+      </c>
+      <c r="C16" t="s">
+        <v>579</v>
+      </c>
+      <c r="D16" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>536</v>
+      </c>
+      <c r="B17" t="s">
+        <v>402</v>
+      </c>
+      <c r="C17" t="s">
+        <v>580</v>
+      </c>
+      <c r="D17" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>541</v>
+      </c>
+      <c r="B18" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18" t="s">
+        <v>22</v>
+      </c>
+      <c r="D18" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>581</v>
+      </c>
+      <c r="B19" t="s">
+        <v>582</v>
+      </c>
+      <c r="C19" t="s">
+        <v>582</v>
+      </c>
+      <c r="D19" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>583</v>
+      </c>
+      <c r="B20" t="s">
+        <v>46</v>
+      </c>
+      <c r="C20" t="s">
+        <v>158</v>
+      </c>
+      <c r="D20" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>545</v>
+      </c>
+      <c r="B21" t="s">
+        <v>584</v>
+      </c>
+      <c r="C21" t="s">
+        <v>585</v>
+      </c>
+      <c r="D21" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>444</v>
+      </c>
+      <c r="B22" t="s">
+        <v>586</v>
+      </c>
+      <c r="C22" t="s">
+        <v>587</v>
+      </c>
+      <c r="D22" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>588</v>
+      </c>
+      <c r="B24" t="s">
+        <v>589</v>
+      </c>
+      <c r="C24" t="s">
+        <v>158</v>
+      </c>
+      <c r="D24" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet63.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B025E40E-9017-6949-B221-2B78C31685C1}">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N20" sqref="N20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>541</v>
+      </c>
+      <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>590</v>
+      </c>
+      <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>133</v>
+      </c>
+      <c r="B4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet64.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B253676B-B093-694F-BE7E-F72AAF672EAD}">
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>591</v>
+      </c>
+      <c r="B2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2" t="s">
+        <v>542</v>
+      </c>
+      <c r="D2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>187</v>
+      </c>
+      <c r="B3" t="s">
+        <v>334</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>190</v>
+      </c>
+      <c r="B4" t="s">
+        <v>334</v>
+      </c>
+      <c r="C4" t="s">
+        <v>334</v>
+      </c>
+      <c r="D4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>95</v>
+      </c>
+      <c r="B5" t="s">
+        <v>97</v>
+      </c>
+      <c r="C5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet65.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D4BF9AB-F78E-B14F-B4E5-05216635780D}">
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O23" sqref="O23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>592</v>
+      </c>
+      <c r="B2" t="s">
+        <v>593</v>
+      </c>
+      <c r="C2" t="s">
+        <v>593</v>
+      </c>
+      <c r="D2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>594</v>
+      </c>
+      <c r="B3" t="s">
+        <v>593</v>
+      </c>
+      <c r="C3" t="s">
+        <v>593</v>
+      </c>
+      <c r="D3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet66.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13FF544C-F116-9243-8318-36686494F102}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J23" sqref="J23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>612</v>
+      </c>
+      <c r="B2" t="s">
+        <v>593</v>
+      </c>
+      <c r="C2" t="s">
+        <v>593</v>
+      </c>
+      <c r="D2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>441</v>
+      </c>
+      <c r="B3" t="s">
+        <v>593</v>
+      </c>
+      <c r="C3" t="s">
+        <v>334</v>
+      </c>
+      <c r="D3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>240</v>
+      </c>
+      <c r="B4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>95</v>
+      </c>
+      <c r="B5" t="s">
+        <v>593</v>
+      </c>
+      <c r="C5" t="s">
+        <v>613</v>
+      </c>
+      <c r="D5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>277</v>
+      </c>
+      <c r="B6" t="s">
+        <v>593</v>
+      </c>
+      <c r="C6" t="s">
+        <v>593</v>
+      </c>
+      <c r="D6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet67.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC2A89BA-7C29-DC49-BF80-FD877A319691}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M20" sqref="M20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet68.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D4A1C8F-4DE4-CD47-8329-A47BEC77FA6B}">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>591</v>
+      </c>
+      <c r="B2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2" t="s">
+        <v>542</v>
+      </c>
+      <c r="D2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>187</v>
+      </c>
+      <c r="B3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>277</v>
+      </c>
+      <c r="B4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet69.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CBD2B3B-AA77-2F4B-BA6D-F68646A160EE}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N23" sqref="N23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>595</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>607</v>
+      </c>
+      <c r="B3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C3" t="s">
+        <v>542</v>
+      </c>
+      <c r="D3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>608</v>
+      </c>
+      <c r="B4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>314</v>
+      </c>
+      <c r="B5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>316</v>
+      </c>
+      <c r="B6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>552</v>
+      </c>
+      <c r="B8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C8" t="s">
+        <v>46</v>
+      </c>
+      <c r="D8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>264</v>
+      </c>
+      <c r="B9" t="s">
+        <v>610</v>
+      </c>
+      <c r="C9" t="s">
+        <v>610</v>
+      </c>
+      <c r="D9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>271</v>
+      </c>
+      <c r="B10" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" t="s">
+        <v>1</v>
+      </c>
+      <c r="D10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>274</v>
+      </c>
+      <c r="B11" t="s">
+        <v>46</v>
+      </c>
+      <c r="C11" t="s">
+        <v>1</v>
+      </c>
+      <c r="D11" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -4557,6 +9917,511 @@
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet70.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B28BEE8-1100-C74D-9CB3-4065F84ECE8F}">
+  <dimension ref="A2:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L19" sqref="L19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>595</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>596</v>
+      </c>
+      <c r="B3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C3" t="s">
+        <v>542</v>
+      </c>
+      <c r="D3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>187</v>
+      </c>
+      <c r="B4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet71.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30C933F8-459A-F340-A542-61F6292FEA2C}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N23" sqref="N23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>597</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>598</v>
+      </c>
+      <c r="B3" t="s">
+        <v>526</v>
+      </c>
+      <c r="C3" t="s">
+        <v>526</v>
+      </c>
+      <c r="D3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>599</v>
+      </c>
+      <c r="B4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>314</v>
+      </c>
+      <c r="B5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>316</v>
+      </c>
+      <c r="B6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>271</v>
+      </c>
+      <c r="B7" t="s">
+        <v>600</v>
+      </c>
+      <c r="C7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>601</v>
+      </c>
+      <c r="B8" t="s">
+        <v>602</v>
+      </c>
+      <c r="C8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>274</v>
+      </c>
+      <c r="B9" t="s">
+        <v>603</v>
+      </c>
+      <c r="C9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>264</v>
+      </c>
+      <c r="B10" t="s">
+        <v>604</v>
+      </c>
+      <c r="C10" t="s">
+        <v>1</v>
+      </c>
+      <c r="D10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>605</v>
+      </c>
+      <c r="B11" t="s">
+        <v>606</v>
+      </c>
+      <c r="C11" t="s">
+        <v>1</v>
+      </c>
+      <c r="D11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet72.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A10821A-C4B5-3A4F-BC48-8446BB32E4E4}">
+  <dimension ref="A1:D9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="S25" sqref="S25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>208</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>196</v>
+      </c>
+      <c r="B9" t="s">
+        <v>234</v>
+      </c>
+      <c r="C9" t="s">
+        <v>235</v>
+      </c>
+      <c r="D9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet73.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{692C6A7D-EC72-2E4F-8586-E2F99E49AD1A}">
+  <dimension ref="A1:D9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q22" sqref="Q22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>205</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6" t="s">
+        <v>213</v>
+      </c>
+      <c r="C6" t="s">
+        <v>207</v>
+      </c>
+      <c r="D6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>208</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9" t="s">
+        <v>213</v>
+      </c>
+      <c r="C9" t="s">
+        <v>213</v>
+      </c>
+      <c r="D9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet74.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70C0B52B-FBCA-094B-82F6-E8C0FDE04B55}">
+  <dimension ref="A1:D15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O23" sqref="O23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B6" t="s">
+        <v>146</v>
+      </c>
+      <c r="C6" t="s">
+        <v>141</v>
+      </c>
+      <c r="D6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>43</v>
+      </c>
+      <c r="B7" t="s">
+        <v>143</v>
+      </c>
+      <c r="C7" t="s">
+        <v>143</v>
+      </c>
+      <c r="D7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>62</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>63</v>
+      </c>
+      <c r="B10" t="s">
+        <v>146</v>
+      </c>
+      <c r="C10" t="s">
+        <v>141</v>
+      </c>
+      <c r="D10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>43</v>
+      </c>
+      <c r="B11" t="s">
+        <v>143</v>
+      </c>
+      <c r="C11" t="s">
+        <v>143</v>
+      </c>
+      <c r="D11" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>80</v>
+      </c>
+      <c r="B13" t="s">
+        <v>146</v>
+      </c>
+      <c r="C13" t="s">
+        <v>144</v>
+      </c>
+      <c r="D13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>81</v>
+      </c>
+      <c r="B14" t="s">
+        <v>146</v>
+      </c>
+      <c r="C14" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>70</v>
+      </c>
+      <c r="B15" t="s">
+        <v>146</v>
+      </c>
+      <c r="C15" t="s">
+        <v>145</v>
+      </c>
+      <c r="D15" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet75.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D769FD94-1CA9-B347-B1BD-820C7108D501}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/testdata/Result.xlsx
+++ b/testdata/Result.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/macpc/Documents/GitHub/GopiTesting/testdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3F7B438-AAD2-A348-A88F-12F303186E02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77F6B153-02F3-F449-AA0E-D6020CB5F847}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16020" firstSheet="59" activeTab="70" xr2:uid="{C26E9DF5-8D70-D64B-9B03-89C5CA23F5FE}"/>
+    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16020" firstSheet="60" activeTab="71" xr2:uid="{C26E9DF5-8D70-D64B-9B03-89C5CA23F5FE}"/>
   </bookViews>
   <sheets>
     <sheet name="Inventory" sheetId="1" r:id="rId1"/>
@@ -84,10 +84,11 @@
     <sheet name="manufacturer" sheetId="73" r:id="rId69"/>
     <sheet name="origin" sheetId="74" r:id="rId70"/>
     <sheet name="transportmaster" sheetId="75" r:id="rId71"/>
-    <sheet name="AutoPo" sheetId="21" r:id="rId72"/>
-    <sheet name="PoVendorChange" sheetId="22" r:id="rId73"/>
-    <sheet name="PriceChangeNonBatchItem" sheetId="12" r:id="rId74"/>
-    <sheet name="ReorderSettings" sheetId="2" r:id="rId75"/>
+    <sheet name="subclass" sheetId="76" r:id="rId72"/>
+    <sheet name="AutoPo" sheetId="21" r:id="rId73"/>
+    <sheet name="PoVendorChange" sheetId="22" r:id="rId74"/>
+    <sheet name="PriceChangeNonBatchItem" sheetId="12" r:id="rId75"/>
+    <sheet name="ReorderSettings" sheetId="2" r:id="rId76"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -106,7 +107,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2323" uniqueCount="614">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2033" uniqueCount="618">
   <si>
     <t>tblinventory</t>
   </si>
@@ -1937,19 +1938,31 @@
     <t>ManufacturerName</t>
   </si>
   <si>
-    <t>abc@gmail.com</t>
-  </si>
-  <si>
     <t>ABC@gamil.com</t>
   </si>
   <si>
-    <t>tblcompanyname</t>
-  </si>
-  <si>
     <t>CompanyCode</t>
   </si>
   <si>
     <t xml:space="preserve">a                        </t>
+  </si>
+  <si>
+    <t>AdjtypeCode</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7                   </t>
+  </si>
+  <si>
+    <t>AdjtypeName</t>
+  </si>
+  <si>
+    <t>tblSubClass</t>
+  </si>
+  <si>
+    <t>Subclasscode</t>
   </si>
 </sst>
 </file>
@@ -9523,7 +9536,7 @@
 
 <file path=xl/worksheets/sheet66.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13FF544C-F116-9243-8318-36686494F102}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J23" sqref="J23"/>
@@ -9531,14 +9544,14 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="B2" t="s">
         <v>593</v>
@@ -9550,7 +9563,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>441</v>
       </c>
@@ -9564,7 +9577,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>240</v>
       </c>
@@ -9578,7 +9591,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>95</v>
       </c>
@@ -9586,13 +9599,13 @@
         <v>593</v>
       </c>
       <c r="C5" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="D5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>277</v>
       </c>
@@ -9613,14 +9626,48 @@
 
 <file path=xl/worksheets/sheet67.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC2A89BA-7C29-DC49-BF80-FD877A319691}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="M20" sqref="M20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>612</v>
+      </c>
+      <c r="B2" t="s">
+        <v>613</v>
+      </c>
+      <c r="C2" t="s">
+        <v>614</v>
+      </c>
+      <c r="D2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>615</v>
+      </c>
+      <c r="B3" t="s">
+        <v>334</v>
+      </c>
+      <c r="C3" t="s">
+        <v>334</v>
+      </c>
+      <c r="D3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -9687,7 +9734,7 @@
 
 <file path=xl/worksheets/sheet69.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CBD2B3B-AA77-2F4B-BA6D-F68646A160EE}">
-  <dimension ref="A1"/>
+  <dimension ref="A2:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="N23" sqref="N23"/>
@@ -9695,7 +9742,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>595</v>
       </c>
@@ -9703,7 +9750,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>607</v>
       </c>
@@ -9717,7 +9764,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>608</v>
       </c>
@@ -9731,7 +9778,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>314</v>
       </c>
@@ -9745,7 +9792,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>316</v>
       </c>
@@ -9759,7 +9806,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>552</v>
       </c>
@@ -9773,21 +9820,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>264</v>
       </c>
       <c r="B9" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="C9" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="D9" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>271</v>
       </c>
@@ -9801,7 +9848,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>274</v>
       </c>
@@ -9974,15 +10021,15 @@
 
 <file path=xl/worksheets/sheet71.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30C933F8-459A-F340-A542-61F6292FEA2C}">
-  <dimension ref="A1"/>
+  <dimension ref="A2:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N23" sqref="N23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>597</v>
       </c>
@@ -9990,7 +10037,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>598</v>
       </c>
@@ -10004,7 +10051,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>599</v>
       </c>
@@ -10018,7 +10065,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>314</v>
       </c>
@@ -10032,7 +10079,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>316</v>
       </c>
@@ -10046,7 +10093,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>271</v>
       </c>
@@ -10060,7 +10107,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>601</v>
       </c>
@@ -10074,7 +10121,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>274</v>
       </c>
@@ -10088,7 +10135,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>264</v>
       </c>
@@ -10102,7 +10149,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>605</v>
       </c>
@@ -10122,6 +10169,57 @@
 </file>
 
 <file path=xl/worksheets/sheet72.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{186E2162-3063-CF4F-8121-F970A4ECC8FF}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L18" sqref="L18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" t="s">
+        <v>616</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>617</v>
+      </c>
+      <c r="B2" t="s">
+        <v>526</v>
+      </c>
+      <c r="C2" t="s">
+        <v>528</v>
+      </c>
+      <c r="D2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>187</v>
+      </c>
+      <c r="B3" t="s">
+        <v>526</v>
+      </c>
+      <c r="C3" t="s">
+        <v>526</v>
+      </c>
+      <c r="D3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet73.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A10821A-C4B5-3A4F-BC48-8446BB32E4E4}">
   <dimension ref="A1:D9"/>
   <sheetViews>
@@ -10180,7 +10278,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet73.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet74.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{692C6A7D-EC72-2E4F-8586-E2F99E49AD1A}">
   <dimension ref="A1:D9"/>
   <sheetViews>
@@ -10261,7 +10359,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet74.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet75.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70C0B52B-FBCA-094B-82F6-E8C0FDE04B55}">
   <dimension ref="A1:D15"/>
   <sheetViews>
@@ -10412,7 +10510,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet75.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet76.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D769FD94-1CA9-B347-B1BD-820C7108D501}">
   <dimension ref="A1"/>
   <sheetViews>

--- a/testdata/Result.xlsx
+++ b/testdata/Result.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/macpc/Documents/GitHub/GopiTesting/testdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77F6B153-02F3-F449-AA0E-D6020CB5F847}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49124825-F0DC-0E43-94E2-44D459D78A66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16020" firstSheet="60" activeTab="71" xr2:uid="{C26E9DF5-8D70-D64B-9B03-89C5CA23F5FE}"/>
+    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16020" firstSheet="22" activeTab="23" xr2:uid="{C26E9DF5-8D70-D64B-9B03-89C5CA23F5FE}"/>
   </bookViews>
   <sheets>
     <sheet name="Inventory" sheetId="1" r:id="rId1"/>
@@ -36,59 +36,60 @@
     <sheet name="Creditinvoice" sheetId="25" r:id="rId21"/>
     <sheet name="CustomerReceipts" sheetId="26" r:id="rId22"/>
     <sheet name="SalesOrder" sheetId="27" r:id="rId23"/>
-    <sheet name="StockUpdate" sheetId="28" r:id="rId24"/>
-    <sheet name="StockUpdatePosting" sheetId="29" r:id="rId25"/>
-    <sheet name="ExpiredDateChange" sheetId="30" r:id="rId26"/>
-    <sheet name="StockReset" sheetId="31" r:id="rId27"/>
-    <sheet name="TransferOut" sheetId="32" r:id="rId28"/>
-    <sheet name="TransferIn" sheetId="33" r:id="rId29"/>
-    <sheet name="companymaster" sheetId="34" r:id="rId30"/>
-    <sheet name="locationnew" sheetId="35" r:id="rId31"/>
-    <sheet name="Reasonmasternew" sheetId="36" r:id="rId32"/>
-    <sheet name="terminalnew" sheetId="37" r:id="rId33"/>
-    <sheet name="customernew" sheetId="38" r:id="rId34"/>
-    <sheet name="termsnew" sheetId="39" r:id="rId35"/>
-    <sheet name="displayandcontract" sheetId="40" r:id="rId36"/>
-    <sheet name="banknew" sheetId="41" r:id="rId37"/>
-    <sheet name="salesmannew" sheetId="42" r:id="rId38"/>
-    <sheet name="deliverymannew" sheetId="43" r:id="rId39"/>
-    <sheet name="brandwisesalesmancommission" sheetId="44" r:id="rId40"/>
-    <sheet name="salesmancommissionitem" sheetId="45" r:id="rId41"/>
-    <sheet name="salesmancitemlist" sheetId="46" r:id="rId42"/>
-    <sheet name="pospaymentnew" sheetId="47" r:id="rId43"/>
-    <sheet name="paymodenew" sheetId="48" r:id="rId44"/>
-    <sheet name="vehiclemaster" sheetId="49" r:id="rId45"/>
-    <sheet name="homedeliverytray" sheetId="50" r:id="rId46"/>
-    <sheet name="barcodeprinter" sheetId="51" r:id="rId47"/>
-    <sheet name="pickermaster" sheetId="52" r:id="rId48"/>
-    <sheet name="parammaster" sheetId="53" r:id="rId49"/>
-    <sheet name="category" sheetId="54" r:id="rId50"/>
-    <sheet name="subcategory" sheetId="55" r:id="rId51"/>
-    <sheet name="brand" sheetId="56" r:id="rId52"/>
-    <sheet name="floor" sheetId="57" r:id="rId53"/>
-    <sheet name="itemtype" sheetId="58" r:id="rId54"/>
-    <sheet name="taxnew" sheetId="59" r:id="rId55"/>
-    <sheet name="uomnew" sheetId="60" r:id="rId56"/>
-    <sheet name="section" sheetId="61" r:id="rId57"/>
-    <sheet name="Bin" sheetId="62" r:id="rId58"/>
-    <sheet name="shelf" sheetId="63" r:id="rId59"/>
-    <sheet name="warehouse" sheetId="64" r:id="rId60"/>
-    <sheet name="size" sheetId="65" r:id="rId61"/>
-    <sheet name="style" sheetId="66" r:id="rId62"/>
-    <sheet name="baseuom" sheetId="67" r:id="rId63"/>
-    <sheet name="addded" sheetId="68" r:id="rId64"/>
-    <sheet name="zone" sheetId="69" r:id="rId65"/>
-    <sheet name="companysettings" sheetId="70" r:id="rId66"/>
-    <sheet name="stockadjustmenttype" sheetId="71" r:id="rId67"/>
-    <sheet name="merchandise" sheetId="72" r:id="rId68"/>
-    <sheet name="manufacturer" sheetId="73" r:id="rId69"/>
-    <sheet name="origin" sheetId="74" r:id="rId70"/>
-    <sheet name="transportmaster" sheetId="75" r:id="rId71"/>
-    <sheet name="subclass" sheetId="76" r:id="rId72"/>
-    <sheet name="AutoPo" sheetId="21" r:id="rId73"/>
-    <sheet name="PoVendorChange" sheetId="22" r:id="rId74"/>
-    <sheet name="PriceChangeNonBatchItem" sheetId="12" r:id="rId75"/>
-    <sheet name="ReorderSettings" sheetId="2" r:id="rId76"/>
+    <sheet name="StockAdjustment" sheetId="77" r:id="rId24"/>
+    <sheet name="StockUpdate" sheetId="28" r:id="rId25"/>
+    <sheet name="StockUpdatePosting" sheetId="29" r:id="rId26"/>
+    <sheet name="ExpiredDateChange" sheetId="30" r:id="rId27"/>
+    <sheet name="StockReset" sheetId="31" r:id="rId28"/>
+    <sheet name="TransferOut" sheetId="32" r:id="rId29"/>
+    <sheet name="TransferIn" sheetId="33" r:id="rId30"/>
+    <sheet name="companymaster" sheetId="34" r:id="rId31"/>
+    <sheet name="locationnew" sheetId="35" r:id="rId32"/>
+    <sheet name="Reasonmasternew" sheetId="36" r:id="rId33"/>
+    <sheet name="terminalnew" sheetId="37" r:id="rId34"/>
+    <sheet name="customernew" sheetId="38" r:id="rId35"/>
+    <sheet name="termsnew" sheetId="39" r:id="rId36"/>
+    <sheet name="displayandcontract" sheetId="40" r:id="rId37"/>
+    <sheet name="banknew" sheetId="41" r:id="rId38"/>
+    <sheet name="salesmannew" sheetId="42" r:id="rId39"/>
+    <sheet name="deliverymannew" sheetId="43" r:id="rId40"/>
+    <sheet name="brandwisesalesmancommission" sheetId="44" r:id="rId41"/>
+    <sheet name="salesmancommissionitem" sheetId="45" r:id="rId42"/>
+    <sheet name="salesmancitemlist" sheetId="46" r:id="rId43"/>
+    <sheet name="pospaymentnew" sheetId="47" r:id="rId44"/>
+    <sheet name="paymodenew" sheetId="48" r:id="rId45"/>
+    <sheet name="vehiclemaster" sheetId="49" r:id="rId46"/>
+    <sheet name="homedeliverytray" sheetId="50" r:id="rId47"/>
+    <sheet name="barcodeprinter" sheetId="51" r:id="rId48"/>
+    <sheet name="pickermaster" sheetId="52" r:id="rId49"/>
+    <sheet name="parammaster" sheetId="53" r:id="rId50"/>
+    <sheet name="category" sheetId="54" r:id="rId51"/>
+    <sheet name="subcategory" sheetId="55" r:id="rId52"/>
+    <sheet name="brand" sheetId="56" r:id="rId53"/>
+    <sheet name="floor" sheetId="57" r:id="rId54"/>
+    <sheet name="itemtype" sheetId="58" r:id="rId55"/>
+    <sheet name="taxnew" sheetId="59" r:id="rId56"/>
+    <sheet name="uomnew" sheetId="60" r:id="rId57"/>
+    <sheet name="section" sheetId="61" r:id="rId58"/>
+    <sheet name="Bin" sheetId="62" r:id="rId59"/>
+    <sheet name="shelf" sheetId="63" r:id="rId60"/>
+    <sheet name="warehouse" sheetId="64" r:id="rId61"/>
+    <sheet name="size" sheetId="65" r:id="rId62"/>
+    <sheet name="style" sheetId="66" r:id="rId63"/>
+    <sheet name="baseuom" sheetId="67" r:id="rId64"/>
+    <sheet name="addded" sheetId="68" r:id="rId65"/>
+    <sheet name="zone" sheetId="69" r:id="rId66"/>
+    <sheet name="companysettings" sheetId="70" r:id="rId67"/>
+    <sheet name="stockadjustmenttype" sheetId="71" r:id="rId68"/>
+    <sheet name="merchandise" sheetId="72" r:id="rId69"/>
+    <sheet name="manufacturer" sheetId="73" r:id="rId70"/>
+    <sheet name="origin" sheetId="74" r:id="rId71"/>
+    <sheet name="transportmaster" sheetId="75" r:id="rId72"/>
+    <sheet name="subclass" sheetId="76" r:id="rId73"/>
+    <sheet name="AutoPo" sheetId="21" r:id="rId74"/>
+    <sheet name="PoVendorChange" sheetId="22" r:id="rId75"/>
+    <sheet name="PriceChangeNonBatchItem" sheetId="12" r:id="rId76"/>
+    <sheet name="ReorderSettings" sheetId="2" r:id="rId77"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -107,7 +108,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2033" uniqueCount="618">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2043" uniqueCount="611">
   <si>
     <t>tblinventory</t>
   </si>
@@ -403,9 +404,6 @@
     <t>12</t>
   </si>
   <si>
-    <t xml:space="preserve">Adult Soap                                        </t>
-  </si>
-  <si>
     <t xml:space="preserve">HOME ESSENTIAL 7                                  </t>
   </si>
   <si>
@@ -457,33 +455,6 @@
     <t xml:space="preserve">851985    </t>
   </si>
   <si>
-    <t>BISCUITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BISCUITS                                          </t>
-  </si>
-  <si>
-    <t>SNACKS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SNACKS                                            </t>
-  </si>
-  <si>
-    <t>PARLE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PARLE                                             </t>
-  </si>
-  <si>
-    <t>Barcode</t>
-  </si>
-  <si>
-    <t>AER</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AER                                               </t>
-  </si>
-  <si>
     <t>HQ</t>
   </si>
   <si>
@@ -496,9 +467,6 @@
     <t>PackageInventory</t>
   </si>
   <si>
-    <t>000016</t>
-  </si>
-  <si>
     <t xml:space="preserve">000016              </t>
   </si>
   <si>
@@ -509,9 +477,6 @@
   </si>
   <si>
     <t>Qty</t>
-  </si>
-  <si>
-    <t>000001</t>
   </si>
   <si>
     <t>tblPackageDetail</t>
@@ -1963,6 +1928,21 @@
   </si>
   <si>
     <t>Subclasscode</t>
+  </si>
+  <si>
+    <t>000018</t>
+  </si>
+  <si>
+    <t>000106</t>
+  </si>
+  <si>
+    <t>000107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">warehouse </t>
+  </si>
+  <si>
+    <t xml:space="preserve">V00001    </t>
   </si>
 </sst>
 </file>
@@ -2345,7 +2325,7 @@
         <v>93</v>
       </c>
       <c r="D2" t="s">
-        <v>94</v>
+        <v>107</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -2369,10 +2349,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D5" t="s">
         <v>6</v>
@@ -2383,10 +2363,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D6" t="s">
         <v>6</v>
@@ -2397,10 +2377,10 @@
         <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D7" t="s">
         <v>6</v>
@@ -2411,7 +2391,7 @@
         <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C8" t="s">
         <v>12</v>
@@ -2422,10 +2402,10 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C9" t="s">
         <v>15</v>
@@ -2436,49 +2416,55 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="B10" t="s">
-        <v>1</v>
+        <v>102</v>
+      </c>
+      <c r="C10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="B11" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="C11" t="s">
-        <v>117</v>
+        <v>609</v>
       </c>
       <c r="D11" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="B12" t="s">
-        <v>118</v>
+        <v>102</v>
       </c>
       <c r="C12" t="s">
-        <v>119</v>
+        <v>22</v>
       </c>
       <c r="D12" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="B13" t="s">
-        <v>120</v>
+        <v>102</v>
       </c>
       <c r="C13" t="s">
-        <v>121</v>
+        <v>24</v>
       </c>
       <c r="D13" t="s">
         <v>6</v>
@@ -2486,30 +2472,30 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>122</v>
+        <v>25</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>102</v>
       </c>
       <c r="C14" t="s">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="B15" t="s">
-        <v>123</v>
+        <v>102</v>
       </c>
       <c r="C15" t="s">
-        <v>124</v>
+        <v>610</v>
       </c>
       <c r="D15" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
@@ -2559,10 +2545,10 @@
         <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="C19" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="D19" t="s">
         <v>3</v>
@@ -3152,7 +3138,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B1" t="s">
         <v>90</v>
@@ -3166,10 +3152,10 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -3185,10 +3171,10 @@
         <v>40</v>
       </c>
       <c r="B6" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="C6" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="D6" t="s">
         <v>6</v>
@@ -3207,10 +3193,10 @@
         <v>80</v>
       </c>
       <c r="B9" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="C9" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="D9" t="s">
         <v>6</v>
@@ -3221,7 +3207,7 @@
         <v>81</v>
       </c>
       <c r="B10" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="C10" t="s">
         <v>32</v>
@@ -3235,10 +3221,10 @@
         <v>70</v>
       </c>
       <c r="B11" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="C11" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
       <c r="D11" t="s">
         <v>6</v>
@@ -3257,10 +3243,10 @@
         <v>63</v>
       </c>
       <c r="B14" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="C14" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
       <c r="D14" t="s">
         <v>6</v>
@@ -3268,7 +3254,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="B16" t="s">
         <v>1</v>
@@ -3279,10 +3265,10 @@
         <v>63</v>
       </c>
       <c r="B17" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="C17" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="D17" t="s">
         <v>3</v>
@@ -3293,10 +3279,10 @@
         <v>80</v>
       </c>
       <c r="B18" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="C18" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="D18" t="s">
         <v>3</v>
@@ -3304,13 +3290,13 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
       <c r="B19" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="C19" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="D19" t="s">
         <v>3</v>
@@ -3318,13 +3304,13 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c r="B20" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="C20" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="D20" t="s">
         <v>3</v>
@@ -3347,7 +3333,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B1" t="s">
         <v>90</v>
@@ -3361,10 +3347,10 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
   </sheetData>
@@ -3402,7 +3388,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D2" t="s">
         <v>3</v>
@@ -3410,7 +3396,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
       <c r="B4" t="s">
         <v>1</v>
@@ -3418,7 +3404,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
       <c r="B6" t="s">
         <v>46</v>
@@ -3432,13 +3418,13 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="B7" t="s">
-        <v>162</v>
+        <v>150</v>
       </c>
       <c r="C7" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
       <c r="D7" t="s">
         <v>6</v>
@@ -3446,13 +3432,13 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="B8" t="s">
         <v>46</v>
       </c>
       <c r="C8" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
       <c r="D8" t="s">
         <v>6</v>
@@ -3460,7 +3446,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="B9" t="s">
         <v>46</v>
@@ -3474,13 +3460,13 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="B11" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
       <c r="C11" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="D11" t="s">
         <v>6</v>
@@ -3488,7 +3474,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
       <c r="B13" t="s">
         <v>1</v>
@@ -3496,7 +3482,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
       <c r="B14" t="s">
         <v>46</v>
@@ -3513,10 +3499,10 @@
         <v>83</v>
       </c>
       <c r="B15" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
       <c r="C15" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
       <c r="D15" t="s">
         <v>6</v>
@@ -3524,7 +3510,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="B16" t="s">
         <v>46</v>
@@ -3538,7 +3524,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="B17" t="s">
         <v>1</v>
@@ -3546,7 +3532,7 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
       <c r="B18" t="s">
         <v>46</v>
@@ -3563,10 +3549,10 @@
         <v>83</v>
       </c>
       <c r="B19" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
       <c r="C19" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
       <c r="D19" t="s">
         <v>6</v>
@@ -3577,10 +3563,10 @@
         <v>83</v>
       </c>
       <c r="B20" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
       <c r="C20" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
       <c r="D20" t="s">
         <v>6</v>
@@ -3588,7 +3574,7 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="B21" t="s">
         <v>46</v>
@@ -3602,7 +3588,7 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
       <c r="B22" t="s">
         <v>46</v>
@@ -3645,7 +3631,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D2" t="s">
         <v>3</v>
@@ -3653,7 +3639,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="B4" t="s">
         <v>1</v>
@@ -3661,13 +3647,13 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>176</v>
+        <v>164</v>
       </c>
       <c r="B6" t="s">
-        <v>177</v>
+        <v>165</v>
       </c>
       <c r="C6" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
       <c r="D6" t="s">
         <v>3</v>
@@ -3675,7 +3661,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
       <c r="B7" t="s">
         <v>46</v>
@@ -3689,7 +3675,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
       <c r="B8" t="s">
         <v>46</v>
@@ -3703,13 +3689,13 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="B9" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
       <c r="C9" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
       <c r="D9" t="s">
         <v>6</v>
@@ -3717,13 +3703,13 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>169</v>
+        <v>157</v>
       </c>
       <c r="B10" t="s">
-        <v>185</v>
+        <v>173</v>
       </c>
       <c r="C10" t="s">
-        <v>170</v>
+        <v>158</v>
       </c>
       <c r="D10" t="s">
         <v>6</v>
@@ -3731,13 +3717,13 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="B11" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
       <c r="C11" t="s">
-        <v>172</v>
+        <v>160</v>
       </c>
       <c r="D11" t="s">
         <v>6</v>
@@ -3745,13 +3731,13 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="B14" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
       <c r="C14" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
       <c r="D14" t="s">
         <v>6</v>
@@ -3759,13 +3745,13 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>169</v>
+        <v>157</v>
       </c>
       <c r="B15" t="s">
-        <v>185</v>
+        <v>173</v>
       </c>
       <c r="C15" t="s">
-        <v>170</v>
+        <v>158</v>
       </c>
       <c r="D15" t="s">
         <v>6</v>
@@ -3773,13 +3759,13 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>184</v>
+        <v>172</v>
       </c>
       <c r="B16" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
       <c r="C16" t="s">
-        <v>172</v>
+        <v>160</v>
       </c>
       <c r="D16" t="s">
         <v>6</v>
@@ -3787,13 +3773,13 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
       <c r="B17" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="C17" t="s">
-        <v>172</v>
+        <v>160</v>
       </c>
       <c r="D17" t="s">
         <v>6</v>
@@ -3801,7 +3787,7 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
       <c r="B18" t="s">
         <v>46</v>
@@ -3815,7 +3801,7 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
       <c r="B19" t="s">
         <v>46</v>
@@ -3829,7 +3815,7 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="B20" t="s">
         <v>1</v>
@@ -3837,13 +3823,13 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>176</v>
+        <v>164</v>
       </c>
       <c r="B21" t="s">
-        <v>177</v>
+        <v>165</v>
       </c>
       <c r="C21" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
       <c r="D21" t="s">
         <v>3</v>
@@ -3851,7 +3837,7 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
       <c r="B22" t="s">
         <v>46</v>
@@ -3865,13 +3851,13 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
       <c r="B23" t="s">
         <v>46</v>
       </c>
       <c r="C23" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="D23" t="s">
         <v>6</v>
@@ -3879,13 +3865,13 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="B24" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
       <c r="C24" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
       <c r="D24" t="s">
         <v>6</v>
@@ -3893,13 +3879,13 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>169</v>
+        <v>157</v>
       </c>
       <c r="B25" t="s">
-        <v>185</v>
+        <v>173</v>
       </c>
       <c r="C25" t="s">
-        <v>170</v>
+        <v>158</v>
       </c>
       <c r="D25" t="s">
         <v>6</v>
@@ -3907,13 +3893,13 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="B26" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
       <c r="C26" t="s">
-        <v>172</v>
+        <v>160</v>
       </c>
       <c r="D26" t="s">
         <v>6</v>
@@ -3921,13 +3907,13 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
       <c r="B27" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="C27" t="s">
-        <v>172</v>
+        <v>160</v>
       </c>
       <c r="D27" t="s">
         <v>6</v>
@@ -3964,7 +3950,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D2" t="s">
         <v>3</v>
@@ -3972,7 +3958,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>186</v>
+        <v>174</v>
       </c>
       <c r="B4" t="s">
         <v>1</v>
@@ -3980,13 +3966,13 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
       <c r="B6" t="s">
         <v>46</v>
       </c>
       <c r="C6" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="D6" t="s">
         <v>6</v>
@@ -3994,13 +3980,13 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>188</v>
+        <v>176</v>
       </c>
       <c r="B7" t="s">
-        <v>185</v>
+        <v>173</v>
       </c>
       <c r="C7" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
       <c r="D7" t="s">
         <v>6</v>
@@ -4008,13 +3994,13 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="B8" t="s">
-        <v>185</v>
+        <v>173</v>
       </c>
       <c r="C8" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
       <c r="D8" t="s">
         <v>6</v>
@@ -4022,13 +4008,13 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="B11" t="s">
-        <v>191</v>
+        <v>179</v>
       </c>
       <c r="C11" t="s">
-        <v>191</v>
+        <v>179</v>
       </c>
       <c r="D11" t="s">
         <v>3</v>
@@ -4036,13 +4022,13 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="B12" t="s">
-        <v>192</v>
+        <v>180</v>
       </c>
       <c r="C12" t="s">
-        <v>191</v>
+        <v>179</v>
       </c>
       <c r="D12" t="s">
         <v>6</v>
@@ -4050,7 +4036,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
       <c r="B13" t="s">
         <v>1</v>
@@ -4058,10 +4044,10 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>196</v>
+        <v>184</v>
       </c>
       <c r="B14" t="s">
-        <v>197</v>
+        <v>185</v>
       </c>
       <c r="C14" t="s">
         <v>71</v>
@@ -4072,10 +4058,10 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>198</v>
+        <v>186</v>
       </c>
       <c r="B15" t="s">
-        <v>199</v>
+        <v>187</v>
       </c>
       <c r="C15" t="s">
         <v>71</v>
@@ -4086,13 +4072,13 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>200</v>
+        <v>188</v>
       </c>
       <c r="B23" t="s">
-        <v>177</v>
+        <v>165</v>
       </c>
       <c r="C23" t="s">
-        <v>201</v>
+        <v>189</v>
       </c>
       <c r="D23" t="s">
         <v>6</v>
@@ -4129,7 +4115,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D2" t="s">
         <v>3</v>
@@ -4137,7 +4123,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>202</v>
+        <v>190</v>
       </c>
       <c r="B4" t="s">
         <v>1</v>
@@ -4145,7 +4131,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
       <c r="B6" t="s">
         <v>46</v>
@@ -4159,13 +4145,13 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>188</v>
+        <v>176</v>
       </c>
       <c r="B7" t="s">
-        <v>203</v>
+        <v>191</v>
       </c>
       <c r="C7" t="s">
-        <v>204</v>
+        <v>192</v>
       </c>
       <c r="D7" t="s">
         <v>6</v>
@@ -4173,13 +4159,13 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="B8" t="s">
-        <v>203</v>
+        <v>191</v>
       </c>
       <c r="C8" t="s">
-        <v>204</v>
+        <v>192</v>
       </c>
       <c r="D8" t="s">
         <v>6</v>
@@ -4216,7 +4202,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D2" t="s">
         <v>3</v>
@@ -4224,7 +4210,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>205</v>
+        <v>193</v>
       </c>
       <c r="B4" t="s">
         <v>1</v>
@@ -4235,10 +4221,10 @@
         <v>35</v>
       </c>
       <c r="B6" t="s">
-        <v>206</v>
+        <v>194</v>
       </c>
       <c r="C6" t="s">
-        <v>207</v>
+        <v>195</v>
       </c>
       <c r="D6" t="s">
         <v>6</v>
@@ -4246,7 +4232,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>208</v>
+        <v>196</v>
       </c>
       <c r="B8" t="s">
         <v>1</v>
@@ -4254,13 +4240,13 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>196</v>
+        <v>184</v>
       </c>
       <c r="B9" t="s">
-        <v>209</v>
+        <v>197</v>
       </c>
       <c r="C9" t="s">
-        <v>214</v>
+        <v>202</v>
       </c>
       <c r="D9" t="s">
         <v>6</v>
@@ -4271,10 +4257,10 @@
         <v>35</v>
       </c>
       <c r="B10" t="s">
-        <v>206</v>
+        <v>194</v>
       </c>
       <c r="C10" t="s">
-        <v>213</v>
+        <v>201</v>
       </c>
       <c r="D10" t="s">
         <v>6</v>
@@ -4282,13 +4268,13 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>210</v>
+        <v>198</v>
       </c>
       <c r="B11" t="s">
         <v>46</v>
       </c>
       <c r="C11" t="s">
-        <v>211</v>
+        <v>199</v>
       </c>
       <c r="D11" t="s">
         <v>6</v>
@@ -4296,13 +4282,13 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>212</v>
+        <v>200</v>
       </c>
       <c r="B12" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
       <c r="C12" t="s">
-        <v>215</v>
+        <v>203</v>
       </c>
       <c r="D12" t="s">
         <v>6</v>
@@ -4344,7 +4330,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D2" t="s">
         <v>3</v>
@@ -4352,7 +4338,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>216</v>
+        <v>204</v>
       </c>
       <c r="B4" t="s">
         <v>1</v>
@@ -4363,7 +4349,7 @@
         <v>35</v>
       </c>
       <c r="B6" t="s">
-        <v>206</v>
+        <v>194</v>
       </c>
       <c r="C6" t="s">
         <v>37</v>
@@ -4374,13 +4360,13 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="B7" t="s">
-        <v>217</v>
+        <v>205</v>
       </c>
       <c r="C7" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="D7" t="s">
         <v>6</v>
@@ -4388,13 +4374,13 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>222</v>
+        <v>210</v>
       </c>
       <c r="B8" t="s">
-        <v>223</v>
+        <v>211</v>
       </c>
       <c r="C8" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="D8" t="s">
         <v>6</v>
@@ -4408,7 +4394,7 @@
         <v>46</v>
       </c>
       <c r="C9" t="s">
-        <v>218</v>
+        <v>206</v>
       </c>
       <c r="D9" t="s">
         <v>6</v>
@@ -4416,7 +4402,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>220</v>
+        <v>208</v>
       </c>
       <c r="B11" t="s">
         <v>1</v>
@@ -4424,10 +4410,10 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>221</v>
+        <v>209</v>
       </c>
       <c r="B12" t="s">
-        <v>206</v>
+        <v>194</v>
       </c>
       <c r="C12" t="s">
         <v>37</v>
@@ -4438,13 +4424,13 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>222</v>
+        <v>210</v>
       </c>
       <c r="B13" t="s">
-        <v>223</v>
+        <v>211</v>
       </c>
       <c r="C13" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="D13" t="s">
         <v>6</v>
@@ -4452,7 +4438,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>225</v>
+        <v>213</v>
       </c>
       <c r="B15" t="s">
         <v>1</v>
@@ -4460,13 +4446,13 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="B16" t="s">
-        <v>217</v>
+        <v>205</v>
       </c>
       <c r="C16" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="D16" t="s">
         <v>6</v>
@@ -4474,10 +4460,10 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>210</v>
+        <v>198</v>
       </c>
       <c r="B17" t="s">
-        <v>206</v>
+        <v>194</v>
       </c>
       <c r="C17" t="s">
         <v>37</v>
@@ -4517,7 +4503,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D2" t="s">
         <v>3</v>
@@ -4525,7 +4511,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>226</v>
+        <v>214</v>
       </c>
       <c r="B4" t="s">
         <v>1</v>
@@ -4536,10 +4522,10 @@
         <v>86</v>
       </c>
       <c r="B6" t="s">
-        <v>209</v>
+        <v>197</v>
       </c>
       <c r="C6" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="D6" t="s">
         <v>3</v>
@@ -4547,13 +4533,13 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>200</v>
+        <v>188</v>
       </c>
       <c r="B7" t="s">
-        <v>227</v>
+        <v>215</v>
       </c>
       <c r="C7" t="s">
-        <v>228</v>
+        <v>216</v>
       </c>
       <c r="D7" t="s">
         <v>6</v>
@@ -4561,13 +4547,13 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>222</v>
+        <v>210</v>
       </c>
       <c r="B8" t="s">
-        <v>229</v>
+        <v>217</v>
       </c>
       <c r="C8" t="s">
-        <v>230</v>
+        <v>218</v>
       </c>
       <c r="D8" t="s">
         <v>6</v>
@@ -4575,7 +4561,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>231</v>
+        <v>219</v>
       </c>
       <c r="B11" t="s">
         <v>1</v>
@@ -4583,7 +4569,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>210</v>
+        <v>198</v>
       </c>
       <c r="B12" t="s">
         <v>46</v>
@@ -4597,13 +4583,13 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>222</v>
+        <v>210</v>
       </c>
       <c r="B13" t="s">
-        <v>232</v>
+        <v>220</v>
       </c>
       <c r="C13" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="D13" t="s">
         <v>3</v>
@@ -4643,7 +4629,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D2" t="s">
         <v>3</v>
@@ -4651,7 +4637,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>236</v>
+        <v>224</v>
       </c>
       <c r="B4" t="s">
         <v>1</v>
@@ -4662,7 +4648,7 @@
         <v>35</v>
       </c>
       <c r="B6" t="s">
-        <v>206</v>
+        <v>194</v>
       </c>
       <c r="C6" t="s">
         <v>36</v>
@@ -4673,7 +4659,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>237</v>
+        <v>225</v>
       </c>
       <c r="B7" t="s">
         <v>46</v>
@@ -4687,13 +4673,13 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="B8" t="s">
-        <v>238</v>
+        <v>226</v>
       </c>
       <c r="C8" t="s">
-        <v>239</v>
+        <v>227</v>
       </c>
       <c r="D8" t="s">
         <v>6</v>
@@ -4701,13 +4687,13 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>240</v>
+        <v>228</v>
       </c>
       <c r="B9" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
       <c r="C9" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
       <c r="D9" t="s">
         <v>3</v>
@@ -4715,13 +4701,13 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>240</v>
+        <v>228</v>
       </c>
       <c r="B10" t="s">
-        <v>238</v>
+        <v>226</v>
       </c>
       <c r="C10" t="s">
-        <v>239</v>
+        <v>227</v>
       </c>
       <c r="D10" t="s">
         <v>6</v>
@@ -4729,13 +4715,13 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
       <c r="B11" t="s">
         <v>46</v>
       </c>
       <c r="C11" t="s">
-        <v>238</v>
+        <v>226</v>
       </c>
       <c r="D11" t="s">
         <v>6</v>
@@ -4743,13 +4729,13 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>242</v>
+        <v>230</v>
       </c>
       <c r="B12" t="s">
         <v>48</v>
       </c>
       <c r="C12" t="s">
-        <v>243</v>
+        <v>231</v>
       </c>
       <c r="D12" t="s">
         <v>6</v>
@@ -4757,7 +4743,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>220</v>
+        <v>208</v>
       </c>
       <c r="B15" t="s">
         <v>1</v>
@@ -4765,10 +4751,10 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>221</v>
+        <v>209</v>
       </c>
       <c r="B16" t="s">
-        <v>206</v>
+        <v>194</v>
       </c>
       <c r="C16" t="s">
         <v>37</v>
@@ -4779,13 +4765,13 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>222</v>
+        <v>210</v>
       </c>
       <c r="B17" t="s">
         <v>46</v>
       </c>
       <c r="C17" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="D17" t="s">
         <v>6</v>
@@ -4793,13 +4779,13 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>242</v>
+        <v>230</v>
       </c>
       <c r="B20" t="s">
         <v>48</v>
       </c>
       <c r="C20" t="s">
-        <v>246</v>
+        <v>234</v>
       </c>
       <c r="D20" t="s">
         <v>6</v>
@@ -4807,13 +4793,13 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>244</v>
+        <v>232</v>
       </c>
       <c r="B21" t="s">
         <v>48</v>
       </c>
       <c r="C21" t="s">
-        <v>245</v>
+        <v>233</v>
       </c>
       <c r="D21" t="s">
         <v>6</v>
@@ -4821,13 +4807,13 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>242</v>
+        <v>230</v>
       </c>
       <c r="B22" t="s">
         <v>48</v>
       </c>
       <c r="C22" t="s">
-        <v>246</v>
+        <v>234</v>
       </c>
       <c r="D22" t="s">
         <v>6</v>
@@ -4867,7 +4853,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D2" t="s">
         <v>3</v>
@@ -4886,13 +4872,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C4" t="s">
-        <v>98</v>
+        <v>558</v>
       </c>
       <c r="D4" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
@@ -4908,10 +4894,10 @@
         <v>79</v>
       </c>
       <c r="B18" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C18" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D18" t="s">
         <v>6</v>
@@ -4922,10 +4908,10 @@
         <v>72</v>
       </c>
       <c r="B19" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C19" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D19" t="s">
         <v>6</v>
@@ -4933,7 +4919,7 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B21" t="s">
         <v>1</v>
@@ -4944,7 +4930,7 @@
         <v>35</v>
       </c>
       <c r="B22" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C22" t="s">
         <v>1</v>
@@ -4958,10 +4944,10 @@
         <v>86</v>
       </c>
       <c r="B23" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C23" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D23" t="s">
         <v>6</v>
@@ -4998,7 +4984,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D2" t="s">
         <v>3</v>
@@ -5019,7 +5005,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1">
       <c r="A1" t="s">
         <v>89</v>
       </c>
@@ -5033,9 +5019,9 @@
         <v>92</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2">
       <c r="A2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D2" t="s">
         <v>3</v>
@@ -5058,7 +5044,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B1" t="s">
         <v>90</v>
@@ -5072,10 +5058,10 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
   </sheetData>
@@ -5095,7 +5081,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B1" t="s">
         <v>90</v>
@@ -5109,10 +5095,10 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
   </sheetData>
@@ -5121,11 +5107,11 @@
 </file>
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9B943C6-E5B1-5D45-AA0D-6CF758FDEF5E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{983DB4C9-8A82-D642-8B0A-48BD989583E8}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O23" sqref="O23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5135,6 +5121,43 @@
 </file>
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9B943C6-E5B1-5D45-AA0D-6CF758FDEF5E}">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O23" sqref="O23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>101</v>
+      </c>
+      <c r="D2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91F54B48-C9D0-1642-9B7A-993903F18E7C}">
   <dimension ref="A1:D2"/>
   <sheetViews>
@@ -5160,7 +5183,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D2" t="s">
         <v>3</v>
@@ -5171,7 +5194,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08A40A07-05CC-B14E-AF33-98D8419D0F4A}">
   <dimension ref="A1:D2"/>
   <sheetViews>
@@ -5197,7 +5220,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D2" t="s">
         <v>3</v>
@@ -5208,7 +5231,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FDCEA2B-BE73-774E-B904-1046F0C87FDD}">
   <dimension ref="A1:D2"/>
   <sheetViews>
@@ -5234,7 +5257,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D2" t="s">
         <v>3</v>
@@ -5245,7 +5268,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAA46689-5E37-E14C-9148-553AEA06B108}">
   <dimension ref="A1:D2"/>
   <sheetViews>
@@ -5257,7 +5280,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B1" t="s">
         <v>90</v>
@@ -5271,10 +5294,10 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
   </sheetData>
@@ -5282,7 +5305,44 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB950EF3-C9C9-E143-87D3-DD2E34F855A9}">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F28" sqref="F28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>101</v>
+      </c>
+      <c r="D2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41FED4AA-83FB-1249-8EB4-7F6A1EF337CF}">
   <dimension ref="A1:D2"/>
   <sheetViews>
@@ -5294,7 +5354,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B1" t="s">
         <v>90</v>
@@ -5308,10 +5368,10 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
   </sheetData>
@@ -5319,21 +5379,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB950EF3-C9C9-E143-87D3-DD2E34F855A9}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A518D1F-6D31-7340-A5A0-3C57942126A9}">
   <dimension ref="A1:D27"/>
   <sheetViews>
@@ -5362,7 +5408,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>247</v>
+        <v>235</v>
       </c>
       <c r="D2" t="s">
         <v>3</v>
@@ -5370,7 +5416,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>248</v>
+        <v>236</v>
       </c>
       <c r="B3" t="s">
         <v>1</v>
@@ -5378,13 +5424,13 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="B4" t="s">
-        <v>250</v>
+        <v>238</v>
       </c>
       <c r="C4" t="s">
-        <v>251</v>
+        <v>239</v>
       </c>
       <c r="D4" t="s">
         <v>3</v>
@@ -5392,13 +5438,13 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>252</v>
+        <v>240</v>
       </c>
       <c r="B5" t="s">
-        <v>253</v>
+        <v>241</v>
       </c>
       <c r="C5" t="s">
-        <v>254</v>
+        <v>242</v>
       </c>
       <c r="D5" t="s">
         <v>3</v>
@@ -5406,13 +5452,13 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>255</v>
+        <v>243</v>
       </c>
       <c r="B6" t="s">
-        <v>256</v>
+        <v>244</v>
       </c>
       <c r="C6" t="s">
-        <v>257</v>
+        <v>245</v>
       </c>
       <c r="D6" t="s">
         <v>3</v>
@@ -5420,13 +5466,13 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
       <c r="B7" t="s">
-        <v>259</v>
+        <v>247</v>
       </c>
       <c r="C7" t="s">
-        <v>260</v>
+        <v>248</v>
       </c>
       <c r="D7" t="s">
         <v>3</v>
@@ -5434,13 +5480,13 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>261</v>
+        <v>249</v>
       </c>
       <c r="B9" t="s">
-        <v>262</v>
+        <v>250</v>
       </c>
       <c r="C9" t="s">
-        <v>263</v>
+        <v>251</v>
       </c>
       <c r="D9" t="s">
         <v>3</v>
@@ -5448,13 +5494,13 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>264</v>
+        <v>252</v>
       </c>
       <c r="B10" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
       <c r="C10" t="s">
-        <v>266</v>
+        <v>254</v>
       </c>
       <c r="D10" t="s">
         <v>3</v>
@@ -5462,27 +5508,27 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>267</v>
+        <v>255</v>
       </c>
       <c r="B12" t="s">
-        <v>268</v>
+        <v>256</v>
       </c>
       <c r="C12" t="s">
-        <v>269</v>
+        <v>257</v>
       </c>
       <c r="D12" t="s">
-        <v>270</v>
+        <v>258</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>271</v>
+        <v>259</v>
       </c>
       <c r="B13" t="s">
-        <v>272</v>
+        <v>260</v>
       </c>
       <c r="C13" t="s">
-        <v>273</v>
+        <v>261</v>
       </c>
       <c r="D13" t="s">
         <v>3</v>
@@ -5490,13 +5536,13 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>274</v>
+        <v>262</v>
       </c>
       <c r="B14" t="s">
-        <v>275</v>
+        <v>263</v>
       </c>
       <c r="C14" t="s">
-        <v>276</v>
+        <v>264</v>
       </c>
       <c r="D14" t="s">
         <v>3</v>
@@ -5504,7 +5550,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>277</v>
+        <v>265</v>
       </c>
       <c r="B15" t="s">
         <v>97</v>
@@ -5518,13 +5564,13 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>278</v>
+        <v>266</v>
       </c>
       <c r="B16" t="s">
-        <v>279</v>
+        <v>267</v>
       </c>
       <c r="C16" t="s">
-        <v>280</v>
+        <v>268</v>
       </c>
       <c r="D16" t="s">
         <v>3</v>
@@ -5532,13 +5578,13 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>281</v>
+        <v>269</v>
       </c>
       <c r="B17" t="s">
-        <v>282</v>
+        <v>270</v>
       </c>
       <c r="C17" t="s">
-        <v>283</v>
+        <v>271</v>
       </c>
       <c r="D17" t="s">
         <v>3</v>
@@ -5546,13 +5592,13 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>284</v>
+        <v>272</v>
       </c>
       <c r="B18" t="s">
-        <v>285</v>
+        <v>273</v>
       </c>
       <c r="C18" t="s">
-        <v>285</v>
+        <v>273</v>
       </c>
       <c r="D18" t="s">
         <v>3</v>
@@ -5560,13 +5606,13 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>286</v>
+        <v>274</v>
       </c>
       <c r="B19" t="s">
-        <v>287</v>
+        <v>275</v>
       </c>
       <c r="C19" t="s">
-        <v>288</v>
+        <v>276</v>
       </c>
       <c r="D19" t="s">
         <v>3</v>
@@ -5574,13 +5620,13 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>289</v>
+        <v>277</v>
       </c>
       <c r="B20" t="s">
-        <v>290</v>
+        <v>278</v>
       </c>
       <c r="C20" t="s">
-        <v>290</v>
+        <v>278</v>
       </c>
       <c r="D20" t="s">
         <v>3</v>
@@ -5588,13 +5634,13 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>291</v>
+        <v>279</v>
       </c>
       <c r="B21" t="s">
-        <v>292</v>
+        <v>280</v>
       </c>
       <c r="C21" t="s">
-        <v>292</v>
+        <v>280</v>
       </c>
       <c r="D21" t="s">
         <v>3</v>
@@ -5602,7 +5648,7 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>293</v>
+        <v>281</v>
       </c>
       <c r="B22">
         <v>10</v>
@@ -5616,13 +5662,13 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>294</v>
+        <v>282</v>
       </c>
       <c r="B23" t="s">
-        <v>295</v>
+        <v>283</v>
       </c>
       <c r="C23" t="s">
-        <v>296</v>
+        <v>284</v>
       </c>
       <c r="D23" t="s">
         <v>3</v>
@@ -5630,13 +5676,13 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>297</v>
+        <v>285</v>
       </c>
       <c r="B24" t="s">
-        <v>298</v>
+        <v>286</v>
       </c>
       <c r="C24" t="s">
-        <v>299</v>
+        <v>287</v>
       </c>
       <c r="D24" t="s">
         <v>3</v>
@@ -5644,13 +5690,13 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>300</v>
+        <v>288</v>
       </c>
       <c r="B25" t="s">
-        <v>301</v>
+        <v>289</v>
       </c>
       <c r="C25" t="s">
-        <v>302</v>
+        <v>290</v>
       </c>
       <c r="D25" t="s">
         <v>3</v>
@@ -5658,13 +5704,13 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>303</v>
+        <v>291</v>
       </c>
       <c r="B26" t="s">
-        <v>304</v>
+        <v>292</v>
       </c>
       <c r="C26" t="s">
-        <v>305</v>
+        <v>293</v>
       </c>
       <c r="D26" t="s">
         <v>3</v>
@@ -5672,13 +5718,13 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>306</v>
+        <v>294</v>
       </c>
       <c r="B27" t="s">
-        <v>307</v>
+        <v>295</v>
       </c>
       <c r="C27" t="s">
-        <v>308</v>
+        <v>296</v>
       </c>
       <c r="D27" t="s">
         <v>3</v>
@@ -5689,7 +5735,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2563BE7A-9E1F-BF45-936D-61A28AE1C026}">
   <dimension ref="A1:D12"/>
   <sheetViews>
@@ -5715,7 +5761,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>309</v>
+        <v>297</v>
       </c>
       <c r="D2" t="s">
         <v>3</v>
@@ -5723,7 +5769,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>310</v>
+        <v>298</v>
       </c>
       <c r="C4" t="s">
         <v>1</v>
@@ -5731,13 +5777,13 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>311</v>
+        <v>299</v>
       </c>
       <c r="B5" t="s">
-        <v>312</v>
+        <v>300</v>
       </c>
       <c r="C5" t="s">
-        <v>313</v>
+        <v>301</v>
       </c>
       <c r="D5" t="s">
         <v>3</v>
@@ -5745,13 +5791,13 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>309</v>
+        <v>297</v>
       </c>
       <c r="B6" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="C6" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="D6" t="s">
         <v>3</v>
@@ -5759,13 +5805,13 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>314</v>
+        <v>302</v>
       </c>
       <c r="B7" t="s">
-        <v>315</v>
+        <v>303</v>
       </c>
       <c r="C7" t="s">
-        <v>315</v>
+        <v>303</v>
       </c>
       <c r="D7" t="s">
         <v>3</v>
@@ -5773,13 +5819,13 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>316</v>
+        <v>304</v>
       </c>
       <c r="B8" t="s">
-        <v>317</v>
+        <v>305</v>
       </c>
       <c r="C8" t="s">
-        <v>317</v>
+        <v>305</v>
       </c>
       <c r="D8" t="s">
         <v>3</v>
@@ -5787,13 +5833,13 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>323</v>
+        <v>311</v>
       </c>
       <c r="B9" t="s">
-        <v>312</v>
+        <v>300</v>
       </c>
       <c r="C9" t="s">
-        <v>312</v>
+        <v>300</v>
       </c>
       <c r="D9" t="s">
         <v>3</v>
@@ -5801,13 +5847,13 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>318</v>
+        <v>306</v>
       </c>
       <c r="B10" t="s">
-        <v>319</v>
+        <v>307</v>
       </c>
       <c r="C10" t="s">
-        <v>319</v>
+        <v>307</v>
       </c>
       <c r="D10" t="s">
         <v>3</v>
@@ -5815,13 +5861,13 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>271</v>
+        <v>259</v>
       </c>
       <c r="B11" t="s">
-        <v>320</v>
+        <v>308</v>
       </c>
       <c r="C11" t="s">
-        <v>321</v>
+        <v>309</v>
       </c>
       <c r="D11" t="s">
         <v>3</v>
@@ -5829,13 +5875,13 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>274</v>
+        <v>262</v>
       </c>
       <c r="B12" t="s">
-        <v>322</v>
+        <v>310</v>
       </c>
       <c r="C12" t="s">
-        <v>322</v>
+        <v>310</v>
       </c>
       <c r="D12" t="s">
         <v>3</v>
@@ -5846,7 +5892,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E51BD22A-8ED8-D249-B461-D4A8438465B3}">
   <dimension ref="A1:D5"/>
   <sheetViews>
@@ -5858,7 +5904,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
-        <v>324</v>
+        <v>312</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -5866,13 +5912,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>325</v>
+        <v>313</v>
       </c>
       <c r="B2" t="s">
-        <v>326</v>
+        <v>314</v>
       </c>
       <c r="C2" t="s">
-        <v>327</v>
+        <v>315</v>
       </c>
       <c r="D2" t="s">
         <v>6</v>
@@ -5880,13 +5926,13 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>328</v>
+        <v>316</v>
       </c>
       <c r="B3" t="s">
-        <v>329</v>
+        <v>317</v>
       </c>
       <c r="C3" t="s">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="D3" t="s">
         <v>3</v>
@@ -5894,13 +5940,13 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>331</v>
+        <v>319</v>
       </c>
       <c r="B4" t="s">
-        <v>332</v>
+        <v>320</v>
       </c>
       <c r="C4" t="s">
-        <v>332</v>
+        <v>320</v>
       </c>
       <c r="D4" t="s">
         <v>3</v>
@@ -5908,13 +5954,13 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>333</v>
+        <v>321</v>
       </c>
       <c r="B5" t="s">
-        <v>334</v>
+        <v>322</v>
       </c>
       <c r="C5" t="s">
-        <v>334</v>
+        <v>322</v>
       </c>
       <c r="D5" t="s">
         <v>3</v>
@@ -5925,7 +5971,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E099693-3E91-224A-9150-F18B16E4F64D}">
   <dimension ref="A1:D30"/>
   <sheetViews>
@@ -5951,7 +5997,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>335</v>
+        <v>323</v>
       </c>
       <c r="D2" t="s">
         <v>3</v>
@@ -5959,7 +6005,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>400</v>
+        <v>388</v>
       </c>
       <c r="B3" t="s">
         <v>1</v>
@@ -5967,13 +6013,13 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>309</v>
+        <v>297</v>
       </c>
       <c r="B4" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="C4" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="D4" t="s">
         <v>3</v>
@@ -5981,13 +6027,13 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>401</v>
+        <v>389</v>
       </c>
       <c r="B6" t="s">
-        <v>402</v>
+        <v>390</v>
       </c>
       <c r="C6" t="s">
-        <v>402</v>
+        <v>390</v>
       </c>
       <c r="D6" t="s">
         <v>3</v>
@@ -5995,13 +6041,13 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>403</v>
+        <v>391</v>
       </c>
       <c r="B7" t="s">
-        <v>404</v>
+        <v>392</v>
       </c>
       <c r="C7" t="s">
-        <v>404</v>
+        <v>392</v>
       </c>
       <c r="D7" t="s">
         <v>3</v>
@@ -6009,13 +6055,13 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
       <c r="B8" t="s">
-        <v>406</v>
+        <v>394</v>
       </c>
       <c r="C8" t="s">
-        <v>406</v>
+        <v>394</v>
       </c>
       <c r="D8" t="s">
         <v>3</v>
@@ -6023,13 +6069,13 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>407</v>
+        <v>395</v>
       </c>
       <c r="B9" t="s">
-        <v>408</v>
+        <v>396</v>
       </c>
       <c r="C9" t="s">
-        <v>408</v>
+        <v>396</v>
       </c>
       <c r="D9" t="s">
         <v>3</v>
@@ -6037,13 +6083,13 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>409</v>
+        <v>397</v>
       </c>
       <c r="B10" t="s">
-        <v>410</v>
+        <v>398</v>
       </c>
       <c r="C10" t="s">
-        <v>410</v>
+        <v>398</v>
       </c>
       <c r="D10" t="s">
         <v>3</v>
@@ -6051,7 +6097,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>411</v>
+        <v>399</v>
       </c>
       <c r="B12" t="s">
         <v>46</v>
@@ -6060,12 +6106,12 @@
         <v>46</v>
       </c>
       <c r="D12" t="s">
-        <v>270</v>
+        <v>258</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>412</v>
+        <v>400</v>
       </c>
       <c r="B13" t="s">
         <v>46</v>
@@ -6079,7 +6125,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>413</v>
+        <v>401</v>
       </c>
       <c r="B14" t="s">
         <v>46</v>
@@ -6093,7 +6139,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>414</v>
+        <v>402</v>
       </c>
       <c r="B15" t="s">
         <v>46</v>
@@ -6107,7 +6153,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>415</v>
+        <v>403</v>
       </c>
       <c r="B16" t="s">
         <v>46</v>
@@ -6121,7 +6167,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>416</v>
+        <v>404</v>
       </c>
       <c r="B17" t="s">
         <v>46</v>
@@ -6135,7 +6181,7 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>417</v>
+        <v>405</v>
       </c>
       <c r="B18" t="s">
         <v>46</v>
@@ -6149,7 +6195,7 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>418</v>
+        <v>406</v>
       </c>
       <c r="B19" t="s">
         <v>46</v>
@@ -6163,7 +6209,7 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>419</v>
+        <v>407</v>
       </c>
       <c r="B20" t="s">
         <v>46</v>
@@ -6177,13 +6223,13 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
       <c r="B21" t="s">
-        <v>421</v>
+        <v>409</v>
       </c>
       <c r="C21" t="s">
-        <v>421</v>
+        <v>409</v>
       </c>
       <c r="D21" t="s">
         <v>3</v>
@@ -6191,10 +6237,10 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>422</v>
+        <v>410</v>
       </c>
       <c r="B22" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="C22" t="s">
         <v>46</v>
@@ -6205,7 +6251,7 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>423</v>
+        <v>411</v>
       </c>
       <c r="B23" t="s">
         <v>46</v>
@@ -6219,13 +6265,13 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>424</v>
+        <v>412</v>
       </c>
       <c r="B24" t="s">
-        <v>421</v>
+        <v>409</v>
       </c>
       <c r="C24" t="s">
-        <v>421</v>
+        <v>409</v>
       </c>
       <c r="D24" t="s">
         <v>3</v>
@@ -6233,7 +6279,7 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>425</v>
+        <v>413</v>
       </c>
       <c r="B25" t="s">
         <v>46</v>
@@ -6247,13 +6293,13 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="B26" t="s">
-        <v>421</v>
+        <v>409</v>
       </c>
       <c r="C26" t="s">
-        <v>421</v>
+        <v>409</v>
       </c>
       <c r="D26" t="s">
         <v>3</v>
@@ -6261,7 +6307,7 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>427</v>
+        <v>415</v>
       </c>
       <c r="B27" t="s">
         <v>46</v>
@@ -6275,13 +6321,13 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>428</v>
+        <v>416</v>
       </c>
       <c r="B28" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="C28" t="s">
-        <v>421</v>
+        <v>409</v>
       </c>
       <c r="D28" t="s">
         <v>3</v>
@@ -6289,13 +6335,13 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>430</v>
+        <v>418</v>
       </c>
       <c r="B29" t="s">
-        <v>431</v>
+        <v>419</v>
       </c>
       <c r="C29" t="s">
-        <v>431</v>
+        <v>419</v>
       </c>
       <c r="D29" t="s">
         <v>3</v>
@@ -6303,13 +6349,13 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>432</v>
+        <v>420</v>
       </c>
       <c r="B30" t="s">
         <v>46</v>
       </c>
       <c r="C30" t="s">
-        <v>433</v>
+        <v>421</v>
       </c>
       <c r="D30" t="s">
         <v>6</v>
@@ -6320,7 +6366,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A920058B-DC2F-5949-9282-91829F254074}">
   <dimension ref="A1:D41"/>
   <sheetViews>
@@ -6346,7 +6392,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>336</v>
+        <v>324</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
@@ -6354,13 +6400,13 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>337</v>
+        <v>325</v>
       </c>
       <c r="B4" t="s">
-        <v>338</v>
+        <v>326</v>
       </c>
       <c r="C4" t="s">
-        <v>338</v>
+        <v>326</v>
       </c>
       <c r="D4" t="s">
         <v>3</v>
@@ -6368,13 +6414,13 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>339</v>
+        <v>327</v>
       </c>
       <c r="B5" t="s">
-        <v>319</v>
+        <v>307</v>
       </c>
       <c r="C5" t="s">
-        <v>319</v>
+        <v>307</v>
       </c>
       <c r="D5" t="s">
         <v>3</v>
@@ -6382,13 +6428,13 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>340</v>
+        <v>328</v>
       </c>
       <c r="B8" t="s">
-        <v>341</v>
+        <v>329</v>
       </c>
       <c r="C8" t="s">
-        <v>341</v>
+        <v>329</v>
       </c>
       <c r="D8" t="s">
         <v>3</v>
@@ -6396,13 +6442,13 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>342</v>
+        <v>330</v>
       </c>
       <c r="B9" t="s">
-        <v>343</v>
+        <v>331</v>
       </c>
       <c r="C9" t="s">
-        <v>343</v>
+        <v>331</v>
       </c>
       <c r="D9" t="s">
         <v>3</v>
@@ -6410,13 +6456,13 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>344</v>
+        <v>332</v>
       </c>
       <c r="B10" t="s">
-        <v>345</v>
+        <v>333</v>
       </c>
       <c r="C10" t="s">
-        <v>345</v>
+        <v>333</v>
       </c>
       <c r="D10" t="s">
         <v>3</v>
@@ -6424,27 +6470,27 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>346</v>
+        <v>334</v>
       </c>
       <c r="B11" t="s">
-        <v>347</v>
+        <v>335</v>
       </c>
       <c r="C11" t="s">
-        <v>347</v>
+        <v>335</v>
       </c>
       <c r="D11" t="s">
-        <v>270</v>
+        <v>258</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>294</v>
+        <v>282</v>
       </c>
       <c r="B12" t="s">
-        <v>348</v>
+        <v>336</v>
       </c>
       <c r="C12" t="s">
-        <v>348</v>
+        <v>336</v>
       </c>
       <c r="D12" t="s">
         <v>3</v>
@@ -6452,13 +6498,13 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>349</v>
+        <v>337</v>
       </c>
       <c r="B13" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="C13" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="D13" t="s">
         <v>3</v>
@@ -6466,13 +6512,13 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>350</v>
+        <v>338</v>
       </c>
       <c r="B14" t="s">
-        <v>351</v>
+        <v>339</v>
       </c>
       <c r="C14" t="s">
-        <v>352</v>
+        <v>340</v>
       </c>
       <c r="D14" t="s">
         <v>6</v>
@@ -6480,13 +6526,13 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>353</v>
+        <v>341</v>
       </c>
       <c r="B15" t="s">
-        <v>354</v>
+        <v>342</v>
       </c>
       <c r="C15" t="s">
-        <v>354</v>
+        <v>342</v>
       </c>
       <c r="D15" t="s">
         <v>3</v>
@@ -6494,13 +6540,13 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>355</v>
+        <v>343</v>
       </c>
       <c r="B16" t="s">
-        <v>356</v>
+        <v>344</v>
       </c>
       <c r="C16" t="s">
-        <v>356</v>
+        <v>344</v>
       </c>
       <c r="D16" t="s">
         <v>3</v>
@@ -6511,7 +6557,7 @@
         <v>10</v>
       </c>
       <c r="B17" t="s">
-        <v>357</v>
+        <v>345</v>
       </c>
       <c r="C17" t="s">
         <v>1</v>
@@ -6522,10 +6568,10 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>358</v>
+        <v>346</v>
       </c>
       <c r="B18" t="s">
-        <v>359</v>
+        <v>347</v>
       </c>
       <c r="C18" t="s">
         <v>75</v>
@@ -6536,13 +6582,13 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>360</v>
+        <v>348</v>
       </c>
       <c r="B19" t="s">
-        <v>361</v>
+        <v>349</v>
       </c>
       <c r="C19" t="s">
-        <v>361</v>
+        <v>349</v>
       </c>
       <c r="D19" t="s">
         <v>3</v>
@@ -6550,13 +6596,13 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>362</v>
+        <v>350</v>
       </c>
       <c r="B20" t="s">
-        <v>363</v>
+        <v>351</v>
       </c>
       <c r="C20" t="s">
-        <v>363</v>
+        <v>351</v>
       </c>
       <c r="D20" t="s">
         <v>3</v>
@@ -6564,13 +6610,13 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>364</v>
+        <v>352</v>
       </c>
       <c r="B21" t="s">
-        <v>365</v>
+        <v>353</v>
       </c>
       <c r="C21" t="s">
-        <v>366</v>
+        <v>354</v>
       </c>
       <c r="D21" t="s">
         <v>6</v>
@@ -6578,13 +6624,13 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>316</v>
+        <v>304</v>
       </c>
       <c r="B23" t="s">
-        <v>367</v>
+        <v>355</v>
       </c>
       <c r="C23" t="s">
-        <v>368</v>
+        <v>356</v>
       </c>
       <c r="D23" t="s">
         <v>6</v>
@@ -6592,13 +6638,13 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>252</v>
+        <v>240</v>
       </c>
       <c r="B24" t="s">
-        <v>259</v>
+        <v>247</v>
       </c>
       <c r="C24" t="s">
-        <v>259</v>
+        <v>247</v>
       </c>
       <c r="D24" t="s">
         <v>3</v>
@@ -6606,13 +6652,13 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>369</v>
+        <v>357</v>
       </c>
       <c r="B25" t="s">
-        <v>370</v>
+        <v>358</v>
       </c>
       <c r="C25" t="s">
-        <v>370</v>
+        <v>358</v>
       </c>
       <c r="D25" t="s">
         <v>3</v>
@@ -6620,10 +6666,10 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>255</v>
+        <v>243</v>
       </c>
       <c r="B26" t="s">
-        <v>256</v>
+        <v>244</v>
       </c>
       <c r="C26" t="s">
         <v>18</v>
@@ -6634,13 +6680,13 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>371</v>
+        <v>359</v>
       </c>
       <c r="B27" t="s">
-        <v>372</v>
+        <v>360</v>
       </c>
       <c r="C27" t="s">
-        <v>373</v>
+        <v>361</v>
       </c>
       <c r="D27" t="s">
         <v>6</v>
@@ -6648,13 +6694,13 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>374</v>
+        <v>362</v>
       </c>
       <c r="B28" t="s">
-        <v>375</v>
+        <v>363</v>
       </c>
       <c r="C28" t="s">
-        <v>376</v>
+        <v>364</v>
       </c>
       <c r="D28" t="s">
         <v>3</v>
@@ -6662,13 +6708,13 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>271</v>
+        <v>259</v>
       </c>
       <c r="B29" t="s">
-        <v>377</v>
+        <v>365</v>
       </c>
       <c r="C29" t="s">
-        <v>378</v>
+        <v>366</v>
       </c>
       <c r="D29" t="s">
         <v>3</v>
@@ -6676,13 +6722,13 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>379</v>
+        <v>367</v>
       </c>
       <c r="B30" t="s">
-        <v>380</v>
+        <v>368</v>
       </c>
       <c r="C30" t="s">
-        <v>380</v>
+        <v>368</v>
       </c>
       <c r="D30" t="s">
         <v>3</v>
@@ -6690,10 +6736,10 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>381</v>
+        <v>369</v>
       </c>
       <c r="B31" t="s">
-        <v>315</v>
+        <v>303</v>
       </c>
       <c r="C31" t="s">
         <v>1</v>
@@ -6704,13 +6750,13 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
       <c r="B32" t="s">
-        <v>259</v>
+        <v>247</v>
       </c>
       <c r="C32" t="s">
-        <v>382</v>
+        <v>370</v>
       </c>
       <c r="D32" t="s">
         <v>6</v>
@@ -6718,13 +6764,13 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>383</v>
+        <v>371</v>
       </c>
       <c r="B33" t="s">
-        <v>384</v>
+        <v>372</v>
       </c>
       <c r="C33" t="s">
-        <v>385</v>
+        <v>373</v>
       </c>
       <c r="D33" t="s">
         <v>3</v>
@@ -6732,13 +6778,13 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>386</v>
+        <v>374</v>
       </c>
       <c r="B34" t="s">
-        <v>377</v>
+        <v>365</v>
       </c>
       <c r="C34" t="s">
-        <v>378</v>
+        <v>366</v>
       </c>
       <c r="D34" t="s">
         <v>3</v>
@@ -6746,13 +6792,13 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>264</v>
+        <v>252</v>
       </c>
       <c r="B35" t="s">
-        <v>387</v>
+        <v>375</v>
       </c>
       <c r="C35" t="s">
-        <v>388</v>
+        <v>376</v>
       </c>
       <c r="D35" t="s">
         <v>3</v>
@@ -6760,13 +6806,13 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>389</v>
+        <v>377</v>
       </c>
       <c r="B36" t="s">
-        <v>390</v>
+        <v>378</v>
       </c>
       <c r="C36" t="s">
-        <v>391</v>
+        <v>379</v>
       </c>
       <c r="D36" t="s">
         <v>6</v>
@@ -6774,7 +6820,7 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>392</v>
+        <v>380</v>
       </c>
       <c r="B37" t="s">
         <v>80</v>
@@ -6788,13 +6834,13 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>393</v>
+        <v>381</v>
       </c>
       <c r="B38" t="s">
-        <v>394</v>
+        <v>382</v>
       </c>
       <c r="C38" t="s">
-        <v>172</v>
+        <v>160</v>
       </c>
       <c r="D38" t="s">
         <v>6</v>
@@ -6802,10 +6848,10 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>395</v>
+        <v>383</v>
       </c>
       <c r="B39" t="s">
-        <v>396</v>
+        <v>384</v>
       </c>
       <c r="C39" t="s">
         <v>67</v>
@@ -6816,10 +6862,10 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>397</v>
+        <v>385</v>
       </c>
       <c r="B40" t="s">
-        <v>398</v>
+        <v>386</v>
       </c>
       <c r="C40" t="s">
         <v>1</v>
@@ -6830,13 +6876,13 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>399</v>
+        <v>387</v>
       </c>
       <c r="B41" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="C41" t="s">
-        <v>245</v>
+        <v>233</v>
       </c>
       <c r="D41" t="s">
         <v>6</v>
@@ -6847,7 +6893,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90C11137-5574-5E4C-8554-76B1FABE68EA}">
   <dimension ref="A1:D4"/>
   <sheetViews>
@@ -6859,7 +6905,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
-        <v>434</v>
+        <v>422</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -6867,7 +6913,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>435</v>
+        <v>423</v>
       </c>
       <c r="B2" t="s">
         <v>46</v>
@@ -6881,13 +6927,13 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
       <c r="B3" t="s">
         <v>48</v>
       </c>
       <c r="C3" t="s">
-        <v>436</v>
+        <v>424</v>
       </c>
       <c r="D3" t="s">
         <v>3</v>
@@ -6895,13 +6941,13 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>437</v>
+        <v>425</v>
       </c>
       <c r="B4" t="s">
         <v>46</v>
       </c>
       <c r="C4" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
       <c r="D4" t="s">
         <v>6</v>
@@ -6912,7 +6958,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7599FEB-1282-1041-972C-2CB69FFEB6DD}">
   <dimension ref="A1:D14"/>
   <sheetViews>
@@ -6922,7 +6968,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
-        <v>438</v>
+        <v>426</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -6930,7 +6976,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>439</v>
+        <v>427</v>
       </c>
       <c r="B2" t="s">
         <v>48</v>
@@ -6944,13 +6990,13 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>440</v>
+        <v>428</v>
       </c>
       <c r="B3" t="s">
-        <v>312</v>
+        <v>300</v>
       </c>
       <c r="C3" t="s">
-        <v>312</v>
+        <v>300</v>
       </c>
       <c r="D3" t="s">
         <v>3</v>
@@ -6958,13 +7004,13 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>309</v>
+        <v>297</v>
       </c>
       <c r="B4" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="C4" t="s">
-        <v>312</v>
+        <v>300</v>
       </c>
       <c r="D4" t="s">
         <v>6</v>
@@ -6972,13 +7018,13 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>441</v>
+        <v>429</v>
       </c>
       <c r="B5" t="s">
-        <v>442</v>
+        <v>430</v>
       </c>
       <c r="C5" t="s">
-        <v>442</v>
+        <v>430</v>
       </c>
       <c r="D5" t="s">
         <v>3</v>
@@ -6986,13 +7032,13 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>401</v>
+        <v>389</v>
       </c>
       <c r="B6" t="s">
-        <v>402</v>
+        <v>390</v>
       </c>
       <c r="C6" t="s">
-        <v>443</v>
+        <v>431</v>
       </c>
       <c r="D6" t="s">
         <v>6</v>
@@ -7000,7 +7046,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>444</v>
+        <v>432</v>
       </c>
       <c r="B9" t="s">
         <v>46</v>
@@ -7014,13 +7060,13 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>445</v>
+        <v>433</v>
       </c>
       <c r="B10" t="s">
-        <v>446</v>
+        <v>434</v>
       </c>
       <c r="C10" t="s">
-        <v>447</v>
+        <v>435</v>
       </c>
       <c r="D10" t="s">
         <v>6</v>
@@ -7028,13 +7074,13 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>448</v>
+        <v>436</v>
       </c>
       <c r="B11" t="s">
-        <v>449</v>
+        <v>437</v>
       </c>
       <c r="C11" t="s">
-        <v>450</v>
+        <v>438</v>
       </c>
       <c r="D11" t="s">
         <v>6</v>
@@ -7042,10 +7088,10 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>451</v>
+        <v>439</v>
       </c>
       <c r="C12" t="s">
-        <v>319</v>
+        <v>307</v>
       </c>
       <c r="D12" t="s">
         <v>3</v>
@@ -7053,30 +7099,30 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>277</v>
+        <v>265</v>
       </c>
       <c r="B13" t="s">
-        <v>452</v>
+        <v>440</v>
       </c>
       <c r="C13" t="s">
-        <v>452</v>
+        <v>440</v>
       </c>
       <c r="D13" t="s">
-        <v>270</v>
+        <v>258</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>453</v>
+        <v>441</v>
       </c>
       <c r="B14" t="s">
         <v>46</v>
       </c>
       <c r="C14" t="s">
-        <v>452</v>
+        <v>440</v>
       </c>
       <c r="D14" t="s">
-        <v>270</v>
+        <v>258</v>
       </c>
     </row>
   </sheetData>
@@ -7084,7 +7130,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3F06BF0-A0E3-1A4E-995C-574BDD120537}">
   <dimension ref="A1:D7"/>
   <sheetViews>
@@ -7110,7 +7156,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>454</v>
+        <v>442</v>
       </c>
       <c r="D2" t="s">
         <v>3</v>
@@ -7118,7 +7164,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>455</v>
+        <v>443</v>
       </c>
       <c r="C4" t="s">
         <v>1</v>
@@ -7126,13 +7172,13 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>456</v>
+        <v>444</v>
       </c>
       <c r="B5" t="s">
-        <v>457</v>
+        <v>445</v>
       </c>
       <c r="C5" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="D5" t="s">
         <v>3</v>
@@ -7140,13 +7186,13 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>458</v>
+        <v>446</v>
       </c>
       <c r="B6" t="s">
-        <v>459</v>
+        <v>447</v>
       </c>
       <c r="C6" t="s">
-        <v>460</v>
+        <v>448</v>
       </c>
       <c r="D6" t="s">
         <v>3</v>
@@ -7154,13 +7200,13 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>453</v>
+        <v>441</v>
       </c>
       <c r="B7" t="s">
         <v>46</v>
       </c>
       <c r="C7" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
       <c r="D7" t="s">
         <v>6</v>
@@ -7171,7 +7217,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{994C57D5-0E08-4445-8BEF-0EA5205B566C}">
   <dimension ref="A1:D10"/>
   <sheetViews>
@@ -7195,7 +7241,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>462</v>
+        <v>450</v>
       </c>
       <c r="D2" t="s">
         <v>3</v>
@@ -7203,7 +7249,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>463</v>
+        <v>451</v>
       </c>
       <c r="C4" t="s">
         <v>1</v>
@@ -7211,13 +7257,13 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>464</v>
+        <v>452</v>
       </c>
       <c r="B5" t="s">
-        <v>326</v>
+        <v>314</v>
       </c>
       <c r="C5" t="s">
-        <v>465</v>
+        <v>453</v>
       </c>
       <c r="D5" t="s">
         <v>3</v>
@@ -7225,13 +7271,13 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>466</v>
+        <v>454</v>
       </c>
       <c r="B6" t="s">
-        <v>452</v>
+        <v>440</v>
       </c>
       <c r="C6" t="s">
-        <v>467</v>
+        <v>455</v>
       </c>
       <c r="D6" t="s">
         <v>3</v>
@@ -7239,13 +7285,13 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>468</v>
+        <v>456</v>
       </c>
       <c r="B7" t="s">
-        <v>319</v>
+        <v>307</v>
       </c>
       <c r="C7" t="s">
-        <v>319</v>
+        <v>307</v>
       </c>
       <c r="D7" t="s">
         <v>3</v>
@@ -7253,13 +7299,13 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>469</v>
+        <v>457</v>
       </c>
       <c r="B8" t="s">
-        <v>352</v>
+        <v>340</v>
       </c>
       <c r="C8" t="s">
-        <v>470</v>
+        <v>458</v>
       </c>
       <c r="D8" t="s">
         <v>6</v>
@@ -7267,13 +7313,13 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>309</v>
+        <v>297</v>
       </c>
       <c r="B9" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="C9" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="D9" t="s">
         <v>3</v>
@@ -7281,7 +7327,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>453</v>
+        <v>441</v>
       </c>
       <c r="B10" t="s">
         <v>46</v>
@@ -7290,93 +7336,6 @@
         <v>46</v>
       </c>
       <c r="D10" t="s">
-        <v>3</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{986FABE1-118A-5E43-B91C-BCFEDBC10DCE}">
-  <dimension ref="A1:D7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M22" sqref="M22"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>89</v>
-      </c>
-      <c r="B1" t="s">
-        <v>90</v>
-      </c>
-      <c r="C1" t="s">
-        <v>91</v>
-      </c>
-      <c r="D1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>471</v>
-      </c>
-      <c r="D2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B4" t="s">
-        <v>472</v>
-      </c>
-      <c r="C4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>473</v>
-      </c>
-      <c r="B5" t="s">
-        <v>48</v>
-      </c>
-      <c r="C5" t="s">
-        <v>436</v>
-      </c>
-      <c r="D5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>471</v>
-      </c>
-      <c r="B6" t="s">
-        <v>319</v>
-      </c>
-      <c r="C6" t="s">
-        <v>319</v>
-      </c>
-      <c r="D6" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>453</v>
-      </c>
-      <c r="B7" t="s">
-        <v>46</v>
-      </c>
-      <c r="C7" t="s">
-        <v>46</v>
-      </c>
-      <c r="D7" t="s">
         <v>3</v>
       </c>
     </row>
@@ -7414,7 +7373,7 @@
         <v>93</v>
       </c>
       <c r="D2" t="s">
-        <v>108</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -7423,6 +7382,93 @@
 </file>
 
 <file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{986FABE1-118A-5E43-B91C-BCFEDBC10DCE}">
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M22" sqref="M22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>459</v>
+      </c>
+      <c r="D2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>460</v>
+      </c>
+      <c r="C4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>461</v>
+      </c>
+      <c r="B5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C5" t="s">
+        <v>424</v>
+      </c>
+      <c r="D5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>459</v>
+      </c>
+      <c r="B6" t="s">
+        <v>307</v>
+      </c>
+      <c r="C6" t="s">
+        <v>307</v>
+      </c>
+      <c r="D6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>441</v>
+      </c>
+      <c r="B7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82692779-09AA-134F-8735-068E1DCCDC14}">
   <dimension ref="A1:D7"/>
   <sheetViews>
@@ -7448,7 +7494,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>474</v>
+        <v>462</v>
       </c>
       <c r="D2" t="s">
         <v>3</v>
@@ -7456,7 +7502,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>475</v>
+        <v>463</v>
       </c>
       <c r="C4" t="s">
         <v>1</v>
@@ -7464,13 +7510,13 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>476</v>
+        <v>464</v>
       </c>
       <c r="B5" t="s">
-        <v>477</v>
+        <v>465</v>
       </c>
       <c r="C5" t="s">
-        <v>478</v>
+        <v>466</v>
       </c>
       <c r="D5" t="s">
         <v>3</v>
@@ -7478,13 +7524,13 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>479</v>
+        <v>467</v>
       </c>
       <c r="B6" t="s">
-        <v>480</v>
+        <v>468</v>
       </c>
       <c r="C6" t="s">
-        <v>480</v>
+        <v>468</v>
       </c>
       <c r="D6" t="s">
         <v>3</v>
@@ -7492,7 +7538,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>469</v>
+        <v>457</v>
       </c>
       <c r="B7" t="s">
         <v>48</v>
@@ -7509,7 +7555,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B0AF60B-9B34-7B42-8B11-3C86A2762EE7}">
   <dimension ref="A1:D8"/>
   <sheetViews>
@@ -7538,7 +7584,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>481</v>
+        <v>469</v>
       </c>
       <c r="D2" t="s">
         <v>3</v>
@@ -7546,7 +7592,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>482</v>
+        <v>470</v>
       </c>
       <c r="B3" t="s">
         <v>1</v>
@@ -7557,10 +7603,10 @@
         <v>83</v>
       </c>
       <c r="B4" t="s">
-        <v>312</v>
+        <v>300</v>
       </c>
       <c r="C4" t="s">
-        <v>483</v>
+        <v>471</v>
       </c>
       <c r="D4" t="s">
         <v>6</v>
@@ -7568,13 +7614,13 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>441</v>
+        <v>429</v>
       </c>
       <c r="B5" t="s">
-        <v>484</v>
+        <v>472</v>
       </c>
       <c r="C5" t="s">
-        <v>485</v>
+        <v>473</v>
       </c>
       <c r="D5" t="s">
         <v>6</v>
@@ -7582,13 +7628,13 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>342</v>
+        <v>330</v>
       </c>
       <c r="B6" t="s">
-        <v>486</v>
+        <v>474</v>
       </c>
       <c r="C6" t="s">
-        <v>487</v>
+        <v>475</v>
       </c>
       <c r="D6" t="s">
         <v>6</v>
@@ -7596,13 +7642,13 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>479</v>
+        <v>467</v>
       </c>
       <c r="B7" t="s">
-        <v>488</v>
+        <v>476</v>
       </c>
       <c r="C7" t="s">
-        <v>489</v>
+        <v>477</v>
       </c>
       <c r="D7" t="s">
         <v>6</v>
@@ -7610,13 +7656,13 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>469</v>
+        <v>457</v>
       </c>
       <c r="B8" t="s">
-        <v>326</v>
+        <v>314</v>
       </c>
       <c r="C8" t="s">
-        <v>490</v>
+        <v>478</v>
       </c>
       <c r="D8" t="s">
         <v>6</v>
@@ -7627,7 +7673,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{666D6C8E-8321-8544-B7CA-677D00C704F7}">
   <dimension ref="A1:D7"/>
   <sheetViews>
@@ -7653,7 +7699,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>491</v>
+        <v>479</v>
       </c>
       <c r="D2" t="s">
         <v>3</v>
@@ -7661,7 +7707,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>482</v>
+        <v>470</v>
       </c>
       <c r="B3" t="s">
         <v>1</v>
@@ -7669,13 +7715,13 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>441</v>
+        <v>429</v>
       </c>
       <c r="B5" t="s">
-        <v>484</v>
+        <v>472</v>
       </c>
       <c r="C5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D5" t="s">
         <v>3</v>
@@ -7683,13 +7729,13 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>342</v>
+        <v>330</v>
       </c>
       <c r="B6" t="s">
-        <v>486</v>
+        <v>474</v>
       </c>
       <c r="C6" t="s">
-        <v>492</v>
+        <v>480</v>
       </c>
       <c r="D6" t="s">
         <v>6</v>
@@ -7697,13 +7743,13 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>479</v>
+        <v>467</v>
       </c>
       <c r="B7" t="s">
-        <v>488</v>
+        <v>476</v>
       </c>
       <c r="C7" t="s">
-        <v>493</v>
+        <v>481</v>
       </c>
       <c r="D7" t="s">
         <v>3</v>
@@ -7714,7 +7760,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{627ACA17-3EB0-FA45-8E3C-54872AF9C9A1}">
   <dimension ref="A1:D7"/>
   <sheetViews>
@@ -7738,7 +7784,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>494</v>
+        <v>482</v>
       </c>
       <c r="D2" t="s">
         <v>3</v>
@@ -7746,7 +7792,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>495</v>
+        <v>483</v>
       </c>
       <c r="C4" t="s">
         <v>1</v>
@@ -7754,13 +7800,13 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>496</v>
+        <v>484</v>
       </c>
       <c r="B5" t="s">
-        <v>497</v>
+        <v>485</v>
       </c>
       <c r="C5" t="s">
-        <v>498</v>
+        <v>486</v>
       </c>
       <c r="D5" t="s">
         <v>3</v>
@@ -7768,13 +7814,13 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>499</v>
+        <v>487</v>
       </c>
       <c r="B6" t="s">
-        <v>497</v>
+        <v>485</v>
       </c>
       <c r="C6" t="s">
-        <v>498</v>
+        <v>486</v>
       </c>
       <c r="D6" t="s">
         <v>3</v>
@@ -7782,13 +7828,13 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>331</v>
+        <v>319</v>
       </c>
       <c r="B7" t="s">
-        <v>500</v>
+        <v>488</v>
       </c>
       <c r="C7" t="s">
-        <v>501</v>
+        <v>489</v>
       </c>
       <c r="D7" t="s">
         <v>6</v>
@@ -7799,7 +7845,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF584695-EA4D-1A40-AA38-FDFB503788AB}">
   <dimension ref="A1:D2"/>
   <sheetViews>
@@ -7825,7 +7871,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>502</v>
+        <v>490</v>
       </c>
       <c r="D2" t="s">
         <v>3</v>
@@ -7836,7 +7882,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0503E8E5-90D6-9E48-9F7C-A58296F4A68E}">
   <dimension ref="A1:D6"/>
   <sheetViews>
@@ -7860,7 +7906,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>503</v>
+        <v>491</v>
       </c>
       <c r="D2" t="s">
         <v>3</v>
@@ -7868,7 +7914,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>504</v>
+        <v>492</v>
       </c>
       <c r="C4" t="s">
         <v>1</v>
@@ -7876,13 +7922,13 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>505</v>
+        <v>493</v>
       </c>
       <c r="B5" t="s">
-        <v>506</v>
+        <v>494</v>
       </c>
       <c r="C5" t="s">
-        <v>507</v>
+        <v>495</v>
       </c>
       <c r="D5" t="s">
         <v>3</v>
@@ -7890,13 +7936,13 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>508</v>
+        <v>496</v>
       </c>
       <c r="B6" t="s">
-        <v>506</v>
+        <v>494</v>
       </c>
       <c r="C6" t="s">
-        <v>507</v>
+        <v>495</v>
       </c>
       <c r="D6" t="s">
         <v>3</v>
@@ -7907,7 +7953,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3951A6D6-DAC8-F248-8D44-62BADD48D92E}">
   <dimension ref="A1:D6"/>
   <sheetViews>
@@ -7931,7 +7977,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>503</v>
+        <v>491</v>
       </c>
       <c r="D2" t="s">
         <v>3</v>
@@ -7939,7 +7985,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>509</v>
+        <v>497</v>
       </c>
       <c r="C4" t="s">
         <v>1</v>
@@ -7947,13 +7993,13 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>510</v>
+        <v>498</v>
       </c>
       <c r="B5" t="s">
         <v>48</v>
       </c>
       <c r="C5" t="s">
-        <v>436</v>
+        <v>424</v>
       </c>
       <c r="D5" t="s">
         <v>3</v>
@@ -7961,7 +8007,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
       <c r="B6" t="s">
         <v>48</v>
@@ -7978,7 +8024,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A6CF4BC-FB46-E14C-9614-698474510F7A}">
   <dimension ref="A1:D6"/>
   <sheetViews>
@@ -8002,7 +8048,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>503</v>
+        <v>491</v>
       </c>
       <c r="D2" t="s">
         <v>3</v>
@@ -8010,7 +8056,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>511</v>
+        <v>499</v>
       </c>
       <c r="C4" t="s">
         <v>1</v>
@@ -8018,13 +8064,13 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>512</v>
+        <v>500</v>
       </c>
       <c r="B5" t="s">
-        <v>312</v>
+        <v>300</v>
       </c>
       <c r="C5" t="s">
-        <v>312</v>
+        <v>300</v>
       </c>
       <c r="D5" t="s">
         <v>3</v>
@@ -8032,13 +8078,13 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>513</v>
+        <v>501</v>
       </c>
       <c r="B6" t="s">
-        <v>319</v>
+        <v>307</v>
       </c>
       <c r="C6" t="s">
-        <v>319</v>
+        <v>307</v>
       </c>
       <c r="D6" t="s">
         <v>3</v>
@@ -8049,7 +8095,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet49.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E929E4F-529B-574D-9FAE-EBF0514A8038}">
   <dimension ref="A1:D7"/>
   <sheetViews>
@@ -8073,7 +8119,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>514</v>
+        <v>502</v>
       </c>
       <c r="D2" t="s">
         <v>3</v>
@@ -8081,7 +8127,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>515</v>
+        <v>503</v>
       </c>
       <c r="C4" t="s">
         <v>1</v>
@@ -8089,13 +8135,13 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>516</v>
+        <v>504</v>
       </c>
       <c r="B5" t="s">
-        <v>410</v>
+        <v>398</v>
       </c>
       <c r="C5" t="s">
-        <v>410</v>
+        <v>398</v>
       </c>
       <c r="D5" t="s">
         <v>3</v>
@@ -8103,13 +8149,13 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>517</v>
+        <v>505</v>
       </c>
       <c r="B6" t="s">
-        <v>410</v>
+        <v>398</v>
       </c>
       <c r="C6" t="s">
-        <v>410</v>
+        <v>398</v>
       </c>
       <c r="D6" t="s">
         <v>3</v>
@@ -8117,7 +8163,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>518</v>
+        <v>506</v>
       </c>
       <c r="B7" t="s">
         <v>46</v>
@@ -8127,41 +8173,6 @@
       </c>
       <c r="D7" t="s">
         <v>3</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet49.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3FD03B7-D9B2-1446-AA36-2DAC1BEA4F12}">
-  <dimension ref="A1:D2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>89</v>
-      </c>
-      <c r="B1" t="s">
-        <v>90</v>
-      </c>
-      <c r="C1" t="s">
-        <v>91</v>
-      </c>
-      <c r="D1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>519</v>
-      </c>
-      <c r="D2" t="s">
-        <v>108</v>
       </c>
     </row>
   </sheetData>
@@ -8203,7 +8214,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B4" t="s">
         <v>1</v>
@@ -8211,13 +8222,13 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>109</v>
+      </c>
+      <c r="B5" t="s">
         <v>110</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>111</v>
-      </c>
-      <c r="C5" t="s">
-        <v>112</v>
       </c>
       <c r="D5" t="s">
         <v>3</v>
@@ -8225,13 +8236,13 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>112</v>
+      </c>
+      <c r="B6" t="s">
         <v>113</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>114</v>
-      </c>
-      <c r="C6" t="s">
-        <v>115</v>
       </c>
       <c r="D6" t="s">
         <v>6</v>
@@ -8243,6 +8254,41 @@
 </file>
 
 <file path=xl/worksheets/sheet50.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3FD03B7-D9B2-1446-AA36-2DAC1BEA4F12}">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>507</v>
+      </c>
+      <c r="D2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet51.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6CA8087-E192-1B4F-B0EB-6DD4E8D31B57}">
   <dimension ref="A3:D7"/>
   <sheetViews>
@@ -8252,7 +8298,7 @@
   <sheetData>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>520</v>
+        <v>508</v>
       </c>
       <c r="B3" t="s">
         <v>1</v>
@@ -8260,13 +8306,13 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>521</v>
+        <v>509</v>
       </c>
       <c r="B4" t="s">
-        <v>522</v>
+        <v>510</v>
       </c>
       <c r="C4" t="s">
-        <v>523</v>
+        <v>511</v>
       </c>
       <c r="D4" t="s">
         <v>3</v>
@@ -8274,10 +8320,10 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>524</v>
+        <v>512</v>
       </c>
       <c r="C5" t="s">
-        <v>522</v>
+        <v>510</v>
       </c>
       <c r="D5" t="s">
         <v>3</v>
@@ -8285,13 +8331,13 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>525</v>
+        <v>513</v>
       </c>
       <c r="B6" t="s">
-        <v>526</v>
+        <v>514</v>
       </c>
       <c r="C6" t="s">
-        <v>526</v>
+        <v>514</v>
       </c>
       <c r="D6" t="s">
         <v>3</v>
@@ -8299,13 +8345,13 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>399</v>
+        <v>387</v>
       </c>
       <c r="B7" t="s">
-        <v>526</v>
+        <v>514</v>
       </c>
       <c r="C7" t="s">
-        <v>526</v>
+        <v>514</v>
       </c>
       <c r="D7" t="s">
         <v>3</v>
@@ -8316,7 +8362,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet51.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet52.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{113855EC-33E1-0245-AD5F-90C28F7EAEEE}">
   <dimension ref="A3:D6"/>
   <sheetViews>
@@ -8326,7 +8372,7 @@
   <sheetData>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>527</v>
+        <v>515</v>
       </c>
       <c r="B3" t="s">
         <v>1</v>
@@ -8334,13 +8380,13 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>521</v>
+        <v>509</v>
       </c>
       <c r="B4" t="s">
-        <v>526</v>
+        <v>514</v>
       </c>
       <c r="C4" t="s">
-        <v>528</v>
+        <v>516</v>
       </c>
       <c r="D4" t="s">
         <v>3</v>
@@ -8348,10 +8394,10 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>529</v>
+        <v>517</v>
       </c>
       <c r="C5" t="s">
-        <v>526</v>
+        <v>514</v>
       </c>
       <c r="D5" t="s">
         <v>3</v>
@@ -8359,7 +8405,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>530</v>
+        <v>518</v>
       </c>
       <c r="B6" t="s">
         <v>71</v>
@@ -8376,7 +8422,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet52.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet53.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27DBDD05-9D52-ED43-BA1E-DECD2A28AA51}">
   <dimension ref="A3:D7"/>
   <sheetViews>
@@ -8388,7 +8434,7 @@
   <sheetData>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>531</v>
+        <v>519</v>
       </c>
       <c r="B3" t="s">
         <v>1</v>
@@ -8396,13 +8442,13 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>476</v>
+        <v>464</v>
       </c>
       <c r="B4" t="s">
-        <v>526</v>
+        <v>514</v>
       </c>
       <c r="C4" t="s">
-        <v>528</v>
+        <v>516</v>
       </c>
       <c r="D4" t="s">
         <v>3</v>
@@ -8410,13 +8456,13 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>532</v>
+        <v>520</v>
       </c>
       <c r="B5" t="s">
-        <v>526</v>
+        <v>514</v>
       </c>
       <c r="C5" t="s">
-        <v>526</v>
+        <v>514</v>
       </c>
       <c r="D5" t="s">
         <v>3</v>
@@ -8424,13 +8470,13 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>525</v>
+        <v>513</v>
       </c>
       <c r="B6" t="s">
-        <v>526</v>
+        <v>514</v>
       </c>
       <c r="C6" t="s">
-        <v>526</v>
+        <v>514</v>
       </c>
       <c r="D6" t="s">
         <v>3</v>
@@ -8438,13 +8484,13 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>342</v>
+        <v>330</v>
       </c>
       <c r="B7" t="s">
-        <v>534</v>
+        <v>522</v>
       </c>
       <c r="C7" t="s">
-        <v>533</v>
+        <v>521</v>
       </c>
       <c r="D7" t="s">
         <v>3</v>
@@ -8455,7 +8501,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet53.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet54.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA2B1B47-6C87-7C4E-B9B3-EB3A410B4002}">
   <dimension ref="A3:D5"/>
   <sheetViews>
@@ -8467,7 +8513,7 @@
   <sheetData>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>535</v>
+        <v>523</v>
       </c>
       <c r="B3" t="s">
         <v>1</v>
@@ -8475,13 +8521,13 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>536</v>
+        <v>524</v>
       </c>
       <c r="B4" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="C4" t="s">
-        <v>537</v>
+        <v>525</v>
       </c>
       <c r="D4" t="s">
         <v>6</v>
@@ -8489,13 +8535,13 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
       <c r="B5" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="C5" t="s">
-        <v>402</v>
+        <v>390</v>
       </c>
       <c r="D5" t="s">
         <v>6</v>
@@ -8506,7 +8552,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet54.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet55.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96804611-EE06-394D-ADAF-3669C4AB93AB}">
   <dimension ref="A3:D5"/>
   <sheetViews>
@@ -8518,7 +8564,7 @@
   <sheetData>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>538</v>
+        <v>526</v>
       </c>
       <c r="B3" t="s">
         <v>1</v>
@@ -8526,13 +8572,13 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>539</v>
+        <v>527</v>
       </c>
       <c r="B4" t="s">
-        <v>522</v>
+        <v>510</v>
       </c>
       <c r="C4" t="s">
-        <v>523</v>
+        <v>511</v>
       </c>
       <c r="D4" t="s">
         <v>3</v>
@@ -8540,13 +8586,13 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
       <c r="B5" t="s">
-        <v>526</v>
+        <v>514</v>
       </c>
       <c r="C5" t="s">
-        <v>526</v>
+        <v>514</v>
       </c>
       <c r="D5" t="s">
         <v>3</v>
@@ -8557,7 +8603,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet55.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet56.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10E42B13-4474-1A40-92F9-1B19DF1B254B}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -8571,7 +8617,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet56.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet57.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2FB5C72-0B05-C34D-B7C3-9FA97553D697}">
   <dimension ref="A1:D7"/>
   <sheetViews>
@@ -8605,7 +8651,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>540</v>
+        <v>528</v>
       </c>
       <c r="C4" t="s">
         <v>1</v>
@@ -8613,13 +8659,13 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>541</v>
+        <v>529</v>
       </c>
       <c r="B5" t="s">
         <v>46</v>
       </c>
       <c r="C5" t="s">
-        <v>542</v>
+        <v>530</v>
       </c>
       <c r="D5" t="s">
         <v>3</v>
@@ -8627,13 +8673,13 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
       <c r="B6" t="s">
         <v>46</v>
       </c>
       <c r="C6" t="s">
-        <v>542</v>
+        <v>530</v>
       </c>
       <c r="D6" t="s">
         <v>3</v>
@@ -8641,7 +8687,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>543</v>
+        <v>531</v>
       </c>
       <c r="B7" t="s">
         <v>46</v>
@@ -8658,7 +8704,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet57.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet58.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0FEBAC2-728C-E44B-B4A9-A2953C686CA1}">
   <dimension ref="A4:D6"/>
   <sheetViews>
@@ -8670,7 +8716,7 @@
   <sheetData>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>544</v>
+        <v>532</v>
       </c>
       <c r="B4" t="s">
         <v>1</v>
@@ -8678,13 +8724,13 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>545</v>
+        <v>533</v>
       </c>
       <c r="B5" t="s">
         <v>46</v>
       </c>
       <c r="C5" t="s">
-        <v>542</v>
+        <v>530</v>
       </c>
       <c r="D5" t="s">
         <v>3</v>
@@ -8692,7 +8738,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
       <c r="B6" t="s">
         <v>46</v>
@@ -8709,7 +8755,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet58.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet59.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEDF7177-9B5C-0A48-913C-78B560CE0D3E}">
   <dimension ref="A4:D8"/>
   <sheetViews>
@@ -8721,7 +8767,7 @@
   <sheetData>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>546</v>
+        <v>534</v>
       </c>
       <c r="B4" t="s">
         <v>1</v>
@@ -8729,13 +8775,13 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>547</v>
+        <v>535</v>
       </c>
       <c r="B5" t="s">
         <v>46</v>
       </c>
       <c r="C5" t="s">
-        <v>542</v>
+        <v>530</v>
       </c>
       <c r="D5" t="s">
         <v>3</v>
@@ -8743,7 +8789,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
       <c r="B7" t="s">
         <v>46</v>
@@ -8757,7 +8803,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="B8" t="s">
         <v>46</v>
@@ -8767,57 +8813,6 @@
       </c>
       <c r="D8" t="s">
         <v>6</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet59.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98B9DB7A-298F-6B42-82EA-A5F8688C12A8}">
-  <dimension ref="A2:D4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>548</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>549</v>
-      </c>
-      <c r="B3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C3" t="s">
-        <v>542</v>
-      </c>
-      <c r="D3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>187</v>
-      </c>
-      <c r="B4" t="s">
-        <v>46</v>
-      </c>
-      <c r="C4" t="s">
-        <v>46</v>
-      </c>
-      <c r="D4" t="s">
-        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -8854,7 +8849,7 @@
         <v>93</v>
       </c>
       <c r="D2" t="s">
-        <v>108</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -8863,6 +8858,57 @@
 </file>
 
 <file path=xl/worksheets/sheet60.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98B9DB7A-298F-6B42-82EA-A5F8688C12A8}">
+  <dimension ref="A2:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>536</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>537</v>
+      </c>
+      <c r="B3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C3" t="s">
+        <v>530</v>
+      </c>
+      <c r="D3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>175</v>
+      </c>
+      <c r="B4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet61.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAD68102-2B44-C14C-BC38-EE4B2A886388}">
   <dimension ref="A1:D9"/>
   <sheetViews>
@@ -8874,7 +8920,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
-        <v>550</v>
+        <v>538</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -8882,13 +8928,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>551</v>
+        <v>539</v>
       </c>
       <c r="B2" t="s">
         <v>46</v>
       </c>
       <c r="C2" t="s">
-        <v>542</v>
+        <v>530</v>
       </c>
       <c r="D2" t="s">
         <v>3</v>
@@ -8896,13 +8942,13 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>554</v>
+        <v>542</v>
       </c>
       <c r="B3" t="s">
         <v>46</v>
       </c>
       <c r="C3" t="s">
-        <v>555</v>
+        <v>543</v>
       </c>
       <c r="D3" t="s">
         <v>6</v>
@@ -8910,7 +8956,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>316</v>
+        <v>304</v>
       </c>
       <c r="B4" t="s">
         <v>46</v>
@@ -8924,7 +8970,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>252</v>
+        <v>240</v>
       </c>
       <c r="B5" t="s">
         <v>46</v>
@@ -8938,7 +8984,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>271</v>
+        <v>259</v>
       </c>
       <c r="B6" t="s">
         <v>46</v>
@@ -8952,7 +8998,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>552</v>
+        <v>540</v>
       </c>
       <c r="B7" t="s">
         <v>46</v>
@@ -8966,7 +9012,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>274</v>
+        <v>262</v>
       </c>
       <c r="B8" t="s">
         <v>46</v>
@@ -8980,7 +9026,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>553</v>
+        <v>541</v>
       </c>
       <c r="B9" t="s">
         <v>46</v>
@@ -8997,7 +9043,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet61.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet62.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{090C6AA1-9E8C-424A-BB8D-D3070A8A68FA}">
   <dimension ref="A2:D4"/>
   <sheetViews>
@@ -9009,7 +9055,7 @@
   <sheetData>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>556</v>
+        <v>544</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
@@ -9017,13 +9063,13 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
       <c r="B3" t="s">
-        <v>410</v>
+        <v>398</v>
       </c>
       <c r="C3" t="s">
-        <v>542</v>
+        <v>530</v>
       </c>
       <c r="D3" t="s">
         <v>6</v>
@@ -9031,10 +9077,10 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>557</v>
+        <v>545</v>
       </c>
       <c r="B4" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="C4" t="s">
         <v>46</v>
@@ -9048,7 +9094,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet62.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet63.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A56CAE67-6A94-7442-962D-85BCC727483B}">
   <dimension ref="A1:D24"/>
   <sheetViews>
@@ -9065,13 +9111,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>558</v>
+        <v>546</v>
       </c>
       <c r="B2" t="s">
-        <v>326</v>
+        <v>314</v>
       </c>
       <c r="C2" t="s">
-        <v>326</v>
+        <v>314</v>
       </c>
       <c r="D2" t="s">
         <v>3</v>
@@ -9079,13 +9125,13 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
       <c r="B3" t="s">
-        <v>526</v>
+        <v>514</v>
       </c>
       <c r="C3" t="s">
-        <v>526</v>
+        <v>514</v>
       </c>
       <c r="D3" t="s">
         <v>3</v>
@@ -9093,13 +9139,13 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>479</v>
+        <v>467</v>
       </c>
       <c r="B4" t="s">
-        <v>559</v>
+        <v>547</v>
       </c>
       <c r="C4" t="s">
-        <v>560</v>
+        <v>548</v>
       </c>
       <c r="D4" t="s">
         <v>6</v>
@@ -9107,10 +9153,10 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>561</v>
+        <v>549</v>
       </c>
       <c r="B5" t="s">
-        <v>562</v>
+        <v>550</v>
       </c>
       <c r="C5" t="s">
         <v>24</v>
@@ -9135,10 +9181,10 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>563</v>
+        <v>551</v>
       </c>
       <c r="B9" t="s">
-        <v>256</v>
+        <v>244</v>
       </c>
       <c r="C9" t="s">
         <v>1</v>
@@ -9149,13 +9195,13 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>342</v>
+        <v>330</v>
       </c>
       <c r="B10" t="s">
-        <v>564</v>
+        <v>552</v>
       </c>
       <c r="C10" t="s">
-        <v>564</v>
+        <v>552</v>
       </c>
       <c r="D10" t="s">
         <v>3</v>
@@ -9163,13 +9209,13 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>221</v>
+        <v>209</v>
       </c>
       <c r="B11" t="s">
-        <v>565</v>
+        <v>553</v>
       </c>
       <c r="C11" t="s">
-        <v>566</v>
+        <v>554</v>
       </c>
       <c r="D11" t="s">
         <v>6</v>
@@ -9177,13 +9223,13 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>551</v>
+        <v>539</v>
       </c>
       <c r="B12" t="s">
         <v>19</v>
       </c>
       <c r="C12" t="s">
-        <v>567</v>
+        <v>555</v>
       </c>
       <c r="D12" t="s">
         <v>3</v>
@@ -9191,13 +9237,13 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>568</v>
+        <v>556</v>
       </c>
       <c r="B13" t="s">
-        <v>569</v>
+        <v>557</v>
       </c>
       <c r="C13" t="s">
-        <v>570</v>
+        <v>558</v>
       </c>
       <c r="D13" t="s">
         <v>6</v>
@@ -9205,13 +9251,13 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>571</v>
+        <v>559</v>
       </c>
       <c r="B14" t="s">
-        <v>572</v>
+        <v>560</v>
       </c>
       <c r="C14" t="s">
-        <v>573</v>
+        <v>561</v>
       </c>
       <c r="D14" t="s">
         <v>6</v>
@@ -9219,13 +9265,13 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>574</v>
+        <v>562</v>
       </c>
       <c r="B15" t="s">
-        <v>575</v>
+        <v>563</v>
       </c>
       <c r="C15" t="s">
-        <v>576</v>
+        <v>564</v>
       </c>
       <c r="D15" t="s">
         <v>3</v>
@@ -9233,13 +9279,13 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>577</v>
+        <v>565</v>
       </c>
       <c r="B16" t="s">
-        <v>578</v>
+        <v>566</v>
       </c>
       <c r="C16" t="s">
-        <v>579</v>
+        <v>567</v>
       </c>
       <c r="D16" t="s">
         <v>6</v>
@@ -9247,13 +9293,13 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>536</v>
+        <v>524</v>
       </c>
       <c r="B17" t="s">
-        <v>402</v>
+        <v>390</v>
       </c>
       <c r="C17" t="s">
-        <v>580</v>
+        <v>568</v>
       </c>
       <c r="D17" t="s">
         <v>6</v>
@@ -9261,7 +9307,7 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>541</v>
+        <v>529</v>
       </c>
       <c r="B18" t="s">
         <v>21</v>
@@ -9275,13 +9321,13 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>581</v>
+        <v>569</v>
       </c>
       <c r="B19" t="s">
-        <v>582</v>
+        <v>570</v>
       </c>
       <c r="C19" t="s">
-        <v>582</v>
+        <v>570</v>
       </c>
       <c r="D19" t="s">
         <v>3</v>
@@ -9289,13 +9335,13 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>583</v>
+        <v>571</v>
       </c>
       <c r="B20" t="s">
         <v>46</v>
       </c>
       <c r="C20" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
       <c r="D20" t="s">
         <v>6</v>
@@ -9303,13 +9349,13 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>545</v>
+        <v>533</v>
       </c>
       <c r="B21" t="s">
-        <v>584</v>
+        <v>572</v>
       </c>
       <c r="C21" t="s">
-        <v>585</v>
+        <v>573</v>
       </c>
       <c r="D21" t="s">
         <v>3</v>
@@ -9317,13 +9363,13 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>444</v>
+        <v>432</v>
       </c>
       <c r="B22" t="s">
-        <v>586</v>
+        <v>574</v>
       </c>
       <c r="C22" t="s">
-        <v>587</v>
+        <v>575</v>
       </c>
       <c r="D22" t="s">
         <v>3</v>
@@ -9331,13 +9377,13 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>588</v>
+        <v>576</v>
       </c>
       <c r="B24" t="s">
-        <v>589</v>
+        <v>577</v>
       </c>
       <c r="C24" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
       <c r="D24" t="s">
         <v>6</v>
@@ -9348,7 +9394,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet63.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet64.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B025E40E-9017-6949-B221-2B78C31685C1}">
   <dimension ref="A1:D4"/>
   <sheetViews>
@@ -9365,7 +9411,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>541</v>
+        <v>529</v>
       </c>
       <c r="B2" t="s">
         <v>21</v>
@@ -9379,7 +9425,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>590</v>
+        <v>578</v>
       </c>
       <c r="B3" t="s">
         <v>21</v>
@@ -9393,7 +9439,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="B4" t="s">
         <v>46</v>
@@ -9410,7 +9456,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet64.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet65.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B253676B-B093-694F-BE7E-F72AAF672EAD}">
   <dimension ref="A1:D5"/>
   <sheetViews>
@@ -9427,13 +9473,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>591</v>
+        <v>579</v>
       </c>
       <c r="B2" t="s">
         <v>46</v>
       </c>
       <c r="C2" t="s">
-        <v>542</v>
+        <v>530</v>
       </c>
       <c r="D2" t="s">
         <v>3</v>
@@ -9441,10 +9487,10 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
       <c r="B3" t="s">
-        <v>334</v>
+        <v>322</v>
       </c>
       <c r="C3" t="s">
         <v>11</v>
@@ -9455,13 +9501,13 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="B4" t="s">
-        <v>334</v>
+        <v>322</v>
       </c>
       <c r="C4" t="s">
-        <v>334</v>
+        <v>322</v>
       </c>
       <c r="D4" t="s">
         <v>3</v>
@@ -9486,7 +9532,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet65.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet66.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D4BF9AB-F78E-B14F-B4E5-05216635780D}">
   <dimension ref="A1:D3"/>
   <sheetViews>
@@ -9503,13 +9549,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>592</v>
+        <v>580</v>
       </c>
       <c r="B2" t="s">
-        <v>593</v>
+        <v>581</v>
       </c>
       <c r="C2" t="s">
-        <v>593</v>
+        <v>581</v>
       </c>
       <c r="D2" t="s">
         <v>3</v>
@@ -9517,13 +9563,13 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>594</v>
+        <v>582</v>
       </c>
       <c r="B3" t="s">
-        <v>593</v>
+        <v>581</v>
       </c>
       <c r="C3" t="s">
-        <v>593</v>
+        <v>581</v>
       </c>
       <c r="D3" t="s">
         <v>3</v>
@@ -9534,7 +9580,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet66.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet67.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13FF544C-F116-9243-8318-36686494F102}">
   <dimension ref="A1:D6"/>
   <sheetViews>
@@ -9551,13 +9597,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>610</v>
+        <v>598</v>
       </c>
       <c r="B2" t="s">
-        <v>593</v>
+        <v>581</v>
       </c>
       <c r="C2" t="s">
-        <v>593</v>
+        <v>581</v>
       </c>
       <c r="D2" t="s">
         <v>3</v>
@@ -9565,13 +9611,13 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>441</v>
+        <v>429</v>
       </c>
       <c r="B3" t="s">
-        <v>593</v>
+        <v>581</v>
       </c>
       <c r="C3" t="s">
-        <v>334</v>
+        <v>322</v>
       </c>
       <c r="D3" t="s">
         <v>6</v>
@@ -9579,7 +9625,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>240</v>
+        <v>228</v>
       </c>
       <c r="B4" t="s">
         <v>46</v>
@@ -9596,10 +9642,10 @@
         <v>95</v>
       </c>
       <c r="B5" t="s">
-        <v>593</v>
+        <v>581</v>
       </c>
       <c r="C5" t="s">
-        <v>611</v>
+        <v>599</v>
       </c>
       <c r="D5" t="s">
         <v>3</v>
@@ -9607,13 +9653,13 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>277</v>
+        <v>265</v>
       </c>
       <c r="B6" t="s">
-        <v>593</v>
+        <v>581</v>
       </c>
       <c r="C6" t="s">
-        <v>593</v>
+        <v>581</v>
       </c>
       <c r="D6" t="s">
         <v>3</v>
@@ -9624,7 +9670,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet67.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet68.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC2A89BA-7C29-DC49-BF80-FD877A319691}">
   <dimension ref="A1:D3"/>
   <sheetViews>
@@ -9641,13 +9687,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>612</v>
+        <v>600</v>
       </c>
       <c r="B2" t="s">
-        <v>613</v>
+        <v>601</v>
       </c>
       <c r="C2" t="s">
-        <v>614</v>
+        <v>602</v>
       </c>
       <c r="D2" t="s">
         <v>3</v>
@@ -9655,13 +9701,13 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>615</v>
+        <v>603</v>
       </c>
       <c r="B3" t="s">
-        <v>334</v>
+        <v>322</v>
       </c>
       <c r="C3" t="s">
-        <v>334</v>
+        <v>322</v>
       </c>
       <c r="D3" t="s">
         <v>3</v>
@@ -9672,7 +9718,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet68.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet69.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D4A1C8F-4DE4-CD47-8329-A47BEC77FA6B}">
   <dimension ref="A1:D4"/>
   <sheetViews>
@@ -9687,13 +9733,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>591</v>
+        <v>579</v>
       </c>
       <c r="B2" t="s">
         <v>46</v>
       </c>
       <c r="C2" t="s">
-        <v>542</v>
+        <v>530</v>
       </c>
       <c r="D2" t="s">
         <v>3</v>
@@ -9701,7 +9747,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
       <c r="B3" t="s">
         <v>46</v>
@@ -9715,7 +9761,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>277</v>
+        <v>265</v>
       </c>
       <c r="B4" t="s">
         <v>46</v>
@@ -9725,141 +9771,6 @@
       </c>
       <c r="D4" t="s">
         <v>3</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet69.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CBD2B3B-AA77-2F4B-BA6D-F68646A160EE}">
-  <dimension ref="A2:D11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N23" sqref="N23"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>595</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>607</v>
-      </c>
-      <c r="B3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C3" t="s">
-        <v>542</v>
-      </c>
-      <c r="D3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>608</v>
-      </c>
-      <c r="B4" t="s">
-        <v>46</v>
-      </c>
-      <c r="C4" t="s">
-        <v>46</v>
-      </c>
-      <c r="D4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>314</v>
-      </c>
-      <c r="B5" t="s">
-        <v>46</v>
-      </c>
-      <c r="C5" t="s">
-        <v>46</v>
-      </c>
-      <c r="D5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>316</v>
-      </c>
-      <c r="B6" t="s">
-        <v>46</v>
-      </c>
-      <c r="C6" t="s">
-        <v>46</v>
-      </c>
-      <c r="D6" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>552</v>
-      </c>
-      <c r="B8" t="s">
-        <v>46</v>
-      </c>
-      <c r="C8" t="s">
-        <v>46</v>
-      </c>
-      <c r="D8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>264</v>
-      </c>
-      <c r="B9" t="s">
-        <v>609</v>
-      </c>
-      <c r="C9" t="s">
-        <v>609</v>
-      </c>
-      <c r="D9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>271</v>
-      </c>
-      <c r="B10" t="s">
-        <v>46</v>
-      </c>
-      <c r="C10" t="s">
-        <v>1</v>
-      </c>
-      <c r="D10" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>274</v>
-      </c>
-      <c r="B11" t="s">
-        <v>46</v>
-      </c>
-      <c r="C11" t="s">
-        <v>1</v>
-      </c>
-      <c r="D11" t="s">
-        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -9879,7 +9790,7 @@
   <sheetData>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="B4" t="s">
         <v>1</v>
@@ -9887,35 +9798,35 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="B5" t="s">
-        <v>129</v>
+        <v>607</v>
       </c>
       <c r="C5" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
       <c r="D5" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="B6" t="s">
-        <v>132</v>
+        <v>46</v>
       </c>
       <c r="C6" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="D6" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="B8" t="s">
         <v>1</v>
@@ -9923,27 +9834,27 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="B9" t="s">
-        <v>129</v>
+        <v>607</v>
       </c>
       <c r="C9" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
       <c r="D9" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="B10" t="s">
-        <v>134</v>
+        <v>608</v>
       </c>
       <c r="C10" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="D10" t="s">
         <v>6</v>
@@ -9951,16 +9862,16 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="B11" t="s">
-        <v>132</v>
+        <v>46</v>
       </c>
       <c r="C11" t="s">
         <v>46</v>
       </c>
       <c r="D11" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -9969,6 +9880,141 @@
 </file>
 
 <file path=xl/worksheets/sheet70.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CBD2B3B-AA77-2F4B-BA6D-F68646A160EE}">
+  <dimension ref="A2:D11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N23" sqref="N23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>583</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>595</v>
+      </c>
+      <c r="B3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C3" t="s">
+        <v>530</v>
+      </c>
+      <c r="D3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>596</v>
+      </c>
+      <c r="B4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>302</v>
+      </c>
+      <c r="B5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>304</v>
+      </c>
+      <c r="B6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>540</v>
+      </c>
+      <c r="B8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C8" t="s">
+        <v>46</v>
+      </c>
+      <c r="D8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>252</v>
+      </c>
+      <c r="B9" t="s">
+        <v>597</v>
+      </c>
+      <c r="C9" t="s">
+        <v>597</v>
+      </c>
+      <c r="D9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>259</v>
+      </c>
+      <c r="B10" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" t="s">
+        <v>1</v>
+      </c>
+      <c r="D10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>262</v>
+      </c>
+      <c r="B11" t="s">
+        <v>46</v>
+      </c>
+      <c r="C11" t="s">
+        <v>1</v>
+      </c>
+      <c r="D11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet71.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B28BEE8-1100-C74D-9CB3-4065F84ECE8F}">
   <dimension ref="A2:D4"/>
   <sheetViews>
@@ -9980,7 +10026,7 @@
   <sheetData>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>595</v>
+        <v>583</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
@@ -9988,13 +10034,13 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>596</v>
+        <v>584</v>
       </c>
       <c r="B3" t="s">
         <v>46</v>
       </c>
       <c r="C3" t="s">
-        <v>542</v>
+        <v>530</v>
       </c>
       <c r="D3" t="s">
         <v>3</v>
@@ -10002,7 +10048,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
       <c r="B4" t="s">
         <v>46</v>
@@ -10019,7 +10065,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet71.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet72.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30C933F8-459A-F340-A542-61F6292FEA2C}">
   <dimension ref="A2:D11"/>
   <sheetViews>
@@ -10031,7 +10077,7 @@
   <sheetData>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>597</v>
+        <v>585</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
@@ -10039,13 +10085,13 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>598</v>
+        <v>586</v>
       </c>
       <c r="B3" t="s">
-        <v>526</v>
+        <v>514</v>
       </c>
       <c r="C3" t="s">
-        <v>526</v>
+        <v>514</v>
       </c>
       <c r="D3" t="s">
         <v>3</v>
@@ -10053,7 +10099,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>599</v>
+        <v>587</v>
       </c>
       <c r="B4" t="s">
         <v>46</v>
@@ -10067,7 +10113,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>314</v>
+        <v>302</v>
       </c>
       <c r="B5" t="s">
         <v>46</v>
@@ -10081,7 +10127,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>316</v>
+        <v>304</v>
       </c>
       <c r="B6" t="s">
         <v>46</v>
@@ -10095,10 +10141,10 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>271</v>
+        <v>259</v>
       </c>
       <c r="B7" t="s">
-        <v>600</v>
+        <v>588</v>
       </c>
       <c r="C7" t="s">
         <v>1</v>
@@ -10109,10 +10155,10 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>601</v>
+        <v>589</v>
       </c>
       <c r="B8" t="s">
-        <v>602</v>
+        <v>590</v>
       </c>
       <c r="C8" t="s">
         <v>1</v>
@@ -10123,10 +10169,10 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>274</v>
+        <v>262</v>
       </c>
       <c r="B9" t="s">
-        <v>603</v>
+        <v>591</v>
       </c>
       <c r="C9" t="s">
         <v>1</v>
@@ -10137,10 +10183,10 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>264</v>
+        <v>252</v>
       </c>
       <c r="B10" t="s">
-        <v>604</v>
+        <v>592</v>
       </c>
       <c r="C10" t="s">
         <v>1</v>
@@ -10151,67 +10197,16 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>605</v>
+        <v>593</v>
       </c>
       <c r="B11" t="s">
-        <v>606</v>
+        <v>594</v>
       </c>
       <c r="C11" t="s">
         <v>1</v>
       </c>
       <c r="D11" t="s">
         <v>6</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet72.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{186E2162-3063-CF4F-8121-F970A4ECC8FF}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L18" sqref="L18"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" t="s">
-        <v>616</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s">
-        <v>617</v>
-      </c>
-      <c r="B2" t="s">
-        <v>526</v>
-      </c>
-      <c r="C2" t="s">
-        <v>528</v>
-      </c>
-      <c r="D2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s">
-        <v>187</v>
-      </c>
-      <c r="B3" t="s">
-        <v>526</v>
-      </c>
-      <c r="C3" t="s">
-        <v>526</v>
-      </c>
-      <c r="D3" t="s">
-        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -10220,6 +10215,57 @@
 </file>
 
 <file path=xl/worksheets/sheet73.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{186E2162-3063-CF4F-8121-F970A4ECC8FF}">
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L18" sqref="L18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B1" t="s">
+        <v>604</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>605</v>
+      </c>
+      <c r="B2" t="s">
+        <v>514</v>
+      </c>
+      <c r="C2" t="s">
+        <v>516</v>
+      </c>
+      <c r="D2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>175</v>
+      </c>
+      <c r="B3" t="s">
+        <v>514</v>
+      </c>
+      <c r="C3" t="s">
+        <v>514</v>
+      </c>
+      <c r="D3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet74.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A10821A-C4B5-3A4F-BC48-8446BB32E4E4}">
   <dimension ref="A1:D9"/>
   <sheetViews>
@@ -10245,7 +10291,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D2" t="s">
         <v>3</v>
@@ -10253,7 +10299,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>208</v>
+        <v>196</v>
       </c>
       <c r="B8" t="s">
         <v>1</v>
@@ -10261,13 +10307,13 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>196</v>
+        <v>184</v>
       </c>
       <c r="B9" t="s">
-        <v>234</v>
+        <v>222</v>
       </c>
       <c r="C9" t="s">
-        <v>235</v>
+        <v>223</v>
       </c>
       <c r="D9" t="s">
         <v>3</v>
@@ -10278,7 +10324,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet74.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet75.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{692C6A7D-EC72-2E4F-8586-E2F99E49AD1A}">
   <dimension ref="A1:D9"/>
   <sheetViews>
@@ -10304,7 +10350,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D2" t="s">
         <v>3</v>
@@ -10312,7 +10358,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>205</v>
+        <v>193</v>
       </c>
       <c r="B4" t="s">
         <v>1</v>
@@ -10323,10 +10369,10 @@
         <v>35</v>
       </c>
       <c r="B6" t="s">
-        <v>213</v>
+        <v>201</v>
       </c>
       <c r="C6" t="s">
-        <v>207</v>
+        <v>195</v>
       </c>
       <c r="D6" t="s">
         <v>3</v>
@@ -10334,7 +10380,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>208</v>
+        <v>196</v>
       </c>
       <c r="B8" t="s">
         <v>1</v>
@@ -10345,10 +10391,10 @@
         <v>35</v>
       </c>
       <c r="B9" t="s">
-        <v>213</v>
+        <v>201</v>
       </c>
       <c r="C9" t="s">
-        <v>213</v>
+        <v>201</v>
       </c>
       <c r="D9" t="s">
         <v>3</v>
@@ -10359,7 +10405,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet75.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet76.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70C0B52B-FBCA-094B-82F6-E8C0FDE04B55}">
   <dimension ref="A1:D15"/>
   <sheetViews>
@@ -10385,7 +10431,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D2" t="s">
         <v>3</v>
@@ -10404,10 +10450,10 @@
         <v>40</v>
       </c>
       <c r="B6" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="C6" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="D6" t="s">
         <v>6</v>
@@ -10418,10 +10464,10 @@
         <v>43</v>
       </c>
       <c r="B7" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="C7" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="D7" t="s">
         <v>3</v>
@@ -10440,10 +10486,10 @@
         <v>63</v>
       </c>
       <c r="B10" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="C10" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="D10" t="s">
         <v>6</v>
@@ -10454,10 +10500,10 @@
         <v>43</v>
       </c>
       <c r="B11" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="C11" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="D11" t="s">
         <v>3</v>
@@ -10468,10 +10514,10 @@
         <v>80</v>
       </c>
       <c r="B13" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="C13" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="D13" t="s">
         <v>6</v>
@@ -10482,7 +10528,7 @@
         <v>81</v>
       </c>
       <c r="B14" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="C14" t="s">
         <v>32</v>
@@ -10496,10 +10542,10 @@
         <v>70</v>
       </c>
       <c r="B15" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="C15" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
       <c r="D15" t="s">
         <v>6</v>
@@ -10510,7 +10556,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet76.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet77.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D769FD94-1CA9-B347-B1BD-820C7108D501}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -10539,7 +10585,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>102</v>
+        <v>89</v>
       </c>
       <c r="B1" t="s">
         <v>90</v>
@@ -10553,15 +10599,15 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D2" t="s">
-        <v>108</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="B3" t="s">
         <v>1</v>
@@ -10572,27 +10618,27 @@
         <v>86</v>
       </c>
       <c r="B4" t="s">
-        <v>134</v>
+        <v>606</v>
       </c>
       <c r="C4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D4" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="B5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C5" t="s">
         <v>48</v>
       </c>
       <c r="D5" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -10629,7 +10675,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D2" t="s">
         <v>3</v>
@@ -10637,7 +10683,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="B3" t="s">
         <v>1</v>
@@ -10648,10 +10694,10 @@
         <v>86</v>
       </c>
       <c r="B4" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="C4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D4" t="s">
         <v>6</v>
@@ -10659,13 +10705,13 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="B5" t="s">
         <v>97</v>
       </c>
       <c r="C5" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="D5" t="s">
         <v>6</v>

--- a/testdata/Result.xlsx
+++ b/testdata/Result.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/macpc/Documents/GitHub/GopiTesting/testdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65C96947-4353-9246-84B8-D3647BAB8232}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30FDDF2B-5178-9F40-B399-AE81601D9766}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16020" firstSheet="77" activeTab="78" xr2:uid="{C26E9DF5-8D70-D64B-9B03-89C5CA23F5FE}"/>
+    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16020" firstSheet="5" activeTab="6" xr2:uid="{C26E9DF5-8D70-D64B-9B03-89C5CA23F5FE}"/>
   </bookViews>
   <sheets>
     <sheet name="Inventory" sheetId="1" r:id="rId1"/>
@@ -118,7 +118,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2211" uniqueCount="544">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9615" uniqueCount="675">
   <si>
     <t>Actual</t>
   </si>
@@ -1260,30 +1260,18 @@
     <t>tblInventoryShelfQty</t>
   </si>
   <si>
-    <t>460.80</t>
-  </si>
-  <si>
     <t>tblPackageHeader</t>
   </si>
   <si>
     <t>PackageInventory</t>
   </si>
   <si>
-    <t>000106</t>
-  </si>
-  <si>
-    <t xml:space="preserve">000016              </t>
-  </si>
-  <si>
     <t>Inventorycode</t>
   </si>
   <si>
     <t>tblPackageDetail</t>
   </si>
   <si>
-    <t>000107</t>
-  </si>
-  <si>
     <t xml:space="preserve">000002              </t>
   </si>
   <si>
@@ -1740,16 +1728,421 @@
     <t>CASHIER</t>
   </si>
   <si>
-    <t>CHN</t>
-  </si>
-  <si>
-    <t>Personincharge</t>
-  </si>
-  <si>
-    <t>6877857658</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6877857658     </t>
+    <t>859643</t>
+  </si>
+  <si>
+    <t>859645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">859643              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">859645              </t>
+  </si>
+  <si>
+    <t>495.00</t>
+  </si>
+  <si>
+    <t>410.00</t>
+  </si>
+  <si>
+    <t>411.00</t>
+  </si>
+  <si>
+    <t>412.00</t>
+  </si>
+  <si>
+    <t>500.0000</t>
+  </si>
+  <si>
+    <t>Sks_s</t>
+  </si>
+  <si>
+    <t>1st</t>
+  </si>
+  <si>
+    <t>Iind</t>
+  </si>
+  <si>
+    <t>F1F1</t>
+  </si>
+  <si>
+    <t>s/q</t>
+  </si>
+  <si>
+    <t>S21</t>
+  </si>
+  <si>
+    <t>BRC</t>
+  </si>
+  <si>
+    <t>541s</t>
+  </si>
+  <si>
+    <t>541S</t>
+  </si>
+  <si>
+    <t>RRR</t>
+  </si>
+  <si>
+    <t>Ninth FLOOR</t>
+  </si>
+  <si>
+    <t>EX</t>
+  </si>
+  <si>
+    <t>EX1</t>
+  </si>
+  <si>
+    <t>Prakash</t>
+  </si>
+  <si>
+    <t>Vengat</t>
+  </si>
+  <si>
+    <t>ICE CREAM</t>
+  </si>
+  <si>
+    <t>Bussiness_1</t>
+  </si>
+  <si>
+    <t>Bussiness/1</t>
+  </si>
+  <si>
+    <t>Pravin</t>
+  </si>
+  <si>
+    <t>BABY CARE</t>
+  </si>
+  <si>
+    <t>A/A</t>
+  </si>
+  <si>
+    <t>Senthil</t>
+  </si>
+  <si>
+    <t>Biscuits</t>
+  </si>
+  <si>
+    <t>BRAND</t>
+  </si>
+  <si>
+    <t>Subcategorycode</t>
+  </si>
+  <si>
+    <t>LEARN</t>
+  </si>
+  <si>
+    <t>1.01</t>
+  </si>
+  <si>
+    <t>EXAMPLE</t>
+  </si>
+  <si>
+    <t>Fruits/12</t>
+  </si>
+  <si>
+    <t>Car</t>
+  </si>
+  <si>
+    <t>Pen</t>
+  </si>
+  <si>
+    <t>sdf</t>
+  </si>
+  <si>
+    <t>2.50</t>
+  </si>
+  <si>
+    <t>Dress</t>
+  </si>
+  <si>
+    <t>3.50</t>
+  </si>
+  <si>
+    <t>Cat</t>
+  </si>
+  <si>
+    <t>Mac</t>
+  </si>
+  <si>
+    <t>5%</t>
+  </si>
+  <si>
+    <t>tea</t>
+  </si>
+  <si>
+    <t>Search</t>
+  </si>
+  <si>
+    <t>EX_12</t>
+  </si>
+  <si>
+    <t>Tea</t>
+  </si>
+  <si>
+    <t>Goods</t>
+  </si>
+  <si>
+    <t>Basic</t>
+  </si>
+  <si>
+    <t>Advanced</t>
+  </si>
+  <si>
+    <t>special//</t>
+  </si>
+  <si>
+    <t>category</t>
+  </si>
+  <si>
+    <t>kgs</t>
+  </si>
+  <si>
+    <t>pieces</t>
+  </si>
+  <si>
+    <t>WEX</t>
+  </si>
+  <si>
+    <t>as</t>
+  </si>
+  <si>
+    <t>parammaster</t>
+  </si>
+  <si>
+    <t>ABC_AB</t>
+  </si>
+  <si>
+    <t>ABC_ADD</t>
+  </si>
+  <si>
+    <t>abc</t>
+  </si>
+  <si>
+    <t>DEPARTMENT</t>
+  </si>
+  <si>
+    <t>QWERTY</t>
+  </si>
+  <si>
+    <t>FINANCE</t>
+  </si>
+  <si>
+    <t>Sales</t>
+  </si>
+  <si>
+    <t>WORLD</t>
+  </si>
+  <si>
+    <t>Central</t>
+  </si>
+  <si>
+    <t>tblPosPaymentSub</t>
+  </si>
+  <si>
+    <t>PaymentCode</t>
+  </si>
+  <si>
+    <t>BILLVIEW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BILLVIEW                                          </t>
+  </si>
+  <si>
+    <t>PaymentDesc</t>
+  </si>
+  <si>
+    <t>TransactionType</t>
+  </si>
+  <si>
+    <t>EXPN</t>
+  </si>
+  <si>
+    <t>PAYMENTS</t>
+  </si>
+  <si>
+    <t>Bcancel</t>
+  </si>
+  <si>
+    <t>GRNP</t>
+  </si>
+  <si>
+    <t>CancelBill</t>
+  </si>
+  <si>
+    <t>View</t>
+  </si>
+  <si>
+    <t>S@123</t>
+  </si>
+  <si>
+    <t>bus</t>
+  </si>
+  <si>
+    <t>cycle</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>container</t>
+  </si>
+  <si>
+    <t>open12</t>
+  </si>
+  <si>
+    <t>bag</t>
+  </si>
+  <si>
+    <t>windows</t>
+  </si>
+  <si>
+    <t>ups</t>
+  </si>
+  <si>
+    <t>Exprinter</t>
+  </si>
+  <si>
+    <t>abd17</t>
+  </si>
+  <si>
+    <t>ms7</t>
+  </si>
+  <si>
+    <t>qwerty</t>
+  </si>
+  <si>
+    <t>ABD17</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>VJ</t>
+  </si>
+  <si>
+    <t>AS</t>
+  </si>
+  <si>
+    <t>WE</t>
+  </si>
+  <si>
+    <t>CSK</t>
+  </si>
+  <si>
+    <t>BRC12</t>
+  </si>
+  <si>
+    <t>A@//</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PLASTIC BOWL 7                                    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">FOOD CONTAINER                                    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">warehouse </t>
+  </si>
+  <si>
+    <t xml:space="preserve">V00001    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adult Soap                                        </t>
+  </si>
+  <si>
+    <t>22.00</t>
+  </si>
+  <si>
+    <t>24.00</t>
+  </si>
+  <si>
+    <t>26.00</t>
+  </si>
+  <si>
+    <t>28.00</t>
+  </si>
+  <si>
+    <t>34.00</t>
+  </si>
+  <si>
+    <t>859647</t>
+  </si>
+  <si>
+    <t>QtyOnHand</t>
+  </si>
+  <si>
+    <t>0.000</t>
+  </si>
+  <si>
+    <t>34.000</t>
+  </si>
+  <si>
+    <t>5.000</t>
+  </si>
+  <si>
+    <t>852960</t>
+  </si>
+  <si>
+    <t>859649</t>
+  </si>
+  <si>
+    <t>ReferanceDate</t>
+  </si>
+  <si>
+    <t>01-09-2021</t>
+  </si>
+  <si>
+    <t>2022-07-06 00:00:00.0</t>
+  </si>
+  <si>
+    <t>tblExpireDate_Modification</t>
+  </si>
+  <si>
+    <t>010000</t>
+  </si>
+  <si>
+    <t>ExpiredDate</t>
+  </si>
+  <si>
+    <t>2021-04-21 00:00:00.0</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>859646</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>56</t>
+  </si>
+  <si>
+    <t>859640</t>
+  </si>
+  <si>
+    <t>67</t>
+  </si>
+  <si>
+    <t>78</t>
+  </si>
+  <si>
+    <t>859642</t>
+  </si>
+  <si>
+    <t>234</t>
+  </si>
+  <si>
+    <t>I1200</t>
+  </si>
+  <si>
+    <t>I1800</t>
   </si>
 </sst>
 </file>
@@ -2113,7 +2506,7 @@
     <col min="1" max="1" customWidth="true" width="21.33203125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -2127,7 +2520,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>311</v>
       </c>
@@ -2135,7 +2528,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>155</v>
       </c>
@@ -2143,7 +2536,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>310</v>
       </c>
@@ -2153,13 +2546,13 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>312</v>
+        <v>288</v>
       </c>
       <c r="B5" t="s">
-        <v>313</v>
-      </c>
-      <c r="C5" t="n">
-        <v>345.0</v>
+        <v>674</v>
+      </c>
+      <c r="C5" t="s">
+        <v>245</v>
       </c>
       <c r="D5" t="s">
         <v>91</v>
@@ -2167,26 +2560,38 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>315</v>
+        <v>289</v>
+      </c>
+      <c r="B6" t="s">
+        <v>674</v>
+      </c>
+      <c r="C6" t="s">
+        <v>639</v>
       </c>
       <c r="D6" t="s">
-        <v>7</v>
+        <v>91</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>316</v>
+        <v>290</v>
+      </c>
+      <c r="B7" t="s">
+        <v>674</v>
+      </c>
+      <c r="C7" t="s">
+        <v>640</v>
       </c>
       <c r="D7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" t="s">
         <v>291</v>
       </c>
       <c r="B8" t="s">
-        <v>286</v>
+        <v>674</v>
       </c>
       <c r="C8" t="s">
         <v>292</v>
@@ -2195,12 +2600,12 @@
         <v>91</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9">
       <c r="A9" t="s">
         <v>293</v>
       </c>
       <c r="B9" t="s">
-        <v>286</v>
+        <v>674</v>
       </c>
       <c r="C9" t="s">
         <v>294</v>
@@ -2209,82 +2614,88 @@
         <v>91</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10">
       <c r="A10" t="s">
-        <v>284</v>
+        <v>295</v>
       </c>
       <c r="B10" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+        <v>674</v>
+      </c>
+      <c r="C10" t="s">
+        <v>296</v>
+      </c>
+      <c r="D10" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" t="s">
-        <v>285</v>
+        <v>89</v>
       </c>
       <c r="B11" t="s">
-        <v>317</v>
+        <v>674</v>
       </c>
       <c r="C11" t="s">
-        <v>318</v>
+        <v>641</v>
       </c>
       <c r="D11" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" t="s">
-        <v>288</v>
+        <v>125</v>
       </c>
       <c r="B12" t="s">
-        <v>319</v>
+        <v>674</v>
       </c>
       <c r="C12" t="s">
-        <v>320</v>
+        <v>151</v>
       </c>
       <c r="D12" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" t="s">
-        <v>289</v>
+        <v>297</v>
       </c>
       <c r="B13" t="s">
-        <v>321</v>
+        <v>674</v>
       </c>
       <c r="C13" t="s">
-        <v>322</v>
+        <v>298</v>
       </c>
       <c r="D13" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14">
       <c r="A14" t="s">
-        <v>323</v>
+        <v>299</v>
       </c>
       <c r="B14" t="s">
-        <v>324</v>
+        <v>674</v>
       </c>
       <c r="C14" t="s">
-        <v>325</v>
+        <v>300</v>
       </c>
       <c r="D14" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" t="s">
-        <v>290</v>
+        <v>271</v>
       </c>
       <c r="B15" t="s">
-        <v>326</v>
+        <v>674</v>
       </c>
       <c r="C15" t="s">
-        <v>327</v>
+        <v>642</v>
       </c>
       <c r="D15" t="s">
-        <v>7</v>
+        <v>91</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
@@ -2925,7 +3336,7 @@
     <col min="1" max="1" customWidth="true" width="19.1640625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -2939,7 +3350,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -2947,7 +3358,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4">
       <c r="A4" t="s">
         <v>284</v>
       </c>
@@ -2955,21 +3366,21 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6">
       <c r="A6" t="s">
         <v>345</v>
       </c>
       <c r="B6" t="s">
-        <v>392</v>
+        <v>540</v>
       </c>
       <c r="C6" t="s">
-        <v>393</v>
+        <v>314</v>
       </c>
       <c r="D6" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8">
       <c r="A8" t="s">
         <v>301</v>
       </c>
@@ -2977,49 +3388,49 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9">
       <c r="A9" t="s">
         <v>374</v>
       </c>
       <c r="B9" t="s">
-        <v>392</v>
+        <v>541</v>
       </c>
       <c r="C9" t="s">
-        <v>394</v>
+        <v>105</v>
       </c>
       <c r="D9" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10">
       <c r="A10" t="s">
         <v>375</v>
       </c>
       <c r="B10" t="s">
-        <v>392</v>
+        <v>542</v>
       </c>
       <c r="C10" t="s">
-        <v>339</v>
+        <v>105</v>
       </c>
       <c r="D10" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11">
       <c r="A11" t="s">
         <v>367</v>
       </c>
       <c r="B11" t="s">
-        <v>392</v>
+        <v>543</v>
       </c>
       <c r="C11" t="s">
-        <v>395</v>
+        <v>105</v>
       </c>
       <c r="D11" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13">
       <c r="A13" t="s">
         <v>301</v>
       </c>
@@ -3027,79 +3438,79 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14">
       <c r="A14" t="s">
         <v>361</v>
       </c>
       <c r="B14" t="s">
-        <v>392</v>
+        <v>540</v>
       </c>
       <c r="C14" t="s">
-        <v>396</v>
+        <v>544</v>
       </c>
       <c r="D14" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16">
       <c r="A16" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="B16" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17">
       <c r="A17" t="s">
         <v>361</v>
       </c>
       <c r="B17" t="s">
-        <v>392</v>
+        <v>540</v>
       </c>
       <c r="C17" t="s">
-        <v>392</v>
+        <v>540</v>
       </c>
       <c r="D17" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18">
       <c r="A18" t="s">
         <v>374</v>
       </c>
       <c r="B18" t="s">
-        <v>392</v>
+        <v>541</v>
       </c>
       <c r="C18" t="s">
-        <v>392</v>
+        <v>541</v>
       </c>
       <c r="D18" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19">
       <c r="A19" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="B19" t="s">
-        <v>392</v>
+        <v>542</v>
       </c>
       <c r="C19" t="s">
-        <v>392</v>
+        <v>542</v>
       </c>
       <c r="D19" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20">
       <c r="A20" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="B20" t="s">
-        <v>392</v>
+        <v>543</v>
       </c>
       <c r="C20" t="s">
-        <v>392</v>
+        <v>543</v>
       </c>
       <c r="D20" t="s">
         <v>7</v>
@@ -3120,7 +3531,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -3134,7 +3545,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -3161,9 +3572,9 @@
     <col min="3" max="3" customWidth="true" width="16.1640625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1">
       <c r="A1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -3175,28 +3586,28 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2">
       <c r="A2" t="s">
         <v>3</v>
       </c>
       <c r="D2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="B13" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14">
       <c r="A14" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="B14" t="s">
-        <v>87</v>
+        <v>672</v>
       </c>
       <c r="C14" t="s">
         <v>368</v>
@@ -3205,21 +3616,21 @@
         <v>91</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15">
       <c r="A15" t="s">
         <v>235</v>
       </c>
       <c r="B15" t="s">
-        <v>410</v>
+        <v>654</v>
       </c>
       <c r="C15" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="D15" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16">
       <c r="A16" t="s">
         <v>134</v>
       </c>
@@ -3233,20 +3644,20 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17">
       <c r="A17" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="B17" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18">
       <c r="A18" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="B18" t="s">
-        <v>87</v>
+        <v>672</v>
       </c>
       <c r="C18" t="s">
         <v>368</v>
@@ -3255,35 +3666,35 @@
         <v>91</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19">
       <c r="A19" t="s">
         <v>235</v>
       </c>
       <c r="B19" t="s">
-        <v>410</v>
+        <v>654</v>
       </c>
       <c r="C19" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="D19" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20">
       <c r="A20" t="s">
         <v>235</v>
       </c>
       <c r="B20" t="s">
-        <v>410</v>
+        <v>654</v>
       </c>
       <c r="C20" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="D20" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="21">
       <c r="A21" t="s">
         <v>134</v>
       </c>
@@ -3297,9 +3708,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="22">
       <c r="A22" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="B22" t="s">
         <v>39</v>
@@ -3350,7 +3761,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
@@ -3358,13 +3769,13 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="B6" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="C6" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="D6" t="s">
         <v>7</v>
@@ -3372,7 +3783,7 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="B19" t="s">
         <v>87</v>
@@ -3386,7 +3797,7 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="B20" t="s">
         <v>9</v>
@@ -3394,13 +3805,13 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="B21" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="C21" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="D21" t="s">
         <v>7</v>
@@ -3445,13 +3856,13 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="B7" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="C7" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="D7" t="s">
         <v>91</v>
@@ -3459,13 +3870,13 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="B8" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="C8" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="D8" t="s">
         <v>91</v>
@@ -3510,7 +3921,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
@@ -3532,13 +3943,13 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="B7" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="C7" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="D7" t="s">
         <v>91</v>
@@ -3546,13 +3957,13 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="B8" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="C8" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="D8" t="s">
         <v>91</v>
@@ -3611,7 +4022,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
@@ -3622,10 +4033,10 @@
         <v>271</v>
       </c>
       <c r="B6" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="C6" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="D6" t="s">
         <v>91</v>
@@ -3633,7 +4044,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="B8" t="s">
         <v>9</v>
@@ -3641,13 +4052,13 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="B9" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="C9" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="D9" t="s">
         <v>91</v>
@@ -3658,10 +4069,10 @@
         <v>271</v>
       </c>
       <c r="B10" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="C10" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="D10" t="s">
         <v>91</v>
@@ -3675,7 +4086,7 @@
         <v>87</v>
       </c>
       <c r="C11" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="D11" t="s">
         <v>91</v>
@@ -3683,13 +4094,13 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="B12" t="s">
         <v>90</v>
       </c>
       <c r="C12" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="D12" t="s">
         <v>91</v>
@@ -3870,7 +4281,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
@@ -3881,10 +4292,10 @@
         <v>305</v>
       </c>
       <c r="B6" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="C6" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="D6" t="s">
         <v>7</v>
@@ -3892,13 +4303,13 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="B7" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="C7" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="D7" t="s">
         <v>91</v>
@@ -3906,13 +4317,13 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="B8" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="C8" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="D8" t="s">
         <v>91</v>
@@ -3934,7 +4345,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="B11" t="s">
         <v>9</v>
@@ -3956,13 +4367,13 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="B13" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="C13" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="D13" t="s">
         <v>7</v>
@@ -4010,7 +4421,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
@@ -4021,7 +4432,7 @@
         <v>271</v>
       </c>
       <c r="B6" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="C6" t="s">
         <v>279</v>
@@ -4032,13 +4443,13 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="B7" t="s">
         <v>87</v>
       </c>
       <c r="C7" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="D7" t="s">
         <v>91</v>
@@ -4049,10 +4460,10 @@
         <v>274</v>
       </c>
       <c r="B8" t="s">
+        <v>426</v>
+      </c>
+      <c r="C8" t="s">
         <v>430</v>
-      </c>
-      <c r="C8" t="s">
-        <v>434</v>
       </c>
       <c r="D8" t="s">
         <v>91</v>
@@ -4063,7 +4474,7 @@
         <v>162</v>
       </c>
       <c r="B9" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="C9" t="s">
         <v>39</v>
@@ -4077,10 +4488,10 @@
         <v>162</v>
       </c>
       <c r="B10" t="s">
+        <v>426</v>
+      </c>
+      <c r="C10" t="s">
         <v>430</v>
-      </c>
-      <c r="C10" t="s">
-        <v>434</v>
       </c>
       <c r="D10" t="s">
         <v>91</v>
@@ -4094,7 +4505,7 @@
         <v>87</v>
       </c>
       <c r="C11" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="D11" t="s">
         <v>91</v>
@@ -4102,13 +4513,13 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="B12" t="s">
         <v>225</v>
       </c>
       <c r="C12" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="D12" t="s">
         <v>91</v>
@@ -4127,7 +4538,7 @@
         <v>278</v>
       </c>
       <c r="B16" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="C16" t="s">
         <v>273</v>
@@ -4138,13 +4549,13 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="B17" t="s">
         <v>87</v>
       </c>
       <c r="C17" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="D17" t="s">
         <v>91</v>
@@ -4152,13 +4563,13 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="B20" t="s">
         <v>225</v>
       </c>
       <c r="C20" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="D20" t="s">
         <v>91</v>
@@ -4166,13 +4577,13 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="B21" t="s">
         <v>225</v>
       </c>
       <c r="C21" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="D21" t="s">
         <v>91</v>
@@ -4180,13 +4591,13 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="B22" t="s">
         <v>225</v>
       </c>
       <c r="C22" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="D22" t="s">
         <v>91</v>
@@ -4210,7 +4621,7 @@
     <col min="1" max="1" customWidth="true" width="31.33203125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -4224,7 +4635,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -4232,7 +4643,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3">
       <c r="A3" t="s">
         <v>284</v>
       </c>
@@ -4240,21 +4651,21 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4">
       <c r="A4" t="s">
         <v>285</v>
       </c>
       <c r="B4" t="s">
-        <v>286</v>
+        <v>674</v>
       </c>
       <c r="C4" t="s">
-        <v>287</v>
+        <v>643</v>
       </c>
       <c r="D4" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17">
       <c r="A17" t="s">
         <v>301</v>
       </c>
@@ -4262,12 +4673,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18">
       <c r="A18" t="s">
         <v>302</v>
       </c>
       <c r="B18" t="s">
-        <v>286</v>
+        <v>674</v>
       </c>
       <c r="C18" t="s">
         <v>303</v>
@@ -4276,12 +4687,12 @@
         <v>91</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19">
       <c r="A19" t="s">
         <v>304</v>
       </c>
       <c r="B19" t="s">
-        <v>286</v>
+        <v>674</v>
       </c>
       <c r="C19" t="s">
         <v>303</v>
@@ -4290,7 +4701,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="21">
       <c r="A21" t="s">
         <v>307</v>
       </c>
@@ -4298,12 +4709,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="22">
       <c r="A22" t="s">
         <v>271</v>
       </c>
       <c r="B22" t="s">
-        <v>286</v>
+        <v>674</v>
       </c>
       <c r="C22" t="s">
         <v>9</v>
@@ -4312,12 +4723,12 @@
         <v>91</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="23">
       <c r="A23" t="s">
         <v>305</v>
       </c>
       <c r="B23" t="s">
-        <v>286</v>
+        <v>674</v>
       </c>
       <c r="C23" t="s">
         <v>306</v>
@@ -4365,7 +4776,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
@@ -4376,10 +4787,10 @@
         <v>271</v>
       </c>
       <c r="B6" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="C6" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="D6" t="s">
         <v>91</v>
@@ -4387,13 +4798,13 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="B7" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="C7" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="D7" t="s">
         <v>91</v>
@@ -4417,7 +4828,7 @@
     <col min="1" max="1" bestFit="true" customWidth="true" width="15.1640625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -4431,7 +4842,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -4441,7 +4852,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
@@ -4452,10 +4863,10 @@
         <v>235</v>
       </c>
       <c r="B6" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="C6" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="D6" t="s">
         <v>7</v>
@@ -4463,13 +4874,13 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="B8" t="s">
         <v>90</v>
       </c>
       <c r="C8" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="D8" t="s">
         <v>91</v>
@@ -4483,7 +4894,7 @@
         <v>87</v>
       </c>
       <c r="C9" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="D9" t="s">
         <v>91</v>
@@ -4491,13 +4902,13 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="B10" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="C10" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="D10" t="s">
         <v>91</v>
@@ -4519,7 +4930,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="B17" t="s">
         <v>100</v>
@@ -4563,9 +4974,9 @@
     <col min="1" max="1" bestFit="true" customWidth="true" width="16.0" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1">
       <c r="A1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -4577,17 +4988,17 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2">
       <c r="A2" t="s">
         <v>3</v>
       </c>
       <c r="D2" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
@@ -4595,10 +5006,10 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="B6" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="C6" t="s">
         <v>87</v>
@@ -4609,13 +5020,13 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="B7" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="C7" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="D7" t="s">
         <v>7</v>
@@ -4626,10 +5037,10 @@
         <v>205</v>
       </c>
       <c r="B8" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="C8" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="D8" t="s">
         <v>7</v>
@@ -4637,10 +5048,10 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="B9" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="C9" t="s">
         <v>56</v>
@@ -4651,13 +5062,13 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="B10" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="C10" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="D10" t="s">
         <v>91</v>
@@ -4665,13 +5076,13 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="B12" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="C12" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="D12" t="s">
         <v>91</v>
@@ -4679,10 +5090,10 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="B17" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="C17" t="s">
         <v>128</v>
@@ -4693,13 +5104,13 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="B18" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="C18" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="D18" t="s">
         <v>7</v>
@@ -4707,13 +5118,13 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="B19" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="C19" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="D19" t="s">
         <v>7</v>
@@ -4724,7 +5135,7 @@
         <v>205</v>
       </c>
       <c r="B20" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="C20" t="s">
         <v>87</v>
@@ -4748,7 +5159,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -4762,7 +5173,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -4770,21 +5181,21 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7">
       <c r="A7" t="s">
         <v>235</v>
       </c>
       <c r="B7" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="C7" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="D7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8">
       <c r="A8" t="s">
         <v>134</v>
       </c>
@@ -4792,29 +5203,29 @@
         <v>87</v>
       </c>
       <c r="C8" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="D8" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9">
       <c r="A9" t="s">
+        <v>473</v>
+      </c>
+      <c r="B9" t="s">
+        <v>474</v>
+      </c>
+      <c r="C9" t="s">
         <v>477</v>
       </c>
-      <c r="B9" t="s">
+      <c r="D9" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
         <v>478</v>
-      </c>
-      <c r="C9" t="s">
-        <v>481</v>
-      </c>
-      <c r="D9" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>482</v>
       </c>
       <c r="B10" t="s">
         <v>225</v>
@@ -4895,9 +5306,9 @@
     <col min="1" max="1" bestFit="true" customWidth="true" width="21.6640625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1">
       <c r="A1" t="s">
-        <v>5</v>
+        <v>479</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -4909,115 +5320,115 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2">
       <c r="A2" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="D2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="B11" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12">
       <c r="A12" t="s">
         <v>134</v>
       </c>
       <c r="B12" t="s">
-        <v>394</v>
+        <v>105</v>
       </c>
       <c r="C12" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="D12" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="B13" t="s">
-        <v>394</v>
+        <v>105</v>
       </c>
       <c r="C13" t="s">
-        <v>489</v>
+        <v>515</v>
       </c>
       <c r="D13" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14">
       <c r="A14" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="B14" t="s">
-        <v>487</v>
+        <v>649</v>
       </c>
       <c r="C14" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="D14" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="B15" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16">
       <c r="A16" t="s">
         <v>134</v>
       </c>
       <c r="B16" t="s">
-        <v>394</v>
+        <v>105</v>
       </c>
       <c r="C16" t="s">
-        <v>519</v>
+        <v>648</v>
       </c>
       <c r="D16" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17">
       <c r="A17" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="B17" t="s">
         <v>90</v>
       </c>
       <c r="C17" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="D17" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18">
       <c r="A18" t="s">
         <v>305</v>
       </c>
       <c r="B18" t="s">
+        <v>649</v>
+      </c>
+      <c r="C18" t="s">
         <v>487</v>
       </c>
-      <c r="C18" t="s">
-        <v>491</v>
-      </c>
       <c r="D18" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" t="s">
         <v>376</v>
       </c>
@@ -5025,18 +5436,32 @@
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="21">
       <c r="A21" t="s">
         <v>235</v>
       </c>
       <c r="B21" t="s">
+        <v>649</v>
+      </c>
+      <c r="C21" t="s">
         <v>487</v>
       </c>
-      <c r="C21" t="s">
-        <v>491</v>
-      </c>
       <c r="D21" t="s">
-        <v>7</v>
+        <v>91</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>650</v>
+      </c>
+      <c r="B22" t="s">
+        <v>475</v>
+      </c>
+      <c r="C22" t="s">
+        <v>652</v>
+      </c>
+      <c r="D22" t="s">
+        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -5054,9 +5479,9 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1">
       <c r="A1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -5068,37 +5493,37 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2">
       <c r="A2" t="s">
         <v>3</v>
       </c>
       <c r="D2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
       <c r="A4" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6">
       <c r="A6" t="s">
         <v>235</v>
       </c>
       <c r="B6" t="s">
-        <v>496</v>
+        <v>655</v>
       </c>
       <c r="C6" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="D6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" t="s">
         <v>301</v>
       </c>
@@ -5106,15 +5531,15 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9">
       <c r="A9" t="s">
         <v>134</v>
       </c>
       <c r="B9" t="s">
-        <v>54</v>
+        <v>87</v>
       </c>
       <c r="C9" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="D9" t="s">
         <v>91</v>
@@ -5135,9 +5560,9 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1">
       <c r="A1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -5149,73 +5574,73 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2">
       <c r="A2" t="s">
         <v>3</v>
       </c>
       <c r="D2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
       <c r="A4" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6">
       <c r="A6" t="s">
         <v>235</v>
       </c>
       <c r="B6" t="s">
-        <v>496</v>
+        <v>488</v>
       </c>
       <c r="C6" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="D6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" t="s">
         <v>134</v>
       </c>
       <c r="B9" t="s">
-        <v>499</v>
+        <v>238</v>
       </c>
       <c r="C9" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="D9" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14">
       <c r="A14" t="s">
         <v>305</v>
       </c>
       <c r="B14" t="s">
-        <v>496</v>
+        <v>488</v>
       </c>
       <c r="C14" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="D14" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" t="s">
         <v>361</v>
       </c>
       <c r="B17" t="s">
-        <v>499</v>
+        <v>238</v>
       </c>
       <c r="C17" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="D17" t="s">
         <v>91</v>
@@ -5239,7 +5664,130 @@
     <col min="1" max="1" bestFit="true" customWidth="true" width="23.83203125" collapsed="true"/>
     <col min="3" max="3" bestFit="true" customWidth="true" width="19.6640625" collapsed="true"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>484</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>235</v>
+      </c>
+      <c r="B6" t="s">
+        <v>406</v>
+      </c>
+      <c r="C6" t="s">
+        <v>306</v>
+      </c>
+      <c r="D6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>453</v>
+      </c>
+      <c r="B7" t="s">
+        <v>90</v>
+      </c>
+      <c r="C7" t="s">
+        <v>412</v>
+      </c>
+      <c r="D7" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>656</v>
+      </c>
+      <c r="B8" t="s">
+        <v>657</v>
+      </c>
+      <c r="C8" t="s">
+        <v>658</v>
+      </c>
+      <c r="D8" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>659</v>
+      </c>
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>235</v>
+      </c>
+      <c r="B12" t="s">
+        <v>406</v>
+      </c>
+      <c r="C12" t="s">
+        <v>406</v>
+      </c>
+      <c r="D12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>453</v>
+      </c>
+      <c r="B13" t="s">
+        <v>90</v>
+      </c>
+      <c r="C13" t="s">
+        <v>412</v>
+      </c>
+      <c r="D13" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>661</v>
+      </c>
+      <c r="B14" t="s">
+        <v>657</v>
+      </c>
+      <c r="C14" t="s">
+        <v>658</v>
+      </c>
+      <c r="D14" t="s">
+        <v>91</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -5362,7 +5910,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
@@ -5373,10 +5921,10 @@
         <v>305</v>
       </c>
       <c r="B6" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="C6" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="D6" t="s">
         <v>7</v>
@@ -5395,10 +5943,10 @@
         <v>235</v>
       </c>
       <c r="B14" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="C14" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="D14" t="s">
         <v>7</v>
@@ -5406,7 +5954,7 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="B18" t="s">
         <v>9</v>
@@ -5417,10 +5965,10 @@
         <v>235</v>
       </c>
       <c r="B19" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="C19" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="D19" t="s">
         <v>7</v>
@@ -5503,7 +6051,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
@@ -5514,10 +6062,10 @@
         <v>271</v>
       </c>
       <c r="B6" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="C6" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="D6" t="s">
         <v>7</v>
@@ -5528,10 +6076,10 @@
         <v>235</v>
       </c>
       <c r="B7" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="C7" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="D7" t="s">
         <v>7</v>
@@ -5553,13 +6101,13 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="B9" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="C9" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="D9" t="s">
         <v>7</v>
@@ -5581,7 +6129,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="B11" t="s">
         <v>105</v>
@@ -5595,7 +6143,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="B12" t="s">
         <v>105</v>
@@ -5609,7 +6157,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="B16" t="s">
         <v>9</v>
@@ -5620,10 +6168,10 @@
         <v>235</v>
       </c>
       <c r="B17" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="C17" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="D17" t="s">
         <v>7</v>
@@ -5637,7 +6185,7 @@
         <v>199</v>
       </c>
       <c r="C18" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="D18" t="s">
         <v>91</v>
@@ -5645,13 +6193,13 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="B19" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="C19" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="D19" t="s">
         <v>91</v>
@@ -5673,7 +6221,7 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="B21" t="s">
         <v>105</v>
@@ -5687,7 +6235,7 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="B22" t="s">
         <v>105</v>
@@ -6070,7 +6618,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -6084,7 +6632,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>72</v>
       </c>
@@ -6092,7 +6640,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>73</v>
       </c>
@@ -6100,7 +6648,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>74</v>
       </c>
@@ -6114,7 +6662,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>72</v>
       </c>
@@ -6128,7 +6676,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>78</v>
       </c>
@@ -6142,7 +6690,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>80</v>
       </c>
@@ -6156,7 +6704,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>84</v>
       </c>
@@ -6170,7 +6718,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>86</v>
       </c>
@@ -6184,7 +6732,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>88</v>
       </c>
@@ -6198,7 +6746,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>35</v>
       </c>
@@ -6425,7 +6973,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1">
       <c r="B1" t="s">
         <v>188</v>
       </c>
@@ -6433,35 +6981,35 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2">
       <c r="A2" t="s">
         <v>189</v>
       </c>
       <c r="B2" t="s">
-        <v>185</v>
+        <v>597</v>
       </c>
       <c r="C2" t="s">
         <v>185</v>
       </c>
       <c r="D2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="3">
       <c r="A3" t="s">
         <v>190</v>
       </c>
       <c r="B3" t="s">
-        <v>191</v>
+        <v>598</v>
       </c>
       <c r="C3" t="s">
         <v>191</v>
       </c>
       <c r="D3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="4">
       <c r="A4" t="s">
         <v>72</v>
       </c>
@@ -6475,7 +7023,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5">
       <c r="A5" t="s">
         <v>161</v>
       </c>
@@ -6489,12 +7037,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6">
       <c r="A6" t="s">
         <v>193</v>
       </c>
       <c r="B6" t="s">
-        <v>194</v>
+        <v>599</v>
       </c>
       <c r="C6" t="s">
         <v>195</v>
@@ -6503,7 +7051,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9">
       <c r="A9" t="s">
         <v>196</v>
       </c>
@@ -6517,7 +7065,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10">
       <c r="A10" t="s">
         <v>197</v>
       </c>
@@ -6531,7 +7079,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11">
       <c r="A11" t="s">
         <v>198</v>
       </c>
@@ -6545,13 +7093,11 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12">
       <c r="A12" t="s">
         <v>200</v>
       </c>
-      <c r="B12" t="s">
-        <v>201</v>
-      </c>
+      <c r="B12"/>
       <c r="C12" t="s">
         <v>202</v>
       </c>
@@ -6559,7 +7105,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13">
       <c r="A13" t="s">
         <v>38</v>
       </c>
@@ -6573,7 +7119,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14">
       <c r="A14" t="s">
         <v>156</v>
       </c>
@@ -6818,9 +7364,9 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1">
       <c r="A1" t="s">
-        <v>5</v>
+        <v>222</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -6832,12 +7378,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2">
       <c r="A2" t="s">
         <v>222</v>
       </c>
       <c r="D2" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -7113,7 +7659,7 @@
     <col min="2" max="2" bestFit="true" customWidth="true" width="18.83203125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -7127,7 +7673,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2">
       <c r="A2" t="s">
         <v>248</v>
       </c>
@@ -7135,7 +7681,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3">
       <c r="A3" t="s">
         <v>234</v>
       </c>
@@ -7143,26 +7689,26 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5">
       <c r="A5" t="s">
         <v>161</v>
       </c>
       <c r="B5" t="s">
-        <v>238</v>
+        <v>605</v>
       </c>
       <c r="C5" t="s">
         <v>245</v>
       </c>
       <c r="D5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" t="s">
         <v>109</v>
       </c>
       <c r="B6" t="s">
-        <v>240</v>
+        <v>591</v>
       </c>
       <c r="C6" t="s">
         <v>246</v>
@@ -7171,18 +7717,18 @@
         <v>91</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7">
       <c r="A7" t="s">
         <v>231</v>
       </c>
       <c r="B7" t="s">
-        <v>242</v>
+        <v>565</v>
       </c>
       <c r="C7" t="s">
         <v>247</v>
       </c>
       <c r="D7" t="s">
-        <v>7</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -7200,7 +7746,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -7214,12 +7760,62 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2">
       <c r="A2" t="s">
         <v>249</v>
       </c>
       <c r="D2" t="s">
         <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="B4" t="s">
+        <v>606</v>
+      </c>
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>607</v>
+      </c>
+      <c r="B5" t="s">
+        <v>618</v>
+      </c>
+      <c r="C5" t="s">
+        <v>609</v>
+      </c>
+      <c r="D5" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>610</v>
+      </c>
+      <c r="B6" t="s">
+        <v>618</v>
+      </c>
+      <c r="C6" t="s">
+        <v>609</v>
+      </c>
+      <c r="D6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>611</v>
+      </c>
+      <c r="B7" t="s">
+        <v>615</v>
+      </c>
+      <c r="C7" t="s">
+        <v>613</v>
+      </c>
+      <c r="D7" t="s">
+        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -7329,7 +7925,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -7343,7 +7939,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2">
       <c r="A2" t="s">
         <v>250</v>
       </c>
@@ -7351,7 +7947,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4">
       <c r="B4" t="s">
         <v>251</v>
       </c>
@@ -7359,32 +7955,32 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5">
       <c r="A5" t="s">
-        <v>252</v>
+        <v>107</v>
       </c>
       <c r="B5" t="s">
-        <v>253</v>
+        <v>36</v>
       </c>
       <c r="C5" t="s">
         <v>254</v>
       </c>
       <c r="D5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" t="s">
         <v>255</v>
       </c>
       <c r="B6" t="s">
-        <v>253</v>
+        <v>36</v>
       </c>
       <c r="C6" t="s">
         <v>254</v>
       </c>
       <c r="D6" t="s">
-        <v>7</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -7402,7 +7998,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -7416,7 +8012,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2">
       <c r="A2" t="s">
         <v>250</v>
       </c>
@@ -7424,7 +8020,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4">
       <c r="B4" t="s">
         <v>257</v>
       </c>
@@ -7432,32 +8028,32 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5">
       <c r="A5" t="s">
         <v>258</v>
       </c>
       <c r="B5" t="s">
-        <v>225</v>
+        <v>626</v>
       </c>
       <c r="C5" t="s">
         <v>226</v>
       </c>
       <c r="D5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" t="s">
         <v>116</v>
       </c>
       <c r="B6" t="s">
-        <v>225</v>
+        <v>626</v>
       </c>
       <c r="C6" t="s">
         <v>225</v>
       </c>
       <c r="D6" t="s">
-        <v>7</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -7475,7 +8071,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -7489,7 +8085,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2">
       <c r="A2" t="s">
         <v>250</v>
       </c>
@@ -7497,7 +8093,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4">
       <c r="B4" t="s">
         <v>259</v>
       </c>
@@ -7505,32 +8101,32 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5">
       <c r="A5" t="s">
         <v>260</v>
       </c>
       <c r="B5" t="s">
-        <v>261</v>
+        <v>630</v>
       </c>
       <c r="C5" t="s">
         <v>261</v>
       </c>
       <c r="D5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" t="s">
         <v>262</v>
       </c>
       <c r="B6" t="s">
-        <v>263</v>
+        <v>630</v>
       </c>
       <c r="C6" t="s">
         <v>263</v>
       </c>
       <c r="D6" t="s">
-        <v>7</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -7548,7 +8144,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -7562,7 +8158,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2">
       <c r="A2" t="s">
         <v>264</v>
       </c>
@@ -7570,7 +8166,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4">
       <c r="B4" t="s">
         <v>265</v>
       </c>
@@ -7578,35 +8174,35 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5">
       <c r="A5" t="s">
         <v>266</v>
       </c>
       <c r="B5" t="s">
-        <v>267</v>
+        <v>87</v>
       </c>
       <c r="C5" t="s">
         <v>267</v>
       </c>
       <c r="D5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" t="s">
         <v>268</v>
       </c>
       <c r="B6" t="s">
-        <v>267</v>
+        <v>87</v>
       </c>
       <c r="C6" t="s">
         <v>267</v>
       </c>
       <c r="D6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" t="s">
         <v>269</v>
       </c>
@@ -7634,7 +8230,30 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>596</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -7652,7 +8271,7 @@
     <col min="1" max="1" bestFit="true" customWidth="true" width="13.0" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3">
       <c r="A3" t="s">
         <v>93</v>
       </c>
@@ -7660,54 +8279,52 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4">
       <c r="A4" t="s">
         <v>94</v>
       </c>
       <c r="B4" t="s">
-        <v>95</v>
+        <v>591</v>
       </c>
       <c r="C4" t="s">
         <v>96</v>
       </c>
       <c r="D4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" t="s">
         <v>97</v>
       </c>
-      <c r="B5" t="s">
-        <v>20</v>
-      </c>
+      <c r="B5"/>
       <c r="C5" t="s">
         <v>95</v>
       </c>
       <c r="D5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" t="s">
         <v>98</v>
       </c>
       <c r="B6" t="s">
-        <v>82</v>
+        <v>558</v>
       </c>
       <c r="C6" t="s">
-        <v>82</v>
+        <v>558</v>
       </c>
       <c r="D6" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7">
       <c r="A7" t="s">
         <v>99</v>
       </c>
       <c r="B7" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="C7" t="s">
         <v>100</v>
@@ -7731,7 +8348,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3">
       <c r="A3" t="s">
         <v>101</v>
       </c>
@@ -7739,46 +8356,44 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4">
       <c r="A4" t="s">
-        <v>94</v>
+        <v>569</v>
       </c>
       <c r="B4" t="s">
-        <v>100</v>
+        <v>584</v>
       </c>
       <c r="C4" t="s">
         <v>102</v>
       </c>
       <c r="D4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" t="s">
         <v>103</v>
       </c>
-      <c r="B5" t="s">
-        <v>20</v>
-      </c>
+      <c r="B5"/>
       <c r="C5" t="s">
         <v>100</v>
       </c>
       <c r="D5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" t="s">
         <v>104</v>
       </c>
       <c r="B6" t="s">
-        <v>105</v>
+        <v>429</v>
       </c>
       <c r="C6" t="s">
         <v>105</v>
       </c>
       <c r="D6" t="s">
-        <v>7</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -7796,7 +8411,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3">
       <c r="A3" t="s">
         <v>106</v>
       </c>
@@ -7804,60 +8419,60 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4">
       <c r="A4" t="s">
         <v>107</v>
       </c>
       <c r="B4" t="s">
-        <v>100</v>
+        <v>568</v>
       </c>
       <c r="C4" t="s">
         <v>102</v>
       </c>
       <c r="D4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" t="s">
         <v>108</v>
       </c>
       <c r="B5" t="s">
-        <v>100</v>
+        <v>568</v>
       </c>
       <c r="C5" t="s">
         <v>100</v>
       </c>
       <c r="D5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" t="s">
         <v>98</v>
       </c>
       <c r="B6" t="s">
-        <v>100</v>
+        <v>202</v>
       </c>
       <c r="C6" t="s">
         <v>100</v>
       </c>
       <c r="D6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" t="s">
         <v>109</v>
       </c>
       <c r="B7" t="s">
-        <v>110</v>
+        <v>560</v>
       </c>
       <c r="C7" t="s">
         <v>111</v>
       </c>
       <c r="D7" t="s">
-        <v>7</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -7875,7 +8490,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3">
       <c r="A3" t="s">
         <v>112</v>
       </c>
@@ -7883,35 +8498,35 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4">
       <c r="A4" t="s">
         <v>113</v>
       </c>
       <c r="B4" t="s">
-        <v>114</v>
+        <v>555</v>
       </c>
       <c r="C4" t="s">
         <v>115</v>
       </c>
       <c r="D4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" t="s">
         <v>116</v>
       </c>
       <c r="B5" t="s">
-        <v>114</v>
+        <v>555</v>
       </c>
       <c r="C5" t="s">
         <v>114</v>
       </c>
       <c r="D5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" t="s">
         <v>74</v>
       </c>
@@ -7991,7 +8606,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -8005,7 +8620,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>282</v>
       </c>
@@ -8042,7 +8657,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -8056,7 +8671,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2">
       <c r="A2" t="s">
         <v>125</v>
       </c>
@@ -8064,7 +8679,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4">
       <c r="B4" t="s">
         <v>126</v>
       </c>
@@ -8072,35 +8687,35 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5">
       <c r="A5" t="s">
         <v>127</v>
       </c>
       <c r="B5" t="s">
-        <v>87</v>
+        <v>551</v>
       </c>
       <c r="C5" t="s">
         <v>128</v>
       </c>
       <c r="D5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" t="s">
         <v>116</v>
       </c>
       <c r="B6" t="s">
-        <v>87</v>
+        <v>551</v>
       </c>
       <c r="C6" t="s">
         <v>128</v>
       </c>
       <c r="D6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" t="s">
         <v>129</v>
       </c>
@@ -8670,85 +9285,88 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3DB83E4-6504-9648-BC73-274EF22E4CBC}">
   <dimension ref="A4:D11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K26" sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="15.83203125" collapsed="true"/>
+  </cols>
   <sheetData>
-    <row r="4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>381</v>
+      </c>
+      <c r="B5" t="s">
+        <v>536</v>
+      </c>
+      <c r="C5" t="s">
+        <v>538</v>
+      </c>
+      <c r="D5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
         <v>382</v>
-      </c>
-      <c r="B5" t="s">
-        <v>383</v>
-      </c>
-      <c r="C5" t="s">
-        <v>384</v>
-      </c>
-      <c r="D5" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s">
-        <v>385</v>
       </c>
       <c r="B6" t="s">
         <v>87</v>
       </c>
       <c r="C6" t="s">
-        <v>39</v>
+        <v>87</v>
       </c>
       <c r="D6" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="B8" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>134</v>
       </c>
       <c r="B9" t="s">
-        <v>383</v>
+        <v>536</v>
       </c>
       <c r="C9" t="s">
-        <v>384</v>
+        <v>538</v>
       </c>
       <c r="D9" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="10">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="B10" t="s">
-        <v>387</v>
+        <v>537</v>
       </c>
       <c r="C10" t="s">
-        <v>388</v>
+        <v>539</v>
       </c>
       <c r="D10" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="11">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>134</v>
       </c>
@@ -9435,7 +10053,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="B8" t="s">
         <v>9</v>
@@ -9443,13 +10061,13 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="B9" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="C9" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="D9" t="s">
         <v>7</v>
@@ -9464,7 +10082,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{692C6A7D-EC72-2E4F-8586-E2F99E49AD1A}">
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
@@ -9494,7 +10112,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
@@ -9505,10 +10123,10 @@
         <v>271</v>
       </c>
       <c r="B6" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="C6" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="D6" t="s">
         <v>7</v>
@@ -9516,7 +10134,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="B8" t="s">
         <v>9</v>
@@ -9527,10 +10145,10 @@
         <v>271</v>
       </c>
       <c r="B9" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="C9" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="D9" t="s">
         <v>7</v>
@@ -9578,7 +10196,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="B3" t="s">
         <v>9</v>
@@ -9589,7 +10207,7 @@
         <v>305</v>
       </c>
       <c r="B4" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="C4" t="s">
         <v>306</v>
@@ -9600,7 +10218,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="B5" t="s">
         <v>87</v>
@@ -9666,7 +10284,7 @@
         <v>345</v>
       </c>
       <c r="B6" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="C6" t="s">
         <v>369</v>
@@ -9680,10 +10298,10 @@
         <v>311</v>
       </c>
       <c r="B7" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="C7" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="D7" t="s">
         <v>91</v>
@@ -9702,7 +10320,7 @@
         <v>361</v>
       </c>
       <c r="B10" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="C10" t="s">
         <v>369</v>
@@ -9716,10 +10334,10 @@
         <v>311</v>
       </c>
       <c r="B11" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="C11" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="D11" t="s">
         <v>91</v>
@@ -9730,10 +10348,10 @@
         <v>374</v>
       </c>
       <c r="B13" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="C13" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="D13" t="s">
         <v>91</v>
@@ -9744,7 +10362,7 @@
         <v>375</v>
       </c>
       <c r="B14" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="C14" t="s">
         <v>339</v>
@@ -9758,10 +10376,10 @@
         <v>367</v>
       </c>
       <c r="B15" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="C15" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="D15" t="s">
         <v>91</v>
@@ -9787,7 +10405,7 @@
     <col min="3" max="3" customWidth="true" width="26.0" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -9801,12 +10419,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2">
       <c r="A2" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="D2" t="s">
-        <v>4</v>
+        <v>283</v>
       </c>
     </row>
   </sheetData>
@@ -9978,7 +10596,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="D2" t="s">
         <v>7</v>
@@ -9986,7 +10604,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="C4" t="s">
         <v>9</v>
@@ -9994,7 +10612,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="B5" t="s">
         <v>154</v>
@@ -10008,13 +10626,13 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="B6" t="s">
         <v>154</v>
       </c>
       <c r="C6" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="D6" t="s">
         <v>91</v>
@@ -10022,7 +10640,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="B7" t="s">
         <v>154</v>
@@ -10036,13 +10654,13 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="B8" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="C8" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="D8" t="s">
         <v>91</v>
@@ -10050,13 +10668,13 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="B9" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="C9" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="D9" t="s">
         <v>91</v>
@@ -10064,7 +10682,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="B10" t="s">
         <v>217</v>
@@ -10078,13 +10696,13 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="B11" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="C11" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="D11" t="s">
         <v>91</v>
@@ -10109,10 +10727,10 @@
         <v>32</v>
       </c>
       <c r="B13" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="C13" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="D13" t="s">
         <v>91</v>
@@ -10120,13 +10738,13 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="B14" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="C14" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="D14" t="s">
         <v>7</v>
@@ -10134,13 +10752,13 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="B15" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="C15" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="D15" t="s">
         <v>7</v>
@@ -10188,7 +10806,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="B3" t="s">
         <v>9</v>
@@ -10199,10 +10817,10 @@
         <v>305</v>
       </c>
       <c r="B4" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="C4" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="D4" t="s">
         <v>7</v>
@@ -10210,13 +10828,13 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="B5" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="C5" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="D5" t="s">
         <v>7</v>
